--- a/Shipping & Transportation/HLAG.xlsx
+++ b/Shipping & Transportation/HLAG.xlsx
@@ -1,26 +1,300 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0947DD8C-8EB2-4DA7-9CEA-50C0DF430BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="KPIs" sheetId="4" r:id="rId3"/>
+    <sheet name="Shanghai Container Index" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>HLAG</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Q119</t>
+  </si>
+  <si>
+    <t>Q219</t>
+  </si>
+  <si>
+    <t>Q319</t>
+  </si>
+  <si>
+    <t>Q419</t>
+  </si>
+  <si>
+    <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Operating Result</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Other Finance</t>
+  </si>
+  <si>
+    <t>Income Tax</t>
+  </si>
+  <si>
+    <t>Group Rsult</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>EBITDA Margin</t>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Ebit y/y</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Investments Equity</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Other Current Assets</t>
+  </si>
+  <si>
+    <t>Other Non Current Assets</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Financial Debt</t>
+  </si>
+  <si>
+    <t>Lease Liabilities</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Contract Liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Other Non Current</t>
+  </si>
+  <si>
+    <t>Other Current</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Cash BOP</t>
+  </si>
+  <si>
+    <t>Group Result</t>
+  </si>
+  <si>
+    <t>Interest Result</t>
+  </si>
+  <si>
+    <t>Receivables</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Income Taxes</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>Aquisitions</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Interest &amp; Fees</t>
+  </si>
+  <si>
+    <t>Hedges etc</t>
+  </si>
+  <si>
+    <t>Cash EOP</t>
+  </si>
+  <si>
+    <t>Net Chance</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +302,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +342,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,10 +640,2078 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>195.3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
+        <f>L3*L4</f>
+        <v>34372.800000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4">
+        <f>Model!S29</f>
+        <v>17689.400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="4">
+        <f>-Model!S45-Model!S41</f>
+        <v>-2618.7999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L6+L7</f>
+        <v>15070.600000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="4">
+        <f>L5+L6+L7</f>
+        <v>49443.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57156153-6B21-4ABE-A4F3-DEC182919BBB}">
+  <dimension ref="A1:AF76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AD24" sqref="AD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2">
+        <v>2018</v>
+      </c>
+      <c r="AB2">
+        <v>2019</v>
+      </c>
+      <c r="AC2">
+        <v>2020</v>
+      </c>
+      <c r="AD2">
+        <v>2021</v>
+      </c>
+      <c r="AE2">
+        <v>2022</v>
+      </c>
+      <c r="AF2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4067.4</v>
+      </c>
+      <c r="L3" s="4">
+        <v>4686</v>
+      </c>
+      <c r="M3" s="4">
+        <v>6244.7</v>
+      </c>
+      <c r="N3" s="4">
+        <f>AD3-M3-L3-K3</f>
+        <v>7275.4</v>
+      </c>
+      <c r="O3" s="4">
+        <v>7976.6</v>
+      </c>
+      <c r="P3" s="4">
+        <v>8993.4</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>9741.2000000000007</v>
+      </c>
+      <c r="R3" s="4">
+        <f>AE3-Q3-P3-O3</f>
+        <v>7831.4999999999964</v>
+      </c>
+      <c r="S3" s="4">
+        <v>5619</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>12607.9</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>12772.4</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>22273.5</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>34542.699999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2270.4</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2488.5</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2675.3</v>
+      </c>
+      <c r="N4" s="4">
+        <f>AD4-M4-L4-K4</f>
+        <v>2889.099999999999</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2950.7</v>
+      </c>
+      <c r="P4" s="4">
+        <v>3427.4</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>3770</v>
+      </c>
+      <c r="R4" s="4">
+        <f>AE4-Q4-P4-O4</f>
+        <v>3582.6000000000013</v>
+      </c>
+      <c r="S4" s="4">
+        <v>3038.2</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>9707</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>9140.2000000000007</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>10323.299999999999</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>13730.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="4">
+        <v>164.3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>193</v>
+      </c>
+      <c r="M5" s="4">
+        <v>175</v>
+      </c>
+      <c r="N5" s="4">
+        <f>AD5-M5-L5-K5</f>
+        <v>277.7</v>
+      </c>
+      <c r="O5" s="4">
+        <v>210</v>
+      </c>
+      <c r="P5" s="4">
+        <v>217</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>222.5</v>
+      </c>
+      <c r="R5" s="4">
+        <f>AE5-Q5-P5-O5</f>
+        <v>332.5</v>
+      </c>
+      <c r="S5" s="4">
+        <v>241.4</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>682.5</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>683</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>810</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="4">
+        <v>306.89999999999998</v>
+      </c>
+      <c r="L6" s="4">
+        <v>317.2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>399.5</v>
+      </c>
+      <c r="N6" s="4">
+        <f>AD6-M6-L6-K6</f>
+        <v>439.19999999999993</v>
+      </c>
+      <c r="O6" s="4">
+        <v>459.5</v>
+      </c>
+      <c r="P6" s="4">
+        <v>475.8</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>479.3</v>
+      </c>
+      <c r="R6" s="4">
+        <f>AE6-Q6-P6-O6</f>
+        <v>489.60000000000014</v>
+      </c>
+      <c r="S6" s="4">
+        <v>470.5</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1174.4000000000001</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1385.2</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>1462.8</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>1904.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4">
+        <v>-49.9</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-81.8</v>
+      </c>
+      <c r="M7" s="4">
+        <v>-95.7</v>
+      </c>
+      <c r="N7" s="4">
+        <f>AD7-M7-L7-K7</f>
+        <v>-87.700000000000017</v>
+      </c>
+      <c r="O7" s="4">
+        <v>-100.9</v>
+      </c>
+      <c r="P7" s="4">
+        <v>-133.5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>-122.7</v>
+      </c>
+      <c r="R7" s="4">
+        <f>AE7-Q7-P7-O7</f>
+        <v>-134.20000000000002</v>
+      </c>
+      <c r="S7" s="4">
+        <v>-137.6</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>-268.8</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>-279.7</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>-315.10000000000002</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>-491.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="6">
+        <f>K3-K4-K5-K6+K7</f>
+        <v>1275.9000000000001</v>
+      </c>
+      <c r="L8" s="6">
+        <f>L3-L4-L5-L6+L7</f>
+        <v>1605.5</v>
+      </c>
+      <c r="M8" s="6">
+        <f>M3-M4-M5-M6+M7</f>
+        <v>2899.2</v>
+      </c>
+      <c r="N8" s="6">
+        <f>N3-N4-N5-N6+N7</f>
+        <v>3581.7000000000016</v>
+      </c>
+      <c r="O8" s="6">
+        <f>O3-O4-O5-O6+O7</f>
+        <v>4255.5000000000009</v>
+      </c>
+      <c r="P8" s="6">
+        <f>P3-P4-P5-P6+P7</f>
+        <v>4739.7</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>Q3-Q4-Q5-Q6+Q7</f>
+        <v>5146.7000000000007</v>
+      </c>
+      <c r="R8" s="6">
+        <f>R3-R4-R5-R6+R7</f>
+        <v>3292.5999999999949</v>
+      </c>
+      <c r="S8" s="6">
+        <f>S3-S4-S5-S6+S7</f>
+        <v>1731.3000000000002</v>
+      </c>
+      <c r="AB8" s="6">
+        <f>AB3-AB4-AB5-AB6+AB7</f>
+        <v>775.19999999999959</v>
+      </c>
+      <c r="AC8" s="6">
+        <f>AC3-AC4-AC5-AC6+AC7</f>
+        <v>1284.2999999999988</v>
+      </c>
+      <c r="AD8" s="6">
+        <f>AD3-AD4-AD5-AD6+AD7</f>
+        <v>9362.3000000000011</v>
+      </c>
+      <c r="AE8" s="6">
+        <f>AE3-AE4-AE5-AE6+AE7</f>
+        <v>17434.499999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L9" s="4">
+        <f>10.7</f>
+        <v>10.7</v>
+      </c>
+      <c r="M9" s="4">
+        <f>6.5-0.4</f>
+        <v>6.1</v>
+      </c>
+      <c r="N9" s="4">
+        <f>AD9-M9-L9-K9</f>
+        <v>9.5</v>
+      </c>
+      <c r="O9" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="P9" s="4">
+        <f>57.5+4</f>
+        <v>61.5</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>12.1-3.8</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R9" s="4">
+        <f>AE9-Q9-P9-O9</f>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="S9" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>35.5+0.7</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>32.1-1.2</f>
+        <v>30.900000000000002</v>
+      </c>
+      <c r="AD9" s="4">
+        <f>28.8-1.2</f>
+        <v>27.6</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="6">
+        <f>K8+K9+K6</f>
+        <v>1584.1</v>
+      </c>
+      <c r="L10" s="6">
+        <f>L8+L9+L6</f>
+        <v>1933.4</v>
+      </c>
+      <c r="M10" s="6">
+        <f>M8+M9+M6</f>
+        <v>3304.7999999999997</v>
+      </c>
+      <c r="N10" s="6">
+        <f>N8+N9+N6</f>
+        <v>4030.4000000000015</v>
+      </c>
+      <c r="O10" s="6">
+        <f>O8+O9+O6</f>
+        <v>4726.5000000000009</v>
+      </c>
+      <c r="P10" s="6">
+        <f>P8+P9+P6</f>
+        <v>5277</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>Q8+Q9+Q6</f>
+        <v>5634.3000000000011</v>
+      </c>
+      <c r="R10" s="6">
+        <f>R8+R9+R6</f>
+        <v>3790.8999999999951</v>
+      </c>
+      <c r="S10" s="6">
+        <f>S8+S9+S6</f>
+        <v>2217.3000000000002</v>
+      </c>
+      <c r="AB10" s="6">
+        <f>AB8+AB9+AB6</f>
+        <v>1985.7999999999997</v>
+      </c>
+      <c r="AC10" s="6">
+        <f>AC8+AC9+AC6</f>
+        <v>2700.3999999999987</v>
+      </c>
+      <c r="AD10" s="6">
+        <f>AD8+AD9+AD6</f>
+        <v>10852.7</v>
+      </c>
+      <c r="AE10" s="6">
+        <f>AE8+AE9+AE6</f>
+        <v>19428.699999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="6">
+        <f>K8+K9</f>
+        <v>1277.2</v>
+      </c>
+      <c r="L11" s="6">
+        <f>L8+L9</f>
+        <v>1616.2</v>
+      </c>
+      <c r="M11" s="6">
+        <f>M8+M9</f>
+        <v>2905.2999999999997</v>
+      </c>
+      <c r="N11" s="6">
+        <f>N8+N9</f>
+        <v>3591.2000000000016</v>
+      </c>
+      <c r="O11" s="6">
+        <f>O8+O9</f>
+        <v>4267.0000000000009</v>
+      </c>
+      <c r="P11" s="6">
+        <f>P8+P9</f>
+        <v>4801.2</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>Q8+Q9</f>
+        <v>5155.0000000000009</v>
+      </c>
+      <c r="R11" s="6">
+        <f>R8+R9</f>
+        <v>3301.2999999999947</v>
+      </c>
+      <c r="S11" s="6">
+        <f>S8+S9</f>
+        <v>1746.8000000000002</v>
+      </c>
+      <c r="AB11" s="6">
+        <f>AB8+AB9</f>
+        <v>811.39999999999964</v>
+      </c>
+      <c r="AC11" s="6">
+        <f>AC8+AC9</f>
+        <v>1315.1999999999989</v>
+      </c>
+      <c r="AD11" s="6">
+        <f>AD8+AD9</f>
+        <v>9389.9000000000015</v>
+      </c>
+      <c r="AE11" s="6">
+        <f>AE8+AE9</f>
+        <v>17524.499999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="4">
+        <f>3.8-68.1</f>
+        <v>-64.3</v>
+      </c>
+      <c r="L12" s="4">
+        <f>2.1-80.9</f>
+        <v>-78.800000000000011</v>
+      </c>
+      <c r="M12" s="4">
+        <f>2.5-56.2</f>
+        <v>-53.7</v>
+      </c>
+      <c r="N12" s="4">
+        <f>AD12-M12-L12-K12</f>
+        <v>-48.399999999999991</v>
+      </c>
+      <c r="O12" s="4">
+        <v>-48</v>
+      </c>
+      <c r="P12" s="4">
+        <f>17.4-54.4</f>
+        <v>-37</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>70-61.7</f>
+        <v>8.2999999999999972</v>
+      </c>
+      <c r="R12" s="4">
+        <f>AE12-Q12-P12-O12</f>
+        <v>99.300000000000011</v>
+      </c>
+      <c r="S12" s="4">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>-396.7</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>-330.5</f>
+        <v>-330.5</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>-245.2</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-3.6</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="N13" s="4">
+        <f>AD13-M13-L13-K13</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O13" s="4">
+        <v>-31</v>
+      </c>
+      <c r="P13" s="4">
+        <v>-260.60000000000002</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="R13" s="4">
+        <f>AE13-Q13-P13-O13</f>
+        <v>-8.1999999999999318</v>
+      </c>
+      <c r="S13" s="4">
+        <v>58.3</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>-303.89999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="4">
+        <v>11</v>
+      </c>
+      <c r="L14" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="M14" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="N14" s="4">
+        <f>AD14-M14-L14-K14</f>
+        <v>22.099999999999994</v>
+      </c>
+      <c r="O14" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P14" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="R14" s="4">
+        <f>AE14-Q14-P14-O14</f>
+        <v>123.29999999999998</v>
+      </c>
+      <c r="S14" s="4">
+        <v>63.6</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>45.8</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>61.3</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>200.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="6">
+        <f>K11+K12+K13-K14</f>
+        <v>1203.7</v>
+      </c>
+      <c r="L15" s="6">
+        <f>L11+L12+L13-L14</f>
+        <v>1521.1000000000001</v>
+      </c>
+      <c r="M15" s="6">
+        <f>M11+M12+M13-M14</f>
+        <v>2837.4</v>
+      </c>
+      <c r="N15" s="6">
+        <f>N11+N12+N13-N14</f>
+        <v>3522.9000000000015</v>
+      </c>
+      <c r="O15" s="6">
+        <f>O11+O12+O13-O14</f>
+        <v>4171.4000000000005</v>
+      </c>
+      <c r="P15" s="6">
+        <f>P11+P12+P13-P14</f>
+        <v>4482.7999999999993</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>Q11+Q12+Q13-Q14</f>
+        <v>5119.3000000000011</v>
+      </c>
+      <c r="R15" s="6">
+        <f>R11+R12+R13-R14</f>
+        <v>3269.0999999999949</v>
+      </c>
+      <c r="S15" s="6">
+        <f>S11+S12+S13-S14</f>
+        <v>1893.2000000000003</v>
+      </c>
+      <c r="AB15" s="6">
+        <f>AB11+AB12+AB13-AB14</f>
+        <v>373.39999999999969</v>
+      </c>
+      <c r="AC15" s="6">
+        <f>AC11+AC12+AC13-AC14</f>
+        <v>935.39999999999895</v>
+      </c>
+      <c r="AD15" s="6">
+        <f>AD11+AD12+AD13-AD14</f>
+        <v>9085.1000000000022</v>
+      </c>
+      <c r="AE15" s="6">
+        <f>AE11+AE12+AE13-AE14</f>
+        <v>17042.599999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f>K15/K17</f>
+        <v>50.767608603964575</v>
+      </c>
+      <c r="L16" s="4">
+        <f>L15/L17</f>
+        <v>176.05324074074073</v>
+      </c>
+      <c r="M16" s="4">
+        <f>M15/M17</f>
+        <v>175.90824550526969</v>
+      </c>
+      <c r="N16">
+        <v>176</v>
+      </c>
+      <c r="O16" s="4">
+        <f>O15/O17</f>
+        <v>175.93420497680304</v>
+      </c>
+      <c r="P16" s="4">
+        <f>P15/P17</f>
+        <v>175.9340659340659</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>Q15/Q17</f>
+        <v>175.86052902782552</v>
+      </c>
+      <c r="R16">
+        <v>176</v>
+      </c>
+      <c r="S16" s="4">
+        <f>S15/S17</f>
+        <v>175.94795539033461</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>176</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>176</v>
+      </c>
+      <c r="AD16" s="4">
+        <f>AD15/AD17</f>
+        <v>175.96552392020146</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="3">
+        <v>23.71</v>
+      </c>
+      <c r="L17" s="3">
+        <v>8.64</v>
+      </c>
+      <c r="M17" s="3">
+        <v>16.13</v>
+      </c>
+      <c r="N17" s="3">
+        <f>N15/N16</f>
+        <v>20.016477272727283</v>
+      </c>
+      <c r="O17" s="3">
+        <v>23.71</v>
+      </c>
+      <c r="P17" s="3">
+        <v>25.48</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>29.11</v>
+      </c>
+      <c r="R17" s="3">
+        <f>R15/R16</f>
+        <v>18.57443181818179</v>
+      </c>
+      <c r="S17" s="3">
+        <v>10.76</v>
+      </c>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3">
+        <f>AB15/AB16</f>
+        <v>2.1215909090909073</v>
+      </c>
+      <c r="AC17" s="3">
+        <f>AC15/AC16</f>
+        <v>5.3147727272727217</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>51.63</v>
+      </c>
+      <c r="AE17" s="3">
+        <f>AE15/AE16</f>
+        <v>96.832954545454513</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="9">
+        <f>1-K4/K3</f>
+        <v>0.44180557604366422</v>
+      </c>
+      <c r="L19" s="9">
+        <f>1-L4/L3</f>
+        <v>0.46895006402048656</v>
+      </c>
+      <c r="M19" s="9">
+        <f>1-M4/M3</f>
+        <v>0.57158870722372568</v>
+      </c>
+      <c r="N19" s="9">
+        <f>1-N4/N3</f>
+        <v>0.60289468620282061</v>
+      </c>
+      <c r="O19" s="9">
+        <f>1-O4/O3</f>
+        <v>0.63008048541985318</v>
+      </c>
+      <c r="P19" s="9">
+        <f>1-P4/P3</f>
+        <v>0.61889830320012451</v>
+      </c>
+      <c r="Q19" s="9">
+        <f>1-Q4/Q3</f>
+        <v>0.61298402660863138</v>
+      </c>
+      <c r="R19" s="9">
+        <f>1-R4/R3</f>
+        <v>0.54253974334418653</v>
+      </c>
+      <c r="S19" s="9">
+        <f>1-S4/S3</f>
+        <v>0.45929880761701369</v>
+      </c>
+      <c r="AB19" s="9">
+        <f>1-AB4/AB3</f>
+        <v>0.23008589852394135</v>
+      </c>
+      <c r="AC19" s="9">
+        <f>1-AC4/AC3</f>
+        <v>0.28437881682377619</v>
+      </c>
+      <c r="AD19" s="9">
+        <f>1-AD4/AD3</f>
+        <v>0.53652097784362585</v>
+      </c>
+      <c r="AE19" s="9">
+        <f>1-AE4/AE3</f>
+        <v>0.60250067307998501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9" t="e">
+        <f>G10/G3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="9" t="e">
+        <f>H10/H3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="9" t="e">
+        <f>I10/I3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="9" t="e">
+        <f>J10/J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="9">
+        <f>K10/K3</f>
+        <v>0.3894625559325367</v>
+      </c>
+      <c r="L20" s="9">
+        <f>L10/L3</f>
+        <v>0.41259069568928725</v>
+      </c>
+      <c r="M20" s="9">
+        <f>M10/M3</f>
+        <v>0.52921677582590032</v>
+      </c>
+      <c r="N20" s="9">
+        <f>N10/N3</f>
+        <v>0.55397641366797723</v>
+      </c>
+      <c r="O20" s="9">
+        <f>O10/O3</f>
+        <v>0.59254569616127184</v>
+      </c>
+      <c r="P20" s="9">
+        <f>P10/P3</f>
+        <v>0.5867636266595504</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>Q10/Q3</f>
+        <v>0.57839896521989087</v>
+      </c>
+      <c r="R20" s="9">
+        <f>R10/R3</f>
+        <v>0.48405797101449233</v>
+      </c>
+      <c r="S20" s="9">
+        <f>S10/S3</f>
+        <v>0.39460758142018154</v>
+      </c>
+      <c r="AB20" s="9">
+        <f>AB10/AB3</f>
+        <v>0.15750442183075689</v>
+      </c>
+      <c r="AC20" s="9">
+        <f>AC10/AC3</f>
+        <v>0.21142463436785561</v>
+      </c>
+      <c r="AD20" s="9">
+        <f>AD10/AD3</f>
+        <v>0.48724717713875237</v>
+      </c>
+      <c r="AE20" s="9">
+        <f>AE10/AE3</f>
+        <v>0.56245458519455627</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="9" t="e">
+        <f>G11/G3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="9" t="e">
+        <f>H11/H3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="9" t="e">
+        <f>I11/I3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="9" t="e">
+        <f>J11/J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="9">
+        <f>K11/K3</f>
+        <v>0.31400894920588091</v>
+      </c>
+      <c r="L21" s="9">
+        <f>L11/L3</f>
+        <v>0.34489970123772939</v>
+      </c>
+      <c r="M21" s="9">
+        <f>M11/M3</f>
+        <v>0.46524252566176116</v>
+      </c>
+      <c r="N21" s="9">
+        <f>N11/N3</f>
+        <v>0.49360859883992658</v>
+      </c>
+      <c r="O21" s="9">
+        <f>O11/O3</f>
+        <v>0.53493969861845914</v>
+      </c>
+      <c r="P21" s="9">
+        <f>P11/P3</f>
+        <v>0.53385816265261188</v>
+      </c>
+      <c r="Q21" s="9">
+        <f>Q11/Q3</f>
+        <v>0.52919558165318448</v>
+      </c>
+      <c r="R21" s="9">
+        <f>R11/R3</f>
+        <v>0.42154121177296766</v>
+      </c>
+      <c r="S21" s="9">
+        <f>S11/S3</f>
+        <v>0.31087382096458449</v>
+      </c>
+      <c r="AB21" s="9">
+        <f>AB11/AB3</f>
+        <v>6.4356474908589034E-2</v>
+      </c>
+      <c r="AC21" s="9">
+        <f>AC11/AC3</f>
+        <v>0.10297203344712028</v>
+      </c>
+      <c r="AD21" s="9">
+        <f>AD11/AD3</f>
+        <v>0.42157272094641624</v>
+      </c>
+      <c r="AE21" s="9">
+        <f>AE11/AE3</f>
+        <v>0.50732861067606172</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="9" t="e">
+        <f>G3/C3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="9" t="e">
+        <f>H3/D3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="9" t="e">
+        <f>I3/E3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="9" t="e">
+        <f>J3/F3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="9" t="e">
+        <f>K3/G3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="9" t="e">
+        <f>L3/H3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="9" t="e">
+        <f>M3/I3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="9" t="e">
+        <f>N3/J3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="9">
+        <f>O3/K3-1</f>
+        <v>0.96110537444067479</v>
+      </c>
+      <c r="P22" s="9">
+        <f>P3/L3-1</f>
+        <v>0.91920614596670935</v>
+      </c>
+      <c r="Q22" s="9">
+        <f>Q3/M3-1</f>
+        <v>0.55991480775697799</v>
+      </c>
+      <c r="R22" s="9">
+        <f>R3/N3-1</f>
+        <v>7.6435659894988239E-2</v>
+      </c>
+      <c r="S22" s="9">
+        <f>S3/O3-1</f>
+        <v>-0.29556452623924989</v>
+      </c>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9">
+        <f>AC3/AB3-1</f>
+        <v>1.3047375058495181E-2</v>
+      </c>
+      <c r="AD22" s="9">
+        <f>AD3/AC3-1</f>
+        <v>0.74387742319376149</v>
+      </c>
+      <c r="AE22" s="9">
+        <f>AE3/AD3-1</f>
+        <v>0.55084292993916528</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="9" t="e">
+        <f>G11/C11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="9" t="e">
+        <f>H11/D11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="9" t="e">
+        <f>I11/E11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="9" t="e">
+        <f>J11/F11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="9" t="e">
+        <f>K11/G11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="9" t="e">
+        <f>L11/H11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="9" t="e">
+        <f>M11/I11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="9" t="e">
+        <f>N11/J11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="9">
+        <f>O11/K11-1</f>
+        <v>2.3409019730660825</v>
+      </c>
+      <c r="P23" s="9">
+        <f>P11/L11-1</f>
+        <v>1.9706719465412696</v>
+      </c>
+      <c r="Q23" s="9">
+        <f>Q11/M11-1</f>
+        <v>0.77434344129694055</v>
+      </c>
+      <c r="R23" s="9">
+        <f>R11/N11-1</f>
+        <v>-8.0725105814214437E-2</v>
+      </c>
+      <c r="S23" s="9">
+        <f>S11/O11-1</f>
+        <v>-0.5906257323646591</v>
+      </c>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9">
+        <f>AC11/AB11-1</f>
+        <v>0.62090214444170511</v>
+      </c>
+      <c r="AD23" s="9">
+        <f>AD11/AC11-1</f>
+        <v>6.1395225060827325</v>
+      </c>
+      <c r="AE23" s="9">
+        <f>AE11/AD11-1</f>
+        <v>0.86631380525884127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="9" t="e">
+        <f>G14/G15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="9" t="e">
+        <f>H14/H15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="9" t="e">
+        <f>I14/I15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="9" t="e">
+        <f>J14/J15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="10">
+        <f>K14/K15</f>
+        <v>9.1384896568912511E-3</v>
+      </c>
+      <c r="L24" s="10">
+        <f>L14/L15</f>
+        <v>8.3492209585168623E-3</v>
+      </c>
+      <c r="M24" s="10">
+        <f>M14/M15</f>
+        <v>5.4627475858180022E-3</v>
+      </c>
+      <c r="N24" s="10">
+        <f>N14/N15</f>
+        <v>6.2732407959351626E-3</v>
+      </c>
+      <c r="O24" s="10">
+        <f>O14/O15</f>
+        <v>3.9794793115021333E-3</v>
+      </c>
+      <c r="P24" s="10">
+        <f>P14/P15</f>
+        <v>4.6399571696261275E-3</v>
+      </c>
+      <c r="Q24" s="10">
+        <f>Q14/Q15</f>
+        <v>7.7940343406325066E-3</v>
+      </c>
+      <c r="R24" s="10">
+        <f>R14/R15</f>
+        <v>3.7716802789758704E-2</v>
+      </c>
+      <c r="S24" s="10">
+        <f>S14/S15</f>
+        <v>3.3593915064441156E-2</v>
+      </c>
+      <c r="AB24" s="9">
+        <f>AB14/AB15</f>
+        <v>0.11489019817889672</v>
+      </c>
+      <c r="AC24" s="9">
+        <f>AC14/AC15</f>
+        <v>4.8963010476801419E-2</v>
+      </c>
+      <c r="AD24" s="9">
+        <f>AD14/AD15</f>
+        <v>6.7473115320689902E-3</v>
+      </c>
+      <c r="AE24" s="9">
+        <f>AE14/AE15</f>
+        <v>1.1770504500487017E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="6">
+        <f>N29-N45-N41</f>
+        <v>4649.2999999999993</v>
+      </c>
+      <c r="Q28" s="6">
+        <f>Q29-Q45-Q41</f>
+        <v>11988.300000000001</v>
+      </c>
+      <c r="R28" s="6">
+        <f>R29-R45-R41</f>
+        <v>12459.400000000001</v>
+      </c>
+      <c r="S28" s="6">
+        <f>S29-S45-S41</f>
+        <v>15070.6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="4">
+        <v>7723.4</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>15136.6</v>
+      </c>
+      <c r="R29" s="4">
+        <v>15236.1</v>
+      </c>
+      <c r="S29" s="4">
+        <v>17689.400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2999.2</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>4065.2</v>
+      </c>
+      <c r="R30" s="4">
+        <v>2895</v>
+      </c>
+      <c r="S30" s="4">
+        <v>2265.6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="4">
+        <v>337.2</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>568.4</v>
+      </c>
+      <c r="R31" s="4">
+        <v>440</v>
+      </c>
+      <c r="S31" s="4">
+        <v>387.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="4">
+        <f>353.6+0.3+16.8</f>
+        <v>370.70000000000005</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>1279.4+2.8+20.9</f>
+        <v>1303.1000000000001</v>
+      </c>
+      <c r="R32" s="4">
+        <f>3067.1+132.5+5.5+16.4</f>
+        <v>3221.5</v>
+      </c>
+      <c r="S32" s="4">
+        <f>2110.6+165.9+112.8+16</f>
+        <v>2405.3000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="4">
+        <v>11764.8</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>14177.9</v>
+      </c>
+      <c r="R33" s="4">
+        <v>13140.2</v>
+      </c>
+      <c r="S33" s="4">
+        <v>12843.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="4">
+        <v>332.4</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>329.3</v>
+      </c>
+      <c r="R34" s="4">
+        <v>353.4</v>
+      </c>
+      <c r="S34" s="4">
+        <v>634.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1597.2</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>1873.7</v>
+      </c>
+      <c r="R35" s="4">
+        <v>1712.1</v>
+      </c>
+      <c r="S35" s="4">
+        <v>1681.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" s="4">
+        <f>15284-N33-N34-N35</f>
+        <v>1589.6000000000006</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>18213.2-Q33-Q34-Q35</f>
+        <v>1832.3000000000009</v>
+      </c>
+      <c r="R36" s="4">
+        <f>16894.7-R33-R34-R35</f>
+        <v>1689</v>
+      </c>
+      <c r="S36" s="4">
+        <f>16793-S33-S34-S35</f>
+        <v>1633.6000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N37" s="6">
+        <f>SUM(N29:N36)</f>
+        <v>26714.500000000004</v>
+      </c>
+      <c r="Q37" s="6">
+        <f>SUM(Q29:Q36)</f>
+        <v>39286.5</v>
+      </c>
+      <c r="R37" s="6">
+        <f>SUM(R29:R36)</f>
+        <v>38687.300000000003</v>
+      </c>
+      <c r="S37" s="6">
+        <f>SUM(S29:S36)</f>
+        <v>39541.099999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="4">
+        <v>2323.9</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>2881.3</v>
+      </c>
+      <c r="R38" s="4">
+        <v>2615.6999999999998</v>
+      </c>
+      <c r="S38" s="4">
+        <v>2770.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" s="4">
+        <v>598.6</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>761.1</v>
+      </c>
+      <c r="R39" s="4">
+        <v>964.6</v>
+      </c>
+      <c r="S39" s="4">
+        <v>956.1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>84.6</v>
+      </c>
+      <c r="R40" s="4">
+        <v>165.9</v>
+      </c>
+      <c r="S40" s="4">
+        <v>209.1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="4">
+        <v>502</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>567.79999999999995</v>
+      </c>
+      <c r="R41" s="4">
+        <v>457.3</v>
+      </c>
+      <c r="S41" s="4">
+        <v>487.2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="4">
+        <v>856.7</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>1034.3</v>
+      </c>
+      <c r="R42" s="4">
+        <v>934.7</v>
+      </c>
+      <c r="S42" s="4">
+        <v>905.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1445.8</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>1503.6</v>
+      </c>
+      <c r="R43" s="4">
+        <v>952.9</v>
+      </c>
+      <c r="S43" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N44" s="4">
+        <f>5958.3-N38-N39-N40-N41-N42-N43</f>
+        <v>181.70000000000027</v>
+      </c>
+      <c r="Q44" s="4">
+        <f>7179.3-Q38-Q39-Q40-Q41-Q42-Q43</f>
+        <v>346.60000000000014</v>
+      </c>
+      <c r="R44" s="4">
+        <f>6397-R38-R39-R40-R41-R42-R43</f>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="S44" s="4">
+        <f>6198-S38-S39-S40-S41-S42-S43</f>
+        <v>269.60000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="4">
+        <v>2572.1</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>2580.5</v>
+      </c>
+      <c r="R45" s="4">
+        <v>2319.4</v>
+      </c>
+      <c r="S45" s="4">
+        <v>2131.6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1566.4</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>2015.3</v>
+      </c>
+      <c r="R46" s="4">
+        <v>1725.4</v>
+      </c>
+      <c r="S46" s="4">
+        <v>1600.8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N47" s="4">
+        <f>4594.2-N46-N45</f>
+        <v>455.69999999999982</v>
+      </c>
+      <c r="Q47" s="4">
+        <f>4868.8-Q46-Q45</f>
+        <v>273</v>
+      </c>
+      <c r="R47" s="4">
+        <f>4379.3-R46-R45</f>
+        <v>334.5</v>
+      </c>
+      <c r="S47" s="4">
+        <f>4073.3-S46-S45</f>
+        <v>340.90000000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N48" s="5">
+        <f>SUM(N38:N47)</f>
+        <v>10552.5</v>
+      </c>
+      <c r="Q48" s="5">
+        <f>SUM(Q38:Q47)</f>
+        <v>12048.1</v>
+      </c>
+      <c r="R48" s="5">
+        <f>SUM(R38:R47)</f>
+        <v>10776.3</v>
+      </c>
+      <c r="S48" s="5">
+        <f>SUM(S38:S47)</f>
+        <v>10271.299999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N49">
+        <v>16162</v>
+      </c>
+      <c r="Q49">
+        <v>27238.400000000001</v>
+      </c>
+      <c r="R49">
+        <v>27911.1</v>
+      </c>
+      <c r="S49">
+        <v>29269.7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O52" s="6">
+        <v>7723.4</v>
+      </c>
+      <c r="S52" s="6">
+        <v>15236.1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O53" s="4">
+        <v>4171.3</v>
+      </c>
+      <c r="S53" s="4">
+        <v>1893.2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="S54" s="4">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" s="4">
+        <v>31</v>
+      </c>
+      <c r="S55" s="4">
+        <v>-58.3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O56" s="4">
+        <v>48</v>
+      </c>
+      <c r="S56" s="4">
+        <v>-151.69999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" s="4">
+        <v>459.5</v>
+      </c>
+      <c r="S57" s="4">
+        <v>470.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O58" s="4">
+        <f>-11.9-11.5-2.1</f>
+        <v>-25.5</v>
+      </c>
+      <c r="S58" s="4">
+        <f>-11-15.5-4</f>
+        <v>-30.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O59" s="4">
+        <v>-79.8</v>
+      </c>
+      <c r="S59" s="4">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O60" s="4">
+        <v>-335.4</v>
+      </c>
+      <c r="S60" s="4">
+        <v>560.70000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" s="4">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="S61" s="4">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O62" s="4">
+        <v>130.4</v>
+      </c>
+      <c r="S62" s="4">
+        <v>-248.1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O63" s="4">
+        <v>-8.4</v>
+      </c>
+      <c r="S63" s="4">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O64" s="4">
+        <f>15.7-384.7</f>
+        <v>-369</v>
+      </c>
+      <c r="S64" s="4">
+        <f>24.8-218.7</f>
+        <v>-193.89999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
+      <c r="S65" s="4">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
+      <c r="S66" s="4">
+        <f>5.3-265.6</f>
+        <v>-260.3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="S67" s="4">
+        <v>909.8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O68" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="S68" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O69" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O70" s="4">
+        <f>0.2-112.7</f>
+        <v>-112.5</v>
+      </c>
+      <c r="S70" s="4">
+        <v>-121.7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O71" s="4">
+        <v>-239.1</v>
+      </c>
+      <c r="S71" s="4">
+        <v>-244</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O72" s="4">
+        <v>-45.1</v>
+      </c>
+      <c r="S72" s="4">
+        <v>-51.8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O73" s="4">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="S73" s="4">
+        <v>-43.3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O74" s="6">
+        <f>SUM(O53:O73)</f>
+        <v>3721.9000000000005</v>
+      </c>
+      <c r="S74" s="6">
+        <f>SUM(S53:S73)</f>
+        <v>2766.3999999999996</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O75" s="8">
+        <v>192</v>
+      </c>
+      <c r="S75" s="8">
+        <v>-313.60000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O76" s="6">
+        <f>O52+SUM(O53:O73)+O75</f>
+        <v>11637.3</v>
+      </c>
+      <c r="S76" s="6">
+        <f>S52+SUM(S53:S73)+S75</f>
+        <v>17688.900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AEF814D1-AB10-4C85-9A8C-29CADC5E6517}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="R8" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84A155F-28DD-4056-ABE3-FB6172E07486}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3DB029-0B2C-4291-B4A8-76E704119A08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Shipping & Transportation/HLAG.xlsx
+++ b/Shipping & Transportation/HLAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0947DD8C-8EB2-4DA7-9CEA-50C0DF430BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FC38E7-5C36-4D63-8CCF-30CF54119D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
   <si>
     <t>Price</t>
   </si>
@@ -288,12 +288,72 @@
   </si>
   <si>
     <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Rolf Habben Jansen</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Aquisition Nile Dutch</t>
+  </si>
+  <si>
+    <t>Stake of Container Terminal Wilhelmshafen</t>
+  </si>
+  <si>
+    <t>Takeover Container Business Deutsche Afrika-Linien</t>
+  </si>
+  <si>
+    <t>Aquisition SM SAAM S.A.</t>
+  </si>
+  <si>
+    <t>Mark Frese</t>
+  </si>
+  <si>
+    <t>CIO</t>
+  </si>
+  <si>
+    <t>Donya-Florence Amer</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>Dr. Maximilian Rothkopf</t>
+  </si>
+  <si>
+    <t>Shareholders</t>
+  </si>
+  <si>
+    <t>Kühne Holding AG und Kühne Maritime GmbH</t>
+  </si>
+  <si>
+    <t>CSAV Germany Container Holding GmbH</t>
+  </si>
+  <si>
+    <t>HGV Hamburger Gesellschaft für Vermögens- und Beteiligungsmanagement mbH</t>
+  </si>
+  <si>
+    <t>Qatar Holding Germany GmbH</t>
+  </si>
+  <si>
+    <t>Public Investment Fond of the Kingdom of Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Free Float</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,10 +416,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:L9"/>
+  <dimension ref="B3:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="4">
-        <f>Model!S29</f>
+        <f>Model!S30</f>
         <v>17689.400000000001</v>
       </c>
     </row>
@@ -691,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="4">
-        <f>-Model!S45-Model!S41</f>
+        <f>-Model!S46-Model!S42</f>
         <v>-2618.7999999999997</v>
       </c>
     </row>
@@ -711,6 +770,117 @@
       <c r="L9" s="4">
         <f>L5+L6+L7</f>
         <v>49443.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2021</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2022</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="9">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="L26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="9">
+        <v>0.123</v>
+      </c>
+      <c r="L27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K28" s="9">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K29" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -720,19 +890,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57156153-6B21-4ABE-A4F3-DEC182919BBB}">
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD24" sqref="AD24"/>
+      <selection pane="bottomRight" activeCell="AL70" sqref="AL70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -821,8 +991,34 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3062.9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3175.2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3244</v>
+      </c>
+      <c r="F3" s="4">
+        <f>AB3-E3-D3-C3</f>
+        <v>3125.7999999999997</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3343.3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3017</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3001.6</v>
+      </c>
+      <c r="J3" s="4">
+        <f>AC3-I3-H3-G3</f>
+        <v>3410.4999999999991</v>
       </c>
       <c r="K3" s="4">
         <v>4067.4</v>
@@ -867,8 +1063,34 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>43</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2343</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2482.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2461.4</v>
+      </c>
+      <c r="F4" s="4">
+        <f>AB4-E4-D4-C4</f>
+        <v>2420.2000000000007</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2644.9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2085.3000000000002</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2115.5</v>
+      </c>
+      <c r="J4" s="4">
+        <f>AC4-I4-H4-G4</f>
+        <v>2294.5000000000005</v>
       </c>
       <c r="K4" s="4">
         <v>2270.4</v>
@@ -913,8 +1135,34 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>44</v>
+      </c>
+      <c r="C5" s="4">
+        <v>166.7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>165.1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>172.5</v>
+      </c>
+      <c r="F5" s="4">
+        <f>AB5-E5-D5-C5</f>
+        <v>178.2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>172.9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>167.4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>172</v>
+      </c>
+      <c r="J5" s="4">
+        <f>AC5-I5-H5-G5</f>
+        <v>170.70000000000002</v>
       </c>
       <c r="K5" s="4">
         <v>164.3</v>
@@ -959,8 +1207,34 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>42</v>
+      </c>
+      <c r="C6" s="4">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>291.2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <f>AB6-E6-D6-C6</f>
+        <v>306.70000000000016</v>
+      </c>
+      <c r="G6" s="4">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="H6" s="4">
+        <v>347.8</v>
+      </c>
+      <c r="I6" s="4">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="J6" s="4">
+        <f>AC6-I6-H6-G6</f>
+        <v>425.69999999999993</v>
       </c>
       <c r="K6" s="4">
         <v>306.89999999999998</v>
@@ -1005,8 +1279,34 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-72.599999999999994</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-70</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-67</v>
+      </c>
+      <c r="F7" s="4">
+        <f>AB7-E7-D7-C7</f>
+        <v>-59.200000000000017</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-65.2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-71.3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-74.2</v>
+      </c>
+      <c r="J7" s="4">
+        <f>AC7-I7-H7-G7</f>
+        <v>-68.999999999999986</v>
       </c>
       <c r="K7" s="4">
         <v>-49.9</v>
@@ -1054,40 +1354,72 @@
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:E8" si="0">C3-C4-C5-C6+C7</f>
+        <v>205.00000000000003</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>166.49999999999972</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>242.19999999999993</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:H8" si="1">F3-F4-F5-F6+F7</f>
+        <v>161.49999999999878</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>150.7000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>345.19999999999982</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ref="I8:S8" si="2">I3-I4-I5-I6+I7</f>
+        <v>337.7999999999999</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="2"/>
+        <v>450.59999999999866</v>
+      </c>
       <c r="K8" s="6">
-        <f>K3-K4-K5-K6+K7</f>
+        <f t="shared" si="2"/>
         <v>1275.9000000000001</v>
       </c>
       <c r="L8" s="6">
-        <f>L3-L4-L5-L6+L7</f>
+        <f t="shared" si="2"/>
         <v>1605.5</v>
       </c>
       <c r="M8" s="6">
-        <f>M3-M4-M5-M6+M7</f>
+        <f t="shared" si="2"/>
         <v>2899.2</v>
       </c>
       <c r="N8" s="6">
-        <f>N3-N4-N5-N6+N7</f>
+        <f t="shared" si="2"/>
         <v>3581.7000000000016</v>
       </c>
       <c r="O8" s="6">
-        <f>O3-O4-O5-O6+O7</f>
+        <f t="shared" si="2"/>
         <v>4255.5000000000009</v>
       </c>
       <c r="P8" s="6">
-        <f>P3-P4-P5-P6+P7</f>
+        <f t="shared" si="2"/>
         <v>4739.7</v>
       </c>
       <c r="Q8" s="6">
-        <f>Q3-Q4-Q5-Q6+Q7</f>
+        <f t="shared" si="2"/>
         <v>5146.7000000000007</v>
       </c>
       <c r="R8" s="6">
-        <f>R3-R4-R5-R6+R7</f>
+        <f t="shared" si="2"/>
         <v>3292.5999999999949</v>
       </c>
       <c r="S8" s="6">
-        <f>S3-S4-S5-S6+S7</f>
+        <f t="shared" si="2"/>
         <v>1731.3000000000002</v>
       </c>
       <c r="AB8" s="6">
@@ -1108,8 +1440,37 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>32</v>
+      </c>
+      <c r="C9" s="4">
+        <f>8.5+0.1</f>
+        <v>8.6</v>
+      </c>
+      <c r="D9" s="4">
+        <f>9+0.1</f>
+        <v>9.1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="F9" s="4">
+        <f>AB9-E9-D9-C9</f>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4">
+        <f>6.5-0.1</f>
+        <v>6.4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J9" s="4">
+        <f>AC9-I9-H9-G9</f>
+        <v>6.3000000000000025</v>
       </c>
       <c r="K9" s="4">
         <v>1.3</v>
@@ -1164,40 +1525,72 @@
       <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="C10" s="6">
+        <f t="shared" ref="C10:S10" si="3">C8+C9+C6</f>
+        <v>489.20000000000005</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="3"/>
+        <v>466.79999999999973</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="3"/>
+        <v>554.39999999999986</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="3"/>
+        <v>475.39999999999895</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="3"/>
+        <v>469.30000000000013</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>699.39999999999986</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="3"/>
+        <v>649.09999999999991</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="3"/>
+        <v>882.59999999999854</v>
+      </c>
       <c r="K10" s="6">
-        <f>K8+K9+K6</f>
+        <f t="shared" si="3"/>
         <v>1584.1</v>
       </c>
       <c r="L10" s="6">
-        <f>L8+L9+L6</f>
+        <f t="shared" si="3"/>
         <v>1933.4</v>
       </c>
       <c r="M10" s="6">
-        <f>M8+M9+M6</f>
+        <f t="shared" si="3"/>
         <v>3304.7999999999997</v>
       </c>
       <c r="N10" s="6">
-        <f>N8+N9+N6</f>
+        <f t="shared" si="3"/>
         <v>4030.4000000000015</v>
       </c>
       <c r="O10" s="6">
-        <f>O8+O9+O6</f>
+        <f t="shared" si="3"/>
         <v>4726.5000000000009</v>
       </c>
       <c r="P10" s="6">
-        <f>P8+P9+P6</f>
+        <f t="shared" si="3"/>
         <v>5277</v>
       </c>
       <c r="Q10" s="6">
-        <f>Q8+Q9+Q6</f>
+        <f t="shared" si="3"/>
         <v>5634.3000000000011</v>
       </c>
       <c r="R10" s="6">
-        <f>R8+R9+R6</f>
+        <f t="shared" si="3"/>
         <v>3790.8999999999951</v>
       </c>
       <c r="S10" s="6">
-        <f>S8+S9+S6</f>
+        <f t="shared" si="3"/>
         <v>2217.3000000000002</v>
       </c>
       <c r="AB10" s="6">
@@ -1221,40 +1614,72 @@
       <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="C11" s="6">
+        <f t="shared" ref="C11:S11" si="4">C8+C9</f>
+        <v>213.60000000000002</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="4"/>
+        <v>175.59999999999971</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="4"/>
+        <v>253.49999999999994</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="4"/>
+        <v>168.69999999999879</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="4"/>
+        <v>159.7000000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="4"/>
+        <v>351.5999999999998</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="4"/>
+        <v>346.99999999999989</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="4"/>
+        <v>456.89999999999867</v>
+      </c>
       <c r="K11" s="6">
-        <f>K8+K9</f>
+        <f t="shared" si="4"/>
         <v>1277.2</v>
       </c>
       <c r="L11" s="6">
-        <f>L8+L9</f>
+        <f t="shared" si="4"/>
         <v>1616.2</v>
       </c>
       <c r="M11" s="6">
-        <f>M8+M9</f>
+        <f t="shared" si="4"/>
         <v>2905.2999999999997</v>
       </c>
       <c r="N11" s="6">
-        <f>N8+N9</f>
+        <f t="shared" si="4"/>
         <v>3591.2000000000016</v>
       </c>
       <c r="O11" s="6">
-        <f>O8+O9</f>
+        <f t="shared" si="4"/>
         <v>4267.0000000000009</v>
       </c>
       <c r="P11" s="6">
-        <f>P8+P9</f>
+        <f t="shared" si="4"/>
         <v>4801.2</v>
       </c>
       <c r="Q11" s="6">
-        <f>Q8+Q9</f>
+        <f t="shared" si="4"/>
         <v>5155.0000000000009</v>
       </c>
       <c r="R11" s="6">
-        <f>R8+R9</f>
+        <f t="shared" si="4"/>
         <v>3301.2999999999947</v>
       </c>
       <c r="S11" s="6">
-        <f>S8+S9</f>
+        <f t="shared" si="4"/>
         <v>1746.8000000000002</v>
       </c>
       <c r="AB11" s="6">
@@ -1275,8 +1700,40 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>34</v>
+      </c>
+      <c r="C12" s="4">
+        <f>2.9-109.1</f>
+        <v>-106.19999999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <f>4.6-123.3</f>
+        <v>-118.7</v>
+      </c>
+      <c r="E12" s="4">
+        <f>2.6-95.6</f>
+        <v>-93</v>
+      </c>
+      <c r="F12" s="4">
+        <f>AB12-E12-D12-C12</f>
+        <v>-78.800000000000011</v>
+      </c>
+      <c r="G12" s="4">
+        <f>1.4-125.6</f>
+        <v>-124.19999999999999</v>
+      </c>
+      <c r="H12" s="4">
+        <f>1.7-81.4</f>
+        <v>-79.7</v>
+      </c>
+      <c r="I12" s="4">
+        <f>2.3-81.6</f>
+        <v>-79.3</v>
+      </c>
+      <c r="J12" s="4">
+        <f>AC12-I12-H12-G12</f>
+        <v>-47.300000000000011</v>
       </c>
       <c r="K12" s="4">
         <f>3.8-68.1</f>
@@ -1327,8 +1784,34 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>35</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <f>AB13-E13-D13-C13</f>
+        <v>-0.49999999999999983</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1.7</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-4.3</v>
+      </c>
+      <c r="J13" s="4">
+        <f>AC13-I13-H13-G13</f>
+        <v>-1.7999999999999998</v>
       </c>
       <c r="K13" s="4">
         <v>1.8</v>
@@ -1373,8 +1856,34 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>36</v>
+      </c>
+      <c r="C14" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="E14" s="4">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4">
+        <f>AB14-E14-D14-C14</f>
+        <v>12.6</v>
+      </c>
+      <c r="G14" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="I14" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="J14" s="4">
+        <f>AC14-I14-H14-G14</f>
+        <v>10.4</v>
       </c>
       <c r="K14" s="4">
         <v>11</v>
@@ -1422,40 +1931,72 @@
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:S15" si="5">C11+C12+C13-C14</f>
+        <v>96.200000000000031</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="5"/>
+        <v>49.899999999999707</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="5"/>
+        <v>150.49999999999994</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="5"/>
+        <v>76.799999999998789</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="5"/>
+        <v>24.700000000000109</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="5"/>
+        <v>260.79999999999984</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="5"/>
+        <v>252.49999999999986</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="5"/>
+        <v>397.39999999999867</v>
+      </c>
       <c r="K15" s="6">
-        <f>K11+K12+K13-K14</f>
+        <f t="shared" si="5"/>
         <v>1203.7</v>
       </c>
       <c r="L15" s="6">
-        <f>L11+L12+L13-L14</f>
+        <f t="shared" si="5"/>
         <v>1521.1000000000001</v>
       </c>
       <c r="M15" s="6">
-        <f>M11+M12+M13-M14</f>
+        <f t="shared" si="5"/>
         <v>2837.4</v>
       </c>
       <c r="N15" s="6">
-        <f>N11+N12+N13-N14</f>
+        <f t="shared" si="5"/>
         <v>3522.9000000000015</v>
       </c>
       <c r="O15" s="6">
-        <f>O11+O12+O13-O14</f>
+        <f t="shared" si="5"/>
         <v>4171.4000000000005</v>
       </c>
       <c r="P15" s="6">
-        <f>P11+P12+P13-P14</f>
+        <f t="shared" si="5"/>
         <v>4482.7999999999993</v>
       </c>
       <c r="Q15" s="6">
-        <f>Q11+Q12+Q13-Q14</f>
+        <f t="shared" si="5"/>
         <v>5119.3000000000011</v>
       </c>
       <c r="R15" s="6">
-        <f>R11+R12+R13-R14</f>
+        <f t="shared" si="5"/>
         <v>3269.0999999999949</v>
       </c>
       <c r="S15" s="6">
-        <f>S11+S12+S13-S14</f>
+        <f t="shared" si="5"/>
         <v>1893.2000000000003</v>
       </c>
       <c r="AB15" s="6">
@@ -1476,12 +2017,42 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s">
         <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C15/C17</f>
+        <v>185.00000000000006</v>
+      </c>
+      <c r="D16" s="4">
+        <f>D15/D17</f>
+        <v>191.9230769230758</v>
+      </c>
+      <c r="E16" s="4">
+        <f>E15/E17</f>
+        <v>177.05882352941171</v>
+      </c>
+      <c r="F16" s="4">
+        <v>177</v>
+      </c>
+      <c r="G16" s="4">
+        <f>G15/G17</f>
+        <v>205.83333333333425</v>
+      </c>
+      <c r="H16" s="4">
+        <f>H15/H17</f>
+        <v>178.63013698630127</v>
+      </c>
+      <c r="I16" s="4">
+        <f>I15/I17</f>
+        <v>176.57342657342647</v>
+      </c>
+      <c r="J16" s="4">
+        <v>176</v>
       </c>
       <c r="K16" s="4">
         <f>K15/K17</f>
-        <v>50.767608603964575</v>
+        <v>176.23718887262081</v>
       </c>
       <c r="L16" s="4">
         <f>L15/L17</f>
@@ -1528,11 +2099,37 @@
       </c>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
+      <c r="C17" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F15/F16</f>
+        <v>0.43389830508473892</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.43</v>
+      </c>
+      <c r="J17" s="3">
+        <f>J15/J16</f>
+        <v>2.2579545454545378</v>
+      </c>
       <c r="K17" s="3">
-        <v>23.71</v>
+        <v>6.83</v>
       </c>
       <c r="L17" s="3">
         <v>8.64</v>
@@ -1578,1109 +2175,1794 @@
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="9">
-        <f>1-K4/K3</f>
+      <c r="K19" s="7">
+        <f t="shared" ref="K19:S19" si="6">1-K4/K3</f>
         <v>0.44180557604366422</v>
       </c>
-      <c r="L19" s="9">
-        <f>1-L4/L3</f>
+      <c r="L19" s="7">
+        <f t="shared" si="6"/>
         <v>0.46895006402048656</v>
       </c>
-      <c r="M19" s="9">
-        <f>1-M4/M3</f>
+      <c r="M19" s="7">
+        <f t="shared" si="6"/>
         <v>0.57158870722372568</v>
       </c>
-      <c r="N19" s="9">
-        <f>1-N4/N3</f>
+      <c r="N19" s="7">
+        <f t="shared" si="6"/>
         <v>0.60289468620282061</v>
       </c>
-      <c r="O19" s="9">
-        <f>1-O4/O3</f>
+      <c r="O19" s="7">
+        <f t="shared" si="6"/>
         <v>0.63008048541985318</v>
       </c>
-      <c r="P19" s="9">
-        <f>1-P4/P3</f>
+      <c r="P19" s="7">
+        <f t="shared" si="6"/>
         <v>0.61889830320012451</v>
       </c>
-      <c r="Q19" s="9">
-        <f>1-Q4/Q3</f>
+      <c r="Q19" s="7">
+        <f t="shared" si="6"/>
         <v>0.61298402660863138</v>
       </c>
-      <c r="R19" s="9">
-        <f>1-R4/R3</f>
+      <c r="R19" s="7">
+        <f t="shared" si="6"/>
         <v>0.54253974334418653</v>
       </c>
-      <c r="S19" s="9">
-        <f>1-S4/S3</f>
+      <c r="S19" s="7">
+        <f t="shared" si="6"/>
         <v>0.45929880761701369</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="7">
         <f>1-AB4/AB3</f>
         <v>0.23008589852394135</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AC19" s="7">
         <f>1-AC4/AC3</f>
         <v>0.28437881682377619</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AD19" s="7">
         <f>1-AD4/AD3</f>
         <v>0.53652097784362585</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AE19" s="7">
         <f>1-AE4/AE3</f>
         <v>0.60250067307998501</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="9" t="e">
-        <f>G10/G3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="9" t="e">
-        <f>H10/H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="9" t="e">
-        <f>I10/I3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="9" t="e">
-        <f>J10/J3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="9">
-        <f>K10/K3</f>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20:F20" si="7">C10/C3</f>
+        <v>0.15971791439485455</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="7"/>
+        <v>0.1470143613000755</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="7"/>
+        <v>0.17090012330456222</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="7"/>
+        <v>0.15208906519930865</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20:S20" si="8">G10/G3</f>
+        <v>0.1403702928244549</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="8"/>
+        <v>0.2318196884322174</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="8"/>
+        <v>0.21625133262260127</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="8"/>
+        <v>0.25878903386600172</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="8"/>
         <v>0.3894625559325367</v>
       </c>
-      <c r="L20" s="9">
-        <f>L10/L3</f>
+      <c r="L20" s="7">
+        <f t="shared" si="8"/>
         <v>0.41259069568928725</v>
       </c>
-      <c r="M20" s="9">
-        <f>M10/M3</f>
+      <c r="M20" s="7">
+        <f t="shared" si="8"/>
         <v>0.52921677582590032</v>
       </c>
-      <c r="N20" s="9">
-        <f>N10/N3</f>
+      <c r="N20" s="7">
+        <f t="shared" si="8"/>
         <v>0.55397641366797723</v>
       </c>
-      <c r="O20" s="9">
-        <f>O10/O3</f>
+      <c r="O20" s="7">
+        <f t="shared" si="8"/>
         <v>0.59254569616127184</v>
       </c>
-      <c r="P20" s="9">
-        <f>P10/P3</f>
+      <c r="P20" s="7">
+        <f t="shared" si="8"/>
         <v>0.5867636266595504</v>
       </c>
-      <c r="Q20" s="9">
-        <f>Q10/Q3</f>
+      <c r="Q20" s="7">
+        <f t="shared" si="8"/>
         <v>0.57839896521989087</v>
       </c>
-      <c r="R20" s="9">
-        <f>R10/R3</f>
+      <c r="R20" s="7">
+        <f t="shared" si="8"/>
         <v>0.48405797101449233</v>
       </c>
-      <c r="S20" s="9">
-        <f>S10/S3</f>
+      <c r="S20" s="7">
+        <f t="shared" si="8"/>
         <v>0.39460758142018154</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="7">
         <f>AB10/AB3</f>
         <v>0.15750442183075689</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AC20" s="7">
         <f>AC10/AC3</f>
         <v>0.21142463436785561</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AD20" s="7">
         <f>AD10/AD3</f>
         <v>0.48724717713875237</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AE20" s="7">
         <f>AE10/AE3</f>
         <v>0.56245458519455627</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="9" t="e">
-        <f>G11/G3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="9" t="e">
-        <f>H11/H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="9" t="e">
-        <f>I11/I3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="9" t="e">
-        <f>J11/J3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="9">
-        <f>K11/K3</f>
+      <c r="C21" s="7">
+        <f t="shared" ref="C21:F21" si="9">C11/C3</f>
+        <v>6.973783016095858E-2</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="9"/>
+        <v>5.5303602922650456E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="9"/>
+        <v>7.8144266337854484E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="9"/>
+        <v>5.3970183632989575E-2</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" ref="G21:S21" si="10">G11/G3</f>
+        <v>4.7767176143331466E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="10"/>
+        <v>0.11653960888299629</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="10"/>
+        <v>0.11560501066098078</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="10"/>
+        <v>0.13396862630112852</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="10"/>
         <v>0.31400894920588091</v>
       </c>
-      <c r="L21" s="9">
-        <f>L11/L3</f>
+      <c r="L21" s="7">
+        <f t="shared" si="10"/>
         <v>0.34489970123772939</v>
       </c>
-      <c r="M21" s="9">
-        <f>M11/M3</f>
+      <c r="M21" s="7">
+        <f t="shared" si="10"/>
         <v>0.46524252566176116</v>
       </c>
-      <c r="N21" s="9">
-        <f>N11/N3</f>
+      <c r="N21" s="7">
+        <f t="shared" si="10"/>
         <v>0.49360859883992658</v>
       </c>
-      <c r="O21" s="9">
-        <f>O11/O3</f>
+      <c r="O21" s="7">
+        <f t="shared" si="10"/>
         <v>0.53493969861845914</v>
       </c>
-      <c r="P21" s="9">
-        <f>P11/P3</f>
+      <c r="P21" s="7">
+        <f t="shared" si="10"/>
         <v>0.53385816265261188</v>
       </c>
-      <c r="Q21" s="9">
-        <f>Q11/Q3</f>
+      <c r="Q21" s="7">
+        <f t="shared" si="10"/>
         <v>0.52919558165318448</v>
       </c>
-      <c r="R21" s="9">
-        <f>R11/R3</f>
+      <c r="R21" s="7">
+        <f t="shared" si="10"/>
         <v>0.42154121177296766</v>
       </c>
-      <c r="S21" s="9">
-        <f>S11/S3</f>
+      <c r="S21" s="7">
+        <f t="shared" si="10"/>
         <v>0.31087382096458449</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="7">
         <f>AB11/AB3</f>
         <v>6.4356474908589034E-2</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="7">
         <f>AC11/AC3</f>
         <v>0.10297203344712028</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AD21" s="7">
         <f>AD11/AD3</f>
         <v>0.42157272094641624</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AE21" s="7">
         <f>AE11/AE3</f>
         <v>0.50732861067606172</v>
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:J22" si="11">C14/C15</f>
+        <v>0.11850311850311847</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="11"/>
+        <v>0.11823647294589248</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="11"/>
+        <v>8.6378737541528278E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="11"/>
+        <v>0.16406250000000258</v>
+      </c>
+      <c r="G22" s="8">
+        <f>G14/G15</f>
+        <v>0.6113360323886613</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="11"/>
+        <v>3.6042944785276095E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="11"/>
+        <v>4.3168316831683193E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="11"/>
+        <v>2.6170105686965362E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <f>K14/K15</f>
+        <v>9.1384896568912511E-3</v>
+      </c>
+      <c r="L22" s="8">
+        <f>L14/L15</f>
+        <v>8.3492209585168623E-3</v>
+      </c>
+      <c r="M22" s="8">
+        <f>M14/M15</f>
+        <v>5.4627475858180022E-3</v>
+      </c>
+      <c r="N22" s="8">
+        <f>N14/N15</f>
+        <v>6.2732407959351626E-3</v>
+      </c>
+      <c r="O22" s="8">
+        <f>O14/O15</f>
+        <v>3.9794793115021333E-3</v>
+      </c>
+      <c r="P22" s="8">
+        <f>P14/P15</f>
+        <v>4.6399571696261275E-3</v>
+      </c>
+      <c r="Q22" s="8">
+        <f>Q14/Q15</f>
+        <v>7.7940343406325066E-3</v>
+      </c>
+      <c r="R22" s="8">
+        <f>R14/R15</f>
+        <v>3.7716802789758704E-2</v>
+      </c>
+      <c r="S22" s="8">
+        <f>S14/S15</f>
+        <v>3.3593915064441156E-2</v>
+      </c>
+      <c r="AB22" s="8">
+        <f>AB14/AB15</f>
+        <v>0.11489019817889672</v>
+      </c>
+      <c r="AC22" s="8">
+        <f>AC14/AC15</f>
+        <v>4.8963010476801419E-2</v>
+      </c>
+      <c r="AD22" s="8">
+        <f>AD14/AD15</f>
+        <v>6.7473115320689902E-3</v>
+      </c>
+      <c r="AE22" s="8">
+        <f>AE14/AE15</f>
+        <v>1.1770504500487017E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="9" t="e">
-        <f>G3/C3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="9" t="e">
-        <f>H3/D3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="9" t="e">
-        <f>I3/E3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="9" t="e">
-        <f>J3/F3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="9" t="e">
-        <f>K3/G3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="9" t="e">
-        <f>L3/H3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="9" t="e">
-        <f>M3/I3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="9" t="e">
-        <f>N3/J3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="9">
-        <f>O3/K3-1</f>
+      <c r="G23" s="7">
+        <f t="shared" ref="G23:R23" si="12">G3/C3-1</f>
+        <v>9.1547226484704147E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="12"/>
+        <v>-4.9823633156966474E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="12"/>
+        <v>-7.4722564734895247E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="12"/>
+        <v>9.1080683345063473E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="12"/>
+        <v>0.21658241856848015</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="12"/>
+        <v>0.5531985415976135</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="12"/>
+        <v>1.080457089552239</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="12"/>
+        <v>1.1332355959536731</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="12"/>
         <v>0.96110537444067479</v>
       </c>
-      <c r="P22" s="9">
-        <f>P3/L3-1</f>
+      <c r="P23" s="7">
+        <f t="shared" si="12"/>
         <v>0.91920614596670935</v>
       </c>
-      <c r="Q22" s="9">
-        <f>Q3/M3-1</f>
+      <c r="Q23" s="7">
+        <f t="shared" si="12"/>
         <v>0.55991480775697799</v>
       </c>
-      <c r="R22" s="9">
-        <f>R3/N3-1</f>
+      <c r="R23" s="7">
+        <f t="shared" si="12"/>
         <v>7.6435659894988239E-2</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S23" s="7">
         <f>S3/O3-1</f>
         <v>-0.29556452623924989</v>
       </c>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9">
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7">
         <f>AC3/AB3-1</f>
         <v>1.3047375058495181E-2</v>
       </c>
-      <c r="AD22" s="9">
+      <c r="AD23" s="7">
         <f>AD3/AC3-1</f>
         <v>0.74387742319376149</v>
       </c>
-      <c r="AE22" s="9">
+      <c r="AE23" s="7">
         <f>AE3/AD3-1</f>
         <v>0.55084292993916528</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="9" t="e">
-        <f>G11/C11-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="9" t="e">
+      <c r="G24" s="7">
+        <f t="shared" ref="G24:R24" si="13">G11/C11-1</f>
+        <v>-0.2523408239700371</v>
+      </c>
+      <c r="H24" s="7">
         <f>H11/D11-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="9" t="e">
-        <f>I11/E11-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="9" t="e">
-        <f>J11/F11-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="9" t="e">
-        <f>K11/G11-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="9" t="e">
-        <f>L11/H11-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="9" t="e">
-        <f>M11/I11-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="9" t="e">
-        <f>N11/J11-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="9">
-        <f>O11/K11-1</f>
+        <v>1.0022779043280203</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="13"/>
+        <v>0.36883629191321488</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="13"/>
+        <v>1.7083580320094955</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="13"/>
+        <v>6.9974953036944223</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="13"/>
+        <v>3.5967007963595021</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="13"/>
+        <v>7.3726224783861696</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="13"/>
+        <v>6.8599255854673062</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="13"/>
         <v>2.3409019730660825</v>
       </c>
-      <c r="P23" s="9">
-        <f>P11/L11-1</f>
+      <c r="P24" s="7">
+        <f t="shared" si="13"/>
         <v>1.9706719465412696</v>
       </c>
-      <c r="Q23" s="9">
-        <f>Q11/M11-1</f>
+      <c r="Q24" s="7">
+        <f t="shared" si="13"/>
         <v>0.77434344129694055</v>
       </c>
-      <c r="R23" s="9">
-        <f>R11/N11-1</f>
+      <c r="R24" s="7">
+        <f t="shared" si="13"/>
         <v>-8.0725105814214437E-2</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S24" s="7">
         <f>S11/O11-1</f>
         <v>-0.5906257323646591</v>
       </c>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9">
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7">
         <f>AC11/AB11-1</f>
         <v>0.62090214444170511</v>
       </c>
-      <c r="AD23" s="9">
+      <c r="AD24" s="7">
         <f>AD11/AC11-1</f>
         <v>6.1395225060827325</v>
       </c>
-      <c r="AE23" s="9">
+      <c r="AE24" s="7">
         <f>AE11/AD11-1</f>
         <v>0.86631380525884127</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="9" t="e">
-        <f>G14/G15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="9" t="e">
-        <f>H14/H15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="9" t="e">
-        <f>I14/I15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="9" t="e">
-        <f>J14/J15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="10">
-        <f>K14/K15</f>
-        <v>9.1384896568912511E-3</v>
-      </c>
-      <c r="L24" s="10">
-        <f>L14/L15</f>
-        <v>8.3492209585168623E-3</v>
-      </c>
-      <c r="M24" s="10">
-        <f>M14/M15</f>
-        <v>5.4627475858180022E-3</v>
-      </c>
-      <c r="N24" s="10">
-        <f>N14/N15</f>
-        <v>6.2732407959351626E-3</v>
-      </c>
-      <c r="O24" s="10">
-        <f>O14/O15</f>
-        <v>3.9794793115021333E-3</v>
-      </c>
-      <c r="P24" s="10">
-        <f>P14/P15</f>
-        <v>4.6399571696261275E-3</v>
-      </c>
-      <c r="Q24" s="10">
-        <f>Q14/Q15</f>
-        <v>7.7940343406325066E-3</v>
-      </c>
-      <c r="R24" s="10">
-        <f>R14/R15</f>
-        <v>3.7716802789758704E-2</v>
-      </c>
-      <c r="S24" s="10">
-        <f>S14/S15</f>
-        <v>3.3593915064441156E-2</v>
-      </c>
-      <c r="AB24" s="9">
-        <f>AB14/AB15</f>
-        <v>0.11489019817889672</v>
-      </c>
-      <c r="AC24" s="9">
-        <f>AC14/AC15</f>
-        <v>4.8963010476801419E-2</v>
-      </c>
-      <c r="AD24" s="9">
-        <f>AD14/AD15</f>
-        <v>6.7473115320689902E-3</v>
-      </c>
-      <c r="AE24" s="9">
-        <f>AE14/AE15</f>
-        <v>1.1770504500487017E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+    </row>
+    <row r="29" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N28" s="6">
-        <f>N29-N45-N41</f>
+      <c r="N29" s="6">
+        <f>N30-N46-N42</f>
         <v>4649.2999999999993</v>
       </c>
-      <c r="Q28" s="6">
-        <f>Q29-Q45-Q41</f>
+      <c r="Q29" s="6">
+        <f>Q30-Q46-Q42</f>
         <v>11988.300000000001</v>
       </c>
-      <c r="R28" s="6">
-        <f>R29-R45-R41</f>
+      <c r="R29" s="6">
+        <f>R30-R46-R42</f>
         <v>12459.400000000001</v>
       </c>
-      <c r="S28" s="6">
-        <f>S29-S45-S41</f>
+      <c r="S29" s="6">
+        <f>S30-S46-S42</f>
         <v>15070.6</v>
       </c>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="AA29" s="6">
+        <f>AA30-AA46-AA42</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="6">
+        <f>AB30-AB46-AB42</f>
+        <v>-4692.2000000000007</v>
+      </c>
+      <c r="AC29" s="6">
+        <f>AC30-AC46-AC42</f>
+        <v>-3054.5000000000005</v>
+      </c>
+      <c r="AD29" s="6">
+        <f>AD30-AD46-AD42</f>
+        <v>4649.2999999999993</v>
+      </c>
+      <c r="AE29" s="6">
+        <f>AE30-AE46-AE42</f>
+        <v>12459.400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N30" s="4">
         <v>7723.4</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q30" s="4">
         <v>15136.6</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R30" s="4">
         <v>15236.1</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S30" s="4">
         <v>17689.400000000001</v>
       </c>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="AB30" s="4">
+        <v>511.6</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>681.3</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>7723.4</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>15236.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N31" s="4">
         <v>2999.2</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q31" s="4">
         <v>4065.2</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R31" s="4">
         <v>2895</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S31" s="4">
         <v>2265.6</v>
       </c>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+      <c r="AB31" s="4">
+        <v>1239.8</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>1362.6</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>2999.2</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N32" s="4">
         <v>337.2</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q32" s="4">
         <v>568.4</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R32" s="4">
         <v>440</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S32" s="4">
         <v>387.8</v>
       </c>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+      <c r="AB32" s="4">
+        <v>248.5</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>172.3</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>337.2</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N33" s="4">
         <f>353.6+0.3+16.8</f>
         <v>370.70000000000005</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q33" s="4">
         <f>1279.4+2.8+20.9</f>
         <v>1303.1000000000001</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R33" s="4">
         <f>3067.1+132.5+5.5+16.4</f>
         <v>3221.5</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S33" s="4">
         <f>2110.6+165.9+112.8+16</f>
         <v>2405.3000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="AB33" s="4">
+        <f>2388.6-AB30-AB31-AB32</f>
+        <v>388.70000000000005</v>
+      </c>
+      <c r="AC33" s="4">
+        <f>2551.2-AC30-AC31-AC32</f>
+        <v>334.99999999999994</v>
+      </c>
+      <c r="AD33" s="4">
+        <f>353.6+0.3+16.8</f>
+        <v>370.70000000000005</v>
+      </c>
+      <c r="AE33" s="4">
+        <f>3067.1+132.5+5.5+16.4</f>
+        <v>3221.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>49</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N34" s="4">
         <v>11764.8</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q34" s="4">
         <v>14177.9</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R34" s="4">
         <v>13140.2</v>
       </c>
-      <c r="S33" s="4">
+      <c r="S34" s="4">
         <v>12843.8</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+      <c r="AB34" s="4">
+        <v>10064.9</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>9300.6</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>11764.8</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>13140.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N35" s="4">
         <v>332.4</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q35" s="4">
         <v>329.3</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R35" s="4">
         <v>353.4</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S35" s="4">
         <v>634.4</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="AB35" s="4">
+        <v>333.6</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>329.2</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>332.4</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>353.4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N36" s="4">
         <v>1597.2</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q36" s="4">
         <v>1873.7</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R36" s="4">
         <v>1712.1</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S36" s="4">
         <v>1681.2</v>
       </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+      <c r="AB36" s="4">
+        <v>1600.7</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>1466.8</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>1597.2</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>1712.1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="4">
-        <f>15284-N33-N34-N35</f>
+      <c r="N37" s="4">
+        <f>15284-N34-N35-N36</f>
         <v>1589.6000000000006</v>
       </c>
-      <c r="Q36" s="4">
-        <f>18213.2-Q33-Q34-Q35</f>
+      <c r="Q37" s="4">
+        <f>18213.2-Q34-Q35-Q36</f>
         <v>1832.3000000000009</v>
       </c>
-      <c r="R36" s="4">
-        <f>16894.7-R33-R34-R35</f>
+      <c r="R37" s="4">
+        <f>16894.7-R34-R35-R36</f>
         <v>1689</v>
       </c>
-      <c r="S36" s="4">
-        <f>16793-S33-S34-S35</f>
+      <c r="S37" s="4">
+        <f>16793-S34-S35-S36</f>
         <v>1633.6000000000006</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="AB37" s="4">
+        <f>13811.8-AB34-AB35-AB36</f>
+        <v>1812.5999999999997</v>
+      </c>
+      <c r="AC37" s="4">
+        <f>12633-AC34-AC35-AC36</f>
+        <v>1536.3999999999999</v>
+      </c>
+      <c r="AD37" s="4">
+        <f>15284-AD34-AD35-AD36</f>
+        <v>1589.6000000000006</v>
+      </c>
+      <c r="AE37" s="4">
+        <f>16894.7-AE34-AE35-AE36</f>
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N37" s="6">
-        <f>SUM(N29:N36)</f>
+      <c r="N38" s="6">
+        <f>SUM(N30:N37)</f>
         <v>26714.500000000004</v>
       </c>
-      <c r="Q37" s="6">
-        <f>SUM(Q29:Q36)</f>
+      <c r="Q38" s="6">
+        <f>SUM(Q30:Q37)</f>
         <v>39286.5</v>
       </c>
-      <c r="R37" s="6">
-        <f>SUM(R29:R36)</f>
+      <c r="R38" s="6">
+        <f>SUM(R30:R37)</f>
         <v>38687.300000000003</v>
       </c>
-      <c r="S37" s="6">
-        <f>SUM(S29:S36)</f>
+      <c r="S38" s="6">
+        <f>SUM(S30:S37)</f>
         <v>39541.099999999991</v>
       </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="AB38" s="6">
+        <f>SUM(AB30:AB37)</f>
+        <v>16200.400000000001</v>
+      </c>
+      <c r="AC38" s="6">
+        <f>SUM(AC30:AC37)</f>
+        <v>15184.199999999999</v>
+      </c>
+      <c r="AD38" s="6">
+        <f>SUM(AD30:AD37)</f>
+        <v>26714.500000000004</v>
+      </c>
+      <c r="AE38" s="6">
+        <f>SUM(AE30:AE37)</f>
+        <v>38687.300000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N39" s="4">
         <v>2323.9</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q39" s="4">
         <v>2881.3</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R39" s="4">
         <v>2615.6999999999998</v>
       </c>
-      <c r="S38" s="4">
+      <c r="S39" s="4">
         <v>2770.4</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="AB39" s="4">
+        <v>1779.4</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>1748.1</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>2323.9</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>2615.6999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>55</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N40" s="4">
         <v>598.6</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q40" s="4">
         <v>761.1</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R40" s="4">
         <v>964.6</v>
       </c>
-      <c r="S39" s="4">
+      <c r="S40" s="4">
         <v>956.1</v>
       </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="AB40" s="4">
+        <v>399.3</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>369.2</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>598.6</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>964.6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N41" s="4">
         <v>49.6</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q41" s="4">
         <v>84.6</v>
       </c>
-      <c r="R40" s="4">
+      <c r="R41" s="4">
         <v>165.9</v>
       </c>
-      <c r="S40" s="4">
+      <c r="S41" s="4">
         <v>209.1</v>
       </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="AB41" s="4">
+        <v>50</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>39.1</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>165.9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N42" s="4">
         <v>502</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q42" s="4">
         <v>567.79999999999995</v>
       </c>
-      <c r="R41" s="4">
+      <c r="R42" s="4">
         <v>457.3</v>
       </c>
-      <c r="S41" s="4">
+      <c r="S42" s="4">
         <v>487.2</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="AB42" s="4">
+        <v>758.7</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>505.9</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>502</v>
+      </c>
+      <c r="AE42" s="4">
+        <v>457.3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N43" s="4">
         <v>856.7</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q43" s="4">
         <v>1034.3</v>
       </c>
-      <c r="R42" s="4">
+      <c r="R43" s="4">
         <v>934.7</v>
       </c>
-      <c r="S42" s="4">
+      <c r="S43" s="4">
         <v>905.6</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="AB43" s="4">
+        <v>482.4</v>
+      </c>
+      <c r="AC43" s="4">
+        <v>459.8</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>856.7</v>
+      </c>
+      <c r="AE43" s="4">
+        <v>934.7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>59</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N44" s="4">
         <v>1445.8</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q44" s="4">
         <v>1503.6</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R44" s="4">
         <v>952.9</v>
       </c>
-      <c r="S43" s="4">
+      <c r="S44" s="4">
         <v>600</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="AB44" s="4">
+        <v>372.9</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>545.70000000000005</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>1445.8</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>952.9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>62</v>
       </c>
-      <c r="N44" s="4">
-        <f>5958.3-N38-N39-N40-N41-N42-N43</f>
+      <c r="N45" s="4">
+        <f>5958.3-N39-N40-N41-N42-N43-N44</f>
         <v>181.70000000000027</v>
       </c>
-      <c r="Q44" s="4">
-        <f>7179.3-Q38-Q39-Q40-Q41-Q42-Q43</f>
+      <c r="Q45" s="4">
+        <f>7179.3-Q39-Q40-Q41-Q42-Q43-Q44</f>
         <v>346.60000000000014</v>
       </c>
-      <c r="R44" s="4">
-        <f>6397-R38-R39-R40-R41-R42-R43</f>
+      <c r="R45" s="4">
+        <f>6397-R39-R40-R41-R42-R43-R44</f>
         <v>305.89999999999998</v>
       </c>
-      <c r="S44" s="4">
-        <f>6198-S38-S39-S40-S41-S42-S43</f>
+      <c r="S45" s="4">
+        <f>6198-S39-S40-S41-S42-S43-S44</f>
         <v>269.60000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+      <c r="AB45" s="4">
+        <f>3993.6-AB39-AB40-AB41-AB42-AB43-AB44</f>
+        <v>150.89999999999986</v>
+      </c>
+      <c r="AC45" s="4">
+        <f>3792.9-AC39-AC40-AC41-AC42-AC43-AC44</f>
+        <v>125.10000000000036</v>
+      </c>
+      <c r="AD45" s="4">
+        <f>5958.3-AD39-AD40-AD41-AD42-AD43-AD44</f>
+        <v>181.70000000000027</v>
+      </c>
+      <c r="AE45" s="4">
+        <f>6397-AE39-AE40-AE41-AE42-AE43-AE44</f>
+        <v>305.89999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N46" s="4">
         <v>2572.1</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q46" s="4">
         <v>2580.5</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R46" s="4">
         <v>2319.4</v>
       </c>
-      <c r="S45" s="4">
+      <c r="S46" s="4">
         <v>2131.6</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+      <c r="AB46" s="4">
+        <v>4445.1000000000004</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>3229.9</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>2572.1</v>
+      </c>
+      <c r="AE46" s="4">
+        <v>2319.4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N47" s="4">
         <v>1566.4</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q47" s="4">
         <v>2015.3</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R47" s="4">
         <v>1725.4</v>
       </c>
-      <c r="S46" s="4">
+      <c r="S47" s="4">
         <v>1600.8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="AB47" s="4">
+        <v>710.9</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>940.5</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>1566.4</v>
+      </c>
+      <c r="AE47" s="4">
+        <v>1725.4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>61</v>
       </c>
-      <c r="N47" s="4">
-        <f>4594.2-N46-N45</f>
+      <c r="N48" s="4">
+        <f>4594.2-N47-N46</f>
         <v>455.69999999999982</v>
       </c>
-      <c r="Q47" s="4">
-        <f>4868.8-Q46-Q45</f>
+      <c r="Q48" s="4">
+        <f>4868.8-Q47-Q46</f>
         <v>273</v>
       </c>
-      <c r="R47" s="4">
-        <f>4379.3-R46-R45</f>
+      <c r="R48" s="4">
+        <f>4379.3-R47-R46</f>
         <v>334.5</v>
       </c>
-      <c r="S47" s="4">
-        <f>4073.3-S46-S45</f>
+      <c r="S48" s="4">
+        <f>4073.3-S47-S46</f>
         <v>340.90000000000009</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="AB48" s="4">
+        <f>5586.2-AB47-AB46</f>
+        <v>430.19999999999982</v>
+      </c>
+      <c r="AC48" s="4">
+        <f>4668.7-AC47-AC46</f>
+        <v>498.29999999999973</v>
+      </c>
+      <c r="AD48" s="4">
+        <f>4594.2-AD47-AD46</f>
+        <v>455.69999999999982</v>
+      </c>
+      <c r="AE48" s="4">
+        <f>4379.3-AE47-AE46</f>
+        <v>334.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N48" s="5">
-        <f>SUM(N38:N47)</f>
+      <c r="N49" s="5">
+        <f>SUM(N39:N48)</f>
         <v>10552.5</v>
       </c>
-      <c r="Q48" s="5">
-        <f>SUM(Q38:Q47)</f>
+      <c r="Q49" s="5">
+        <f>SUM(Q39:Q48)</f>
         <v>12048.1</v>
       </c>
-      <c r="R48" s="5">
-        <f>SUM(R38:R47)</f>
+      <c r="R49" s="5">
+        <f>SUM(R39:R48)</f>
         <v>10776.3</v>
       </c>
-      <c r="S48" s="5">
-        <f>SUM(S38:S47)</f>
+      <c r="S49" s="5">
+        <f>SUM(S39:S48)</f>
         <v>10271.299999999999</v>
       </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="AB49" s="5">
+        <f>SUM(AB39:AB48)</f>
+        <v>9579.7999999999993</v>
+      </c>
+      <c r="AC49" s="5">
+        <f>SUM(AC39:AC48)</f>
+        <v>8461.6</v>
+      </c>
+      <c r="AD49" s="5">
+        <f>SUM(AD39:AD48)</f>
+        <v>10552.5</v>
+      </c>
+      <c r="AE49" s="5">
+        <f>SUM(AE39:AE48)</f>
+        <v>10776.3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>65</v>
       </c>
-      <c r="N49">
+      <c r="N50">
         <v>16162</v>
       </c>
-      <c r="Q49">
+      <c r="Q50">
         <v>27238.400000000001</v>
       </c>
-      <c r="R49">
+      <c r="R50">
         <v>27911.1</v>
       </c>
-      <c r="S49">
+      <c r="S50">
         <v>29269.7</v>
       </c>
-    </row>
-    <row r="52" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
+      <c r="AB50">
+        <v>6620.6</v>
+      </c>
+      <c r="AC50">
+        <v>6722.7</v>
+      </c>
+      <c r="AD50">
+        <v>16162</v>
+      </c>
+      <c r="AE50">
+        <v>27911.1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O53" s="6">
         <v>7723.4</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S53" s="6">
         <v>15236.1</v>
       </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="AB53" s="6">
+        <v>657.1</v>
+      </c>
+      <c r="AC53" s="6">
+        <f>AB77</f>
+        <v>511.5</v>
+      </c>
+      <c r="AD53" s="6">
+        <f>AC77</f>
+        <v>681.29999999999905</v>
+      </c>
+      <c r="AE53" s="6">
+        <f>AD77</f>
+        <v>7723.1999999999962</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>67</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O54" s="4">
         <v>4171.3</v>
       </c>
-      <c r="S53" s="4">
+      <c r="S54" s="4">
         <v>1893.2</v>
       </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="AB54" s="4">
+        <v>373.4</v>
+      </c>
+      <c r="AC54" s="4">
+        <v>935.4</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>9085</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>17042.599999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O55" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="S54" s="4">
+      <c r="S55" s="4">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="AB55" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="AC55" s="4">
+        <v>45.8</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>61.3</v>
+      </c>
+      <c r="AE55" s="4">
+        <v>200.6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>35</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O56" s="4">
         <v>31</v>
       </c>
-      <c r="S55" s="4">
+      <c r="S56" s="4">
         <v>-58.3</v>
       </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="AB56" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AC56" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>-1.7</v>
+      </c>
+      <c r="AE56" s="4">
+        <v>303.89999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>68</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O57" s="4">
         <v>48</v>
       </c>
-      <c r="S56" s="4">
+      <c r="S57" s="4">
         <v>-151.69999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="AB57" s="4">
+        <v>396.7</v>
+      </c>
+      <c r="AC57" s="4">
+        <v>330.5</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>245.2</v>
+      </c>
+      <c r="AE57" s="4">
+        <v>-22.6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>42</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O58" s="4">
         <v>459.5</v>
       </c>
-      <c r="S57" s="4">
+      <c r="S58" s="4">
         <v>470.5</v>
       </c>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+      <c r="AB58" s="4">
+        <v>1174.4000000000001</v>
+      </c>
+      <c r="AC58" s="4">
+        <v>1385.2</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>1462.8</v>
+      </c>
+      <c r="AE58" s="4">
+        <v>1904.2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>30</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O59" s="4">
         <f>-11.9-11.5-2.1</f>
         <v>-25.5</v>
       </c>
-      <c r="S58" s="4">
+      <c r="S59" s="4">
         <f>-11-15.5-4</f>
         <v>-30.5</v>
       </c>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
+      <c r="AB59" s="4">
+        <f>-18.5-35.7-0.8</f>
+        <v>-55</v>
+      </c>
+      <c r="AC59" s="4">
+        <f>0.1-12.2-32.2+39.5</f>
+        <v>-4.8000000000000043</v>
+      </c>
+      <c r="AD59" s="4">
+        <f>-12.5-28.9-34.8</f>
+        <v>-76.199999999999989</v>
+      </c>
+      <c r="AE59" s="4">
+        <f>-64.8-90.8-37.3</f>
+        <v>-192.89999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>48</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O60" s="4">
         <v>-79.8</v>
       </c>
-      <c r="S59" s="4">
+      <c r="S60" s="4">
         <v>44.8</v>
       </c>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
+      <c r="AB60" s="4">
+        <v>-5.6</v>
+      </c>
+      <c r="AC60" s="4">
+        <v>59.1</v>
+      </c>
+      <c r="AD60" s="4">
+        <v>-139.5</v>
+      </c>
+      <c r="AE60" s="4">
+        <v>-81.8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>69</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O61" s="4">
         <v>-335.4</v>
       </c>
-      <c r="S60" s="4">
+      <c r="S61" s="4">
         <v>560.70000000000005</v>
       </c>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+      <c r="AB61" s="4">
+        <v>-54</v>
+      </c>
+      <c r="AC61" s="4">
+        <v>-225.4</v>
+      </c>
+      <c r="AD61" s="4">
+        <v>-1383.4</v>
+      </c>
+      <c r="AE61" s="4">
+        <v>302.3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>55</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O62" s="4">
         <v>79.900000000000006</v>
       </c>
-      <c r="S61" s="4">
+      <c r="S62" s="4">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
+      <c r="AB62" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="AC62" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AD62" s="4">
+        <v>180</v>
+      </c>
+      <c r="AE62" s="4">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>70</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O63" s="4">
         <v>130.4</v>
       </c>
-      <c r="S62" s="4">
+      <c r="S63" s="4">
         <v>-248.1</v>
       </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
+      <c r="AB63" s="4">
+        <v>110.8</v>
+      </c>
+      <c r="AC63" s="4">
+        <v>355.5</v>
+      </c>
+      <c r="AD63" s="4">
+        <v>998.4</v>
+      </c>
+      <c r="AE63" s="4">
+        <v>-313.3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>71</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O64" s="4">
         <v>-8.4</v>
       </c>
-      <c r="S63" s="4">
+      <c r="S64" s="4">
         <v>-26</v>
       </c>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
+      <c r="AB64" s="4">
+        <v>-29.4</v>
+      </c>
+      <c r="AC64" s="4">
+        <f>-21.9</f>
+        <v>-21.9</v>
+      </c>
+      <c r="AD64" s="4">
+        <v>-26.4</v>
+      </c>
+      <c r="AE64" s="4">
+        <v>-60.9</v>
+      </c>
+      <c r="AF64" s="4"/>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>49</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O65" s="4">
         <f>15.7-384.7</f>
         <v>-369</v>
       </c>
-      <c r="S64" s="4">
+      <c r="S65" s="4">
         <f>24.8-218.7</f>
         <v>-193.89999999999998</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
+      <c r="AB65" s="4">
+        <f>41.6-426.1</f>
+        <v>-384.5</v>
+      </c>
+      <c r="AC65" s="4">
+        <f>31-534.1</f>
+        <v>-503.1</v>
+      </c>
+      <c r="AD65" s="4">
+        <f>20.2-1252.7</f>
+        <v>-1232.5</v>
+      </c>
+      <c r="AE65" s="4">
+        <f>112.6-1440.6</f>
+        <v>-1328</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>72</v>
-      </c>
-      <c r="O65" s="4">
-        <v>0</v>
-      </c>
-      <c r="S65" s="4">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="O66" s="4">
         <v>0</v>
       </c>
       <c r="S66" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="AB66" s="4">
+        <v>-4.7</v>
+      </c>
+      <c r="AC66" s="4">
+        <v>-10.4</v>
+      </c>
+      <c r="AD66" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="AE66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="S67" s="4">
         <f>5.3-265.6</f>
         <v>-260.3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
+      <c r="AB67" s="4">
+        <v>-10.6</v>
+      </c>
+      <c r="AC67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="4">
+        <v>-69.7</v>
+      </c>
+      <c r="AE67" s="4">
+        <v>-169.8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O68" s="4">
         <v>0</v>
       </c>
-      <c r="S67" s="4">
+      <c r="S68" s="4">
         <v>909.8</v>
       </c>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
+      <c r="AB68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="4">
+        <f>1.3+25.9+33.6-0.9</f>
+        <v>59.9</v>
+      </c>
+      <c r="AE68" s="4">
+        <f>35.1-8+50.6-15.9-2824.1</f>
+        <v>-2762.2999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>34</v>
       </c>
-      <c r="O68" s="4">
+      <c r="O69" s="4">
         <v>3.3</v>
       </c>
-      <c r="S68" s="4">
+      <c r="S69" s="4">
         <v>205</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
+      <c r="AB69" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="AC69" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AD69" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AE69" s="4">
+        <v>194.6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>74</v>
       </c>
-      <c r="O69" s="4">
+      <c r="O70" s="4">
         <v>-1</v>
       </c>
-      <c r="S69" s="4">
+      <c r="S70" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
+      <c r="AB70" s="4">
+        <f>30.2-39.5</f>
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AC70" s="4">
+        <f>36-203.5</f>
+        <v>-167.5</v>
+      </c>
+      <c r="AD70" s="4">
+        <v>-633.5</v>
+      </c>
+      <c r="AE70" s="4">
+        <v>-6165</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O71" s="4">
         <f>0.2-112.7</f>
         <v>-112.5</v>
       </c>
-      <c r="S70" s="4">
+      <c r="S71" s="4">
         <v>-121.7</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
+      <c r="AB71" s="4">
+        <f>924.3-1733.2</f>
+        <v>-808.90000000000009</v>
+      </c>
+      <c r="AC71" s="4">
+        <f>1593.8-2742.3</f>
+        <v>-1148.5000000000002</v>
+      </c>
+      <c r="AD71" s="4">
+        <f>497.7-1411.6</f>
+        <v>-913.89999999999986</v>
+      </c>
+      <c r="AE71" s="4">
+        <f>46.8-530.4</f>
+        <v>-483.59999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>75</v>
       </c>
-      <c r="O71" s="4">
+      <c r="O72" s="4">
         <v>-239.1</v>
       </c>
-      <c r="S71" s="4">
+      <c r="S72" s="4">
         <v>-244</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
+      <c r="AB72" s="4">
+        <f>-456.7-18.1</f>
+        <v>-474.8</v>
+      </c>
+      <c r="AC72" s="4">
+        <f>-514.3-26.3</f>
+        <v>-540.59999999999991</v>
+      </c>
+      <c r="AD72" s="4">
+        <v>-678.5</v>
+      </c>
+      <c r="AE72" s="4">
+        <v>-1055.3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>76</v>
       </c>
-      <c r="O72" s="4">
+      <c r="O73" s="4">
         <v>-45.1</v>
       </c>
-      <c r="S72" s="4">
+      <c r="S73" s="4">
         <v>-51.8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
+      <c r="AB73" s="4">
+        <v>-397.3</v>
+      </c>
+      <c r="AC73" s="4">
+        <f>-315.6</f>
+        <v>-315.60000000000002</v>
+      </c>
+      <c r="AD73" s="4">
+        <v>-224.8</v>
+      </c>
+      <c r="AE73" s="4">
+        <v>-209.3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="O73" s="4">
+      <c r="O74" s="4">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="S73" s="4">
+      <c r="S74" s="4">
         <v>-43.3</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="5" t="s">
+      <c r="AB74" s="4">
+        <f>-103.7+6.6</f>
+        <v>-97.100000000000009</v>
+      </c>
+      <c r="AC74" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AD74" s="4">
+        <f>-0.5-0.3-29.4</f>
+        <v>-30.2</v>
+      </c>
+      <c r="AE74" s="4">
+        <f>-280-36.5</f>
+        <v>-316.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O74" s="6">
-        <f>SUM(O53:O73)</f>
+      <c r="O75" s="6">
+        <f>SUM(O54:O74)</f>
         <v>3721.9000000000005</v>
       </c>
-      <c r="S74" s="6">
-        <f>SUM(S53:S73)</f>
+      <c r="S75" s="6">
+        <f>SUM(S54:S74)</f>
         <v>2766.3999999999996</v>
       </c>
-      <c r="V74" s="5" t="s">
+      <c r="V75" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
+      <c r="AB75" s="6">
+        <f>SUM(AB54:AB74)</f>
+        <v>-159</v>
+      </c>
+      <c r="AC75" s="6">
+        <f>SUM(AC54:AC74)</f>
+        <v>228.29999999999902</v>
+      </c>
+      <c r="AD75" s="6">
+        <f>SUM(AD54:AD74)</f>
+        <v>6697.0999999999967</v>
+      </c>
+      <c r="AE75" s="6">
+        <f>SUM(AE54:AE74)</f>
+        <v>7208.1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>80</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O76" s="4">
         <v>192</v>
       </c>
-      <c r="S75" s="8">
+      <c r="S76" s="4">
         <v>-313.60000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="5" t="s">
+      <c r="AB76" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="AC76" s="4">
+        <v>-58.5</v>
+      </c>
+      <c r="AD76" s="4">
+        <v>344.8</v>
+      </c>
+      <c r="AE76" s="4">
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="O76" s="6">
-        <f>O52+SUM(O53:O73)+O75</f>
+      <c r="O77" s="6">
+        <f>O53+SUM(O54:O74)+O76</f>
         <v>11637.3</v>
       </c>
-      <c r="S76" s="6">
-        <f>S52+SUM(S53:S73)+S75</f>
+      <c r="S77" s="6">
+        <f>S53+SUM(S54:S74)+S76</f>
         <v>17688.900000000001</v>
+      </c>
+      <c r="AB77" s="6">
+        <f>AB53+SUM(AB54:AB74)+AB76</f>
+        <v>511.5</v>
+      </c>
+      <c r="AC77" s="6">
+        <f>AC53+SUM(AC54:AC74)+AC76</f>
+        <v>681.29999999999905</v>
+      </c>
+      <c r="AD77" s="6">
+        <f>AD53+SUM(AD54:AD74)+AD76</f>
+        <v>7723.1999999999962</v>
+      </c>
+      <c r="AE77" s="6">
+        <f>AE53+SUM(AE54:AE74)+AE76</f>
+        <v>15235.799999999996</v>
       </c>
     </row>
   </sheetData>
@@ -2699,7 +3981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84A155F-28DD-4056-ABE3-FB6172E07486}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Shipping & Transportation/HLAG.xlsx
+++ b/Shipping & Transportation/HLAG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FC38E7-5C36-4D63-8CCF-30CF54119D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5435395-F0F2-4C06-9AF1-5D0BCCFDADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
   <si>
     <t>Price</t>
   </si>
@@ -345,6 +345,39 @@
   </si>
   <si>
     <t>Free Float</t>
+  </si>
+  <si>
+    <t>Total Vessels</t>
+  </si>
+  <si>
+    <t>Capacity of Vessels</t>
+  </si>
+  <si>
+    <t>Container Capacity</t>
+  </si>
+  <si>
+    <t>Freight Rate</t>
+  </si>
+  <si>
+    <t>Transport Volume</t>
+  </si>
+  <si>
+    <t>Own Vessels</t>
+  </si>
+  <si>
+    <t>Chartered Vessels</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Shore-based</t>
+  </si>
+  <si>
+    <t>Apprentices</t>
   </si>
 </sst>
 </file>
@@ -352,7 +385,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -418,7 +451,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -703,7 +736,7 @@
   <dimension ref="B3:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>195.3</v>
+        <v>185.8</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -733,7 +766,7 @@
       </c>
       <c r="L5" s="4">
         <f>L3*L4</f>
-        <v>34372.800000000003</v>
+        <v>32700.800000000003</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -741,8 +774,8 @@
         <v>3</v>
       </c>
       <c r="L6" s="4">
-        <f>Model!S30</f>
-        <v>17689.400000000001</v>
+        <f>Model!T30</f>
+        <v>6791.6</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -750,8 +783,8 @@
         <v>4</v>
       </c>
       <c r="L7" s="4">
-        <f>-Model!S46-Model!S42</f>
-        <v>-2618.7999999999997</v>
+        <f>-Model!T46-Model!T42</f>
+        <v>-2591.6</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -760,7 +793,7 @@
       </c>
       <c r="L8" s="4">
         <f>L6+L7</f>
-        <v>15070.600000000002</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -769,7 +802,7 @@
       </c>
       <c r="L9" s="4">
         <f>L5+L6+L7</f>
-        <v>49443.4</v>
+        <v>36900.800000000003</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -893,10 +926,10 @@
   <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL70" sqref="AL70"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,6 +1082,9 @@
       <c r="S3" s="4">
         <v>5619</v>
       </c>
+      <c r="T3" s="4">
+        <v>4417.1000000000004</v>
+      </c>
       <c r="AB3" s="4">
         <v>12607.9</v>
       </c>
@@ -1121,6 +1157,9 @@
       <c r="S4" s="4">
         <v>3038.2</v>
       </c>
+      <c r="T4" s="4">
+        <v>2818.2</v>
+      </c>
       <c r="AB4" s="4">
         <v>9707</v>
       </c>
@@ -1193,6 +1232,9 @@
       <c r="S5" s="4">
         <v>241.4</v>
       </c>
+      <c r="T5" s="4">
+        <v>234.3</v>
+      </c>
       <c r="AB5" s="4">
         <v>682.5</v>
       </c>
@@ -1265,6 +1307,9 @@
       <c r="S6" s="4">
         <v>470.5</v>
       </c>
+      <c r="T6" s="4">
+        <v>467.3</v>
+      </c>
       <c r="AB6" s="4">
         <v>1174.4000000000001</v>
       </c>
@@ -1337,6 +1382,9 @@
       <c r="S7" s="4">
         <v>-137.6</v>
       </c>
+      <c r="T7" s="4">
+        <v>-96.5</v>
+      </c>
       <c r="AB7" s="4">
         <v>-268.8</v>
       </c>
@@ -1379,7 +1427,7 @@
         <v>345.19999999999982</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" ref="I8:S8" si="2">I3-I4-I5-I6+I7</f>
+        <f t="shared" ref="I8:T8" si="2">I3-I4-I5-I6+I7</f>
         <v>337.7999999999999</v>
       </c>
       <c r="J8" s="6">
@@ -1422,6 +1470,10 @@
         <f t="shared" si="2"/>
         <v>1731.3000000000002</v>
       </c>
+      <c r="T8" s="6">
+        <f t="shared" si="2"/>
+        <v>800.80000000000064</v>
+      </c>
       <c r="AB8" s="6">
         <f>AB3-AB4-AB5-AB6+AB7</f>
         <v>775.19999999999959</v>
@@ -1505,6 +1557,10 @@
       <c r="S9" s="4">
         <v>15.5</v>
       </c>
+      <c r="T9">
+        <f>5.3+2.2</f>
+        <v>7.5</v>
+      </c>
       <c r="AB9" s="4">
         <f>35.5+0.7</f>
         <v>36.200000000000003</v>
@@ -1526,7 +1582,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" ref="C10:S10" si="3">C8+C9+C6</f>
+        <f t="shared" ref="C10:T10" si="3">C8+C9+C6</f>
         <v>489.20000000000005</v>
       </c>
       <c r="D10" s="6">
@@ -1593,6 +1649,10 @@
         <f t="shared" si="3"/>
         <v>2217.3000000000002</v>
       </c>
+      <c r="T10" s="6">
+        <f t="shared" si="3"/>
+        <v>1275.6000000000006</v>
+      </c>
       <c r="AB10" s="6">
         <f>AB8+AB9+AB6</f>
         <v>1985.7999999999997</v>
@@ -1615,7 +1675,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" ref="C11:S11" si="4">C8+C9</f>
+        <f t="shared" ref="C11:T11" si="4">C8+C9</f>
         <v>213.60000000000002</v>
       </c>
       <c r="D11" s="6">
@@ -1682,6 +1742,10 @@
         <f t="shared" si="4"/>
         <v>1746.8000000000002</v>
       </c>
+      <c r="T11" s="6">
+        <f t="shared" si="4"/>
+        <v>808.30000000000064</v>
+      </c>
       <c r="AB11" s="6">
         <f>AB8+AB9</f>
         <v>811.39999999999964</v>
@@ -1769,6 +1833,9 @@
       <c r="S12" s="4">
         <v>151.69999999999999</v>
       </c>
+      <c r="T12">
+        <v>101.1</v>
+      </c>
       <c r="AB12" s="4">
         <v>-396.7</v>
       </c>
@@ -1842,6 +1909,9 @@
       <c r="S13" s="4">
         <v>58.3</v>
       </c>
+      <c r="T13" s="4">
+        <v>94.1</v>
+      </c>
       <c r="AB13" s="4">
         <v>1.6</v>
       </c>
@@ -1914,6 +1984,9 @@
       <c r="S14" s="4">
         <v>63.6</v>
       </c>
+      <c r="T14" s="4">
+        <v>-1.8</v>
+      </c>
       <c r="AB14" s="4">
         <v>42.9</v>
       </c>
@@ -1932,7 +2005,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ref="C15:S15" si="5">C11+C12+C13-C14</f>
+        <f t="shared" ref="C15:T15" si="5">C11+C12+C13-C14</f>
         <v>96.200000000000031</v>
       </c>
       <c r="D15" s="6">
@@ -1999,6 +2072,10 @@
         <f t="shared" si="5"/>
         <v>1893.2000000000003</v>
       </c>
+      <c r="T15" s="6">
+        <f t="shared" si="5"/>
+        <v>1005.3000000000006</v>
+      </c>
       <c r="AB15" s="6">
         <f>AB11+AB12+AB13-AB14</f>
         <v>373.39999999999969</v>
@@ -2084,6 +2161,10 @@
         <f>S15/S17</f>
         <v>175.94795539033461</v>
       </c>
+      <c r="T16" s="4">
+        <f>T15/T17</f>
+        <v>176.05954465849399</v>
+      </c>
       <c r="AB16" s="4">
         <v>176</v>
       </c>
@@ -2156,6 +2237,9 @@
       </c>
       <c r="S17" s="3">
         <v>10.76</v>
+      </c>
+      <c r="T17" s="3">
+        <v>5.71</v>
       </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3">
@@ -2179,7 +2263,7 @@
         <v>82</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" ref="K19:S19" si="6">1-K4/K3</f>
+        <f t="shared" ref="K19:T19" si="6">1-K4/K3</f>
         <v>0.44180557604366422</v>
       </c>
       <c r="L19" s="7">
@@ -2214,6 +2298,10 @@
         <f t="shared" si="6"/>
         <v>0.45929880761701369</v>
       </c>
+      <c r="T19" s="7">
+        <f t="shared" si="6"/>
+        <v>0.36197957936202496</v>
+      </c>
       <c r="AB19" s="7">
         <f>1-AB4/AB3</f>
         <v>0.23008589852394135</v>
@@ -2252,7 +2340,7 @@
         <v>0.15208906519930865</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:S20" si="8">G10/G3</f>
+        <f t="shared" ref="G20:T20" si="8">G10/G3</f>
         <v>0.1403702928244549</v>
       </c>
       <c r="H20" s="7">
@@ -2303,6 +2391,10 @@
         <f t="shared" si="8"/>
         <v>0.39460758142018154</v>
       </c>
+      <c r="T20" s="7">
+        <f t="shared" si="8"/>
+        <v>0.28878676054424862</v>
+      </c>
       <c r="AB20" s="7">
         <f>AB10/AB3</f>
         <v>0.15750442183075689</v>
@@ -2341,7 +2433,7 @@
         <v>5.3970183632989575E-2</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ref="G21:S21" si="10">G11/G3</f>
+        <f t="shared" ref="G21:T21" si="10">G11/G3</f>
         <v>4.7767176143331466E-2</v>
       </c>
       <c r="H21" s="7">
@@ -2392,6 +2484,10 @@
         <f t="shared" si="10"/>
         <v>0.31087382096458449</v>
       </c>
+      <c r="T21" s="7">
+        <f t="shared" si="10"/>
+        <v>0.18299336668855143</v>
+      </c>
       <c r="AB21" s="7">
         <f>AB11/AB3</f>
         <v>6.4356474908589034E-2</v>
@@ -2446,40 +2542,44 @@
         <v>2.6170105686965362E-2</v>
       </c>
       <c r="K22" s="8">
-        <f>K14/K15</f>
+        <f t="shared" ref="K22:T22" si="12">K14/K15</f>
         <v>9.1384896568912511E-3</v>
       </c>
       <c r="L22" s="8">
-        <f>L14/L15</f>
+        <f t="shared" si="12"/>
         <v>8.3492209585168623E-3</v>
       </c>
       <c r="M22" s="8">
-        <f>M14/M15</f>
+        <f t="shared" si="12"/>
         <v>5.4627475858180022E-3</v>
       </c>
       <c r="N22" s="8">
-        <f>N14/N15</f>
+        <f t="shared" si="12"/>
         <v>6.2732407959351626E-3</v>
       </c>
       <c r="O22" s="8">
-        <f>O14/O15</f>
+        <f t="shared" si="12"/>
         <v>3.9794793115021333E-3</v>
       </c>
       <c r="P22" s="8">
-        <f>P14/P15</f>
+        <f t="shared" si="12"/>
         <v>4.6399571696261275E-3</v>
       </c>
       <c r="Q22" s="8">
-        <f>Q14/Q15</f>
+        <f t="shared" si="12"/>
         <v>7.7940343406325066E-3</v>
       </c>
       <c r="R22" s="8">
-        <f>R14/R15</f>
+        <f t="shared" si="12"/>
         <v>3.7716802789758704E-2</v>
       </c>
       <c r="S22" s="8">
-        <f>S14/S15</f>
+        <f t="shared" si="12"/>
         <v>3.3593915064441156E-2</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" si="12"/>
+        <v>-1.7905102954341977E-3</v>
       </c>
       <c r="AB22" s="8">
         <f>AB14/AB15</f>
@@ -2503,56 +2603,60 @@
         <v>45</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ref="G23:R23" si="12">G3/C3-1</f>
+        <f t="shared" ref="G23:R23" si="13">G3/C3-1</f>
         <v>9.1547226484704147E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-4.9823633156966474E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-7.4722564734895247E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.1080683345063473E-2</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.21658241856848015</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.5531985415976135</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.080457089552239</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1332355959536731</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.96110537444067479</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.91920614596670935</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.55991480775697799</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.6435659894988239E-2</v>
       </c>
       <c r="S23" s="7">
         <f>S3/O3-1</f>
         <v>-0.29556452623924989</v>
+      </c>
+      <c r="T23" s="7">
+        <f>T3/P3-1</f>
+        <v>-0.50885093513020652</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7">
@@ -2573,7 +2677,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" ref="G24:R24" si="13">G11/C11-1</f>
+        <f t="shared" ref="G24:R24" si="14">G11/C11-1</f>
         <v>-0.2523408239700371</v>
       </c>
       <c r="H24" s="7">
@@ -2581,48 +2685,52 @@
         <v>1.0022779043280203</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.36883629191321488</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7083580320094955</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.9974953036944223</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5967007963595021</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.3726224783861696</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.8599255854673062</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.3409019730660825</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9706719465412696</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.77434344129694055</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8.0725105814214437E-2</v>
       </c>
       <c r="S24" s="7">
         <f>S11/O11-1</f>
         <v>-0.5906257323646591</v>
+      </c>
+      <c r="T24" s="7">
+        <f>T11/P11-1</f>
+        <v>-0.83164625510289081</v>
       </c>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7">
@@ -2664,6 +2772,10 @@
         <f>S30-S46-S42</f>
         <v>15070.6</v>
       </c>
+      <c r="T29" s="6">
+        <f>T30-T46-T42</f>
+        <v>4200.0000000000009</v>
+      </c>
       <c r="AA29" s="6">
         <f>AA30-AA46-AA42</f>
         <v>0</v>
@@ -2701,6 +2813,9 @@
       <c r="S30" s="4">
         <v>17689.400000000001</v>
       </c>
+      <c r="T30" s="4">
+        <v>6791.6</v>
+      </c>
       <c r="AB30" s="4">
         <v>511.6</v>
       </c>
@@ -2730,6 +2845,9 @@
       <c r="S31" s="4">
         <v>2265.6</v>
       </c>
+      <c r="T31" s="4">
+        <v>1952.8</v>
+      </c>
       <c r="AB31" s="4">
         <v>1239.8</v>
       </c>
@@ -2759,6 +2877,9 @@
       <c r="S32" s="4">
         <v>387.8</v>
       </c>
+      <c r="T32" s="4">
+        <v>399.5</v>
+      </c>
       <c r="AB32" s="4">
         <v>248.5</v>
       </c>
@@ -2792,6 +2913,10 @@
         <f>2110.6+165.9+112.8+16</f>
         <v>2405.3000000000002</v>
       </c>
+      <c r="T33">
+        <f>2055.5+184.9+9.5+8.2+15.7</f>
+        <v>2273.7999999999997</v>
+      </c>
       <c r="AB33" s="4">
         <f>2388.6-AB30-AB31-AB32</f>
         <v>388.70000000000005</v>
@@ -2825,6 +2950,9 @@
       <c r="S34" s="4">
         <v>12843.8</v>
       </c>
+      <c r="T34" s="4">
+        <v>13077.9</v>
+      </c>
       <c r="AB34" s="4">
         <v>10064.9</v>
       </c>
@@ -2854,6 +2982,9 @@
       <c r="S35" s="4">
         <v>634.4</v>
       </c>
+      <c r="T35" s="4">
+        <v>1212.3</v>
+      </c>
       <c r="AB35" s="4">
         <v>333.6</v>
       </c>
@@ -2883,6 +3014,9 @@
       <c r="S36" s="4">
         <v>1681.2</v>
       </c>
+      <c r="T36" s="4">
+        <v>1683.9</v>
+      </c>
       <c r="AB36" s="4">
         <v>1600.7</v>
       </c>
@@ -2916,6 +3050,10 @@
         <f>16793-S34-S35-S36</f>
         <v>1633.6000000000006</v>
       </c>
+      <c r="T37" s="4">
+        <f>17566.2-T34-T35-T36</f>
+        <v>1592.1000000000008</v>
+      </c>
       <c r="AB37" s="4">
         <f>13811.8-AB34-AB35-AB36</f>
         <v>1812.5999999999997</v>
@@ -2953,6 +3091,10 @@
         <f>SUM(S30:S37)</f>
         <v>39541.099999999991</v>
       </c>
+      <c r="T38" s="6">
+        <f>SUM(T30:T37)</f>
+        <v>28983.9</v>
+      </c>
       <c r="AB38" s="6">
         <f>SUM(AB30:AB37)</f>
         <v>16200.400000000001</v>
@@ -2986,6 +3128,9 @@
       <c r="S39" s="4">
         <v>2770.4</v>
       </c>
+      <c r="T39" s="4">
+        <v>2639.3</v>
+      </c>
       <c r="AB39" s="4">
         <v>1779.4</v>
       </c>
@@ -3015,6 +3160,9 @@
       <c r="S40" s="4">
         <v>956.1</v>
       </c>
+      <c r="T40" s="4">
+        <v>922</v>
+      </c>
       <c r="AB40" s="4">
         <v>399.3</v>
       </c>
@@ -3044,6 +3192,9 @@
       <c r="S41" s="4">
         <v>209.1</v>
       </c>
+      <c r="T41" s="4">
+        <v>143.4</v>
+      </c>
       <c r="AB41" s="4">
         <v>50</v>
       </c>
@@ -3073,6 +3224,9 @@
       <c r="S42" s="4">
         <v>487.2</v>
       </c>
+      <c r="T42" s="4">
+        <v>380.2</v>
+      </c>
       <c r="AB42" s="4">
         <v>758.7</v>
       </c>
@@ -3102,6 +3256,9 @@
       <c r="S43" s="4">
         <v>905.6</v>
       </c>
+      <c r="T43" s="4">
+        <v>906.4</v>
+      </c>
       <c r="AB43" s="4">
         <v>482.4</v>
       </c>
@@ -3131,6 +3288,9 @@
       <c r="S44" s="4">
         <v>600</v>
       </c>
+      <c r="T44" s="4">
+        <v>586.70000000000005</v>
+      </c>
       <c r="AB44" s="4">
         <v>372.9</v>
       </c>
@@ -3164,6 +3324,10 @@
         <f>6198-S39-S40-S41-S42-S43-S44</f>
         <v>269.60000000000002</v>
       </c>
+      <c r="T45" s="4">
+        <f>5819.2-T39-T40-T41-T42-T43-T44</f>
+        <v>241.19999999999948</v>
+      </c>
       <c r="AB45" s="4">
         <f>3993.6-AB39-AB40-AB41-AB42-AB43-AB44</f>
         <v>150.89999999999986</v>
@@ -3197,6 +3361,9 @@
       <c r="S46" s="4">
         <v>2131.6</v>
       </c>
+      <c r="T46" s="4">
+        <v>2211.4</v>
+      </c>
       <c r="AB46" s="4">
         <v>4445.1000000000004</v>
       </c>
@@ -3226,6 +3393,9 @@
       <c r="S47" s="4">
         <v>1600.8</v>
       </c>
+      <c r="T47" s="4">
+        <v>1562.4</v>
+      </c>
       <c r="AB47" s="4">
         <v>710.9</v>
       </c>
@@ -3259,6 +3429,10 @@
         <f>4073.3-S47-S46</f>
         <v>340.90000000000009</v>
       </c>
+      <c r="T48" s="4">
+        <f>4118.7-T47-T46</f>
+        <v>344.89999999999964</v>
+      </c>
       <c r="AB48" s="4">
         <f>5586.2-AB47-AB46</f>
         <v>430.19999999999982</v>
@@ -3296,6 +3470,10 @@
         <f>SUM(S39:S48)</f>
         <v>10271.299999999999</v>
       </c>
+      <c r="T49" s="5">
+        <f>SUM(T39:T48)</f>
+        <v>9937.9</v>
+      </c>
       <c r="AB49" s="5">
         <f>SUM(AB39:AB48)</f>
         <v>9579.7999999999993</v>
@@ -3329,6 +3507,9 @@
       <c r="S50">
         <v>29269.7</v>
       </c>
+      <c r="T50">
+        <v>19046</v>
+      </c>
       <c r="AB50">
         <v>6620.6</v>
       </c>
@@ -3349,8 +3530,16 @@
       <c r="O53" s="6">
         <v>7723.4</v>
       </c>
+      <c r="P53" s="6">
+        <f>O77</f>
+        <v>11637.3</v>
+      </c>
       <c r="S53" s="6">
         <v>15236.1</v>
+      </c>
+      <c r="T53" s="6">
+        <f>S77</f>
+        <v>17688.900000000001</v>
       </c>
       <c r="AB53" s="6">
         <v>657.1</v>
@@ -3375,8 +3564,14 @@
       <c r="O54" s="4">
         <v>4171.3</v>
       </c>
+      <c r="P54">
+        <v>4482.8999999999996</v>
+      </c>
       <c r="S54" s="4">
         <v>1893.2</v>
+      </c>
+      <c r="T54">
+        <v>1005.2</v>
       </c>
       <c r="AB54" s="4">
         <v>373.4</v>
@@ -3398,8 +3593,14 @@
       <c r="O55" s="4">
         <v>16.600000000000001</v>
       </c>
+      <c r="P55">
+        <v>20.8</v>
+      </c>
       <c r="S55" s="4">
         <v>63.6</v>
+      </c>
+      <c r="T55">
+        <v>-1.8</v>
       </c>
       <c r="AB55" s="4">
         <v>42.9</v>
@@ -3421,8 +3622,14 @@
       <c r="O56" s="4">
         <v>31</v>
       </c>
+      <c r="P56">
+        <v>260.60000000000002</v>
+      </c>
       <c r="S56" s="4">
         <v>-58.3</v>
+      </c>
+      <c r="T56">
+        <v>-94.1</v>
       </c>
       <c r="AB56" s="4">
         <v>-1.6</v>
@@ -3444,8 +3651,14 @@
       <c r="O57" s="4">
         <v>48</v>
       </c>
+      <c r="P57">
+        <v>37</v>
+      </c>
       <c r="S57" s="4">
         <v>-151.69999999999999</v>
+      </c>
+      <c r="T57">
+        <v>-101.1</v>
       </c>
       <c r="AB57" s="4">
         <v>396.7</v>
@@ -3467,8 +3680,14 @@
       <c r="O58" s="4">
         <v>459.5</v>
       </c>
+      <c r="P58">
+        <v>475.8</v>
+      </c>
       <c r="S58" s="4">
         <v>470.5</v>
+      </c>
+      <c r="T58">
+        <v>467.3</v>
       </c>
       <c r="AB58" s="4">
         <v>1174.4000000000001</v>
@@ -3491,10 +3710,18 @@
         <f>-11.9-11.5-2.1</f>
         <v>-25.5</v>
       </c>
+      <c r="P59">
+        <f>-18.1-57.8-36.7</f>
+        <v>-112.60000000000001</v>
+      </c>
       <c r="S59" s="4">
         <f>-11-15.5-4</f>
         <v>-30.5</v>
       </c>
+      <c r="T59">
+        <f>-16.3-7.5+8.5</f>
+        <v>-15.3</v>
+      </c>
       <c r="AB59" s="4">
         <f>-18.5-35.7-0.8</f>
         <v>-55</v>
@@ -3519,8 +3746,14 @@
       <c r="O60" s="4">
         <v>-79.8</v>
       </c>
+      <c r="P60">
+        <v>-118</v>
+      </c>
       <c r="S60" s="4">
         <v>44.8</v>
+      </c>
+      <c r="T60">
+        <v>-11.5</v>
       </c>
       <c r="AB60" s="4">
         <v>-5.6</v>
@@ -3542,8 +3775,14 @@
       <c r="O61" s="4">
         <v>-335.4</v>
       </c>
+      <c r="P61">
+        <v>-318.3</v>
+      </c>
       <c r="S61" s="4">
         <v>560.70000000000005</v>
+      </c>
+      <c r="T61">
+        <v>298.10000000000002</v>
       </c>
       <c r="AB61" s="4">
         <v>-54</v>
@@ -3565,8 +3804,14 @@
       <c r="O62" s="4">
         <v>79.900000000000006</v>
       </c>
+      <c r="P62">
+        <v>-99.2</v>
+      </c>
       <c r="S62" s="4">
         <v>49.1</v>
+      </c>
+      <c r="T62">
+        <v>-97.2</v>
       </c>
       <c r="AB62" s="4">
         <v>69.8</v>
@@ -3588,8 +3833,14 @@
       <c r="O63" s="4">
         <v>130.4</v>
       </c>
+      <c r="P63">
+        <v>184.9</v>
+      </c>
       <c r="S63" s="4">
         <v>-248.1</v>
+      </c>
+      <c r="T63">
+        <v>-132.4</v>
       </c>
       <c r="AB63" s="4">
         <v>110.8</v>
@@ -3611,8 +3862,14 @@
       <c r="O64" s="4">
         <v>-8.4</v>
       </c>
+      <c r="P64">
+        <v>-8.3000000000000007</v>
+      </c>
       <c r="S64" s="4">
         <v>-26</v>
+      </c>
+      <c r="T64">
+        <v>-47.5</v>
       </c>
       <c r="AB64" s="4">
         <v>-29.4</v>
@@ -3637,10 +3894,18 @@
         <f>15.7-384.7</f>
         <v>-369</v>
       </c>
+      <c r="P65">
+        <f>-206.9+29.6</f>
+        <v>-177.3</v>
+      </c>
       <c r="S65" s="4">
         <f>24.8-218.7</f>
         <v>-193.89999999999998</v>
       </c>
+      <c r="T65">
+        <f>29.2-462.6</f>
+        <v>-433.40000000000003</v>
+      </c>
       <c r="AB65" s="4">
         <f>41.6-426.1</f>
         <v>-384.5</v>
@@ -3665,8 +3930,14 @@
       <c r="O66" s="4">
         <v>0</v>
       </c>
+      <c r="P66">
+        <v>-8</v>
+      </c>
       <c r="S66" s="4">
         <v>-0.7</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
       </c>
       <c r="AB66" s="4">
         <v>-4.7</v>
@@ -3688,10 +3959,16 @@
       <c r="O67" s="4">
         <v>0</v>
       </c>
+      <c r="P67">
+        <v>-166</v>
+      </c>
       <c r="S67" s="4">
         <f>5.3-265.6</f>
         <v>-260.3</v>
       </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
       <c r="AB67" s="4">
         <v>-10.6</v>
       </c>
@@ -3712,8 +3989,15 @@
       <c r="O68" s="4">
         <v>0</v>
       </c>
+      <c r="P68">
+        <v>50.8</v>
+      </c>
       <c r="S68" s="4">
         <v>909.8</v>
+      </c>
+      <c r="T68">
+        <f>-579.2+16.6</f>
+        <v>-562.6</v>
       </c>
       <c r="AB68" s="4">
         <v>0</v>
@@ -3737,8 +4021,14 @@
       <c r="O69" s="4">
         <v>3.3</v>
       </c>
+      <c r="P69">
+        <v>13.5</v>
+      </c>
       <c r="S69" s="4">
         <v>205</v>
+      </c>
+      <c r="T69">
+        <v>173.7</v>
       </c>
       <c r="AB69" s="4">
         <v>5.8</v>
@@ -3760,8 +4050,15 @@
       <c r="O70" s="4">
         <v>-1</v>
       </c>
+      <c r="P70">
+        <v>-6159.3</v>
+      </c>
       <c r="S70" s="4">
         <v>0</v>
+      </c>
+      <c r="T70">
+        <f>15-11083.4</f>
+        <v>-11068.4</v>
       </c>
       <c r="AB70" s="4">
         <f>30.2-39.5</f>
@@ -3786,8 +4083,16 @@
         <f>0.2-112.7</f>
         <v>-112.5</v>
       </c>
+      <c r="P71">
+        <f>-143.1-0.1</f>
+        <v>-143.19999999999999</v>
+      </c>
       <c r="S71" s="4">
         <v>-121.7</v>
+      </c>
+      <c r="T71">
+        <f>143.8-168.5</f>
+        <v>-24.699999999999989</v>
       </c>
       <c r="AB71" s="4">
         <f>924.3-1733.2</f>
@@ -3813,8 +4118,14 @@
       <c r="O72" s="4">
         <v>-239.1</v>
       </c>
+      <c r="P72">
+        <v>-268.7</v>
+      </c>
       <c r="S72" s="4">
         <v>-244</v>
+      </c>
+      <c r="T72">
+        <v>-249.7</v>
       </c>
       <c r="AB72" s="4">
         <f>-456.7-18.1</f>
@@ -3838,8 +4149,14 @@
       <c r="O73" s="4">
         <v>-45.1</v>
       </c>
+      <c r="P73">
+        <v>-50.7</v>
+      </c>
       <c r="S73" s="4">
         <v>-51.8</v>
+      </c>
+      <c r="T73">
+        <v>-58.7</v>
       </c>
       <c r="AB73" s="4">
         <v>-397.3</v>
@@ -3862,8 +4179,14 @@
       <c r="O74" s="4">
         <v>-2.2999999999999998</v>
       </c>
+      <c r="P74">
+        <v>-266.10000000000002</v>
+      </c>
       <c r="S74" s="4">
         <v>-43.3</v>
+      </c>
+      <c r="T74">
+        <v>200</v>
       </c>
       <c r="AB74" s="4">
         <f>-103.7+6.6</f>
@@ -3889,10 +4212,18 @@
         <f>SUM(O54:O74)</f>
         <v>3721.9000000000005</v>
       </c>
+      <c r="P75" s="6">
+        <f>SUM(P54:P74)</f>
+        <v>-2369.4000000000005</v>
+      </c>
       <c r="S75" s="6">
         <f>SUM(S54:S74)</f>
         <v>2766.3999999999996</v>
       </c>
+      <c r="T75" s="6">
+        <f>SUM(T54:T74)</f>
+        <v>-10754.100000000002</v>
+      </c>
       <c r="V75" s="5" t="s">
         <v>60</v>
       </c>
@@ -3920,8 +4251,14 @@
       <c r="O76" s="4">
         <v>192</v>
       </c>
+      <c r="P76">
+        <v>732.4</v>
+      </c>
       <c r="S76" s="4">
         <v>-313.60000000000002</v>
+      </c>
+      <c r="T76">
+        <v>-143.80000000000001</v>
       </c>
       <c r="AB76" s="4">
         <v>13.4</v>
@@ -3944,9 +4281,17 @@
         <f>O53+SUM(O54:O74)+O76</f>
         <v>11637.3</v>
       </c>
+      <c r="P77" s="6">
+        <f>P53+SUM(P54:P74)+P76</f>
+        <v>10000.299999999997</v>
+      </c>
       <c r="S77" s="6">
         <f>S53+SUM(S54:S74)+S76</f>
         <v>17688.900000000001</v>
+      </c>
+      <c r="T77" s="6">
+        <f>T53+SUM(T54:T74)+T76</f>
+        <v>6790.9999999999991</v>
       </c>
       <c r="AB77" s="6">
         <f>AB53+SUM(AB54:AB74)+AB76</f>
@@ -3979,14 +4324,203 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84A155F-28DD-4056-ABE3-FB6172E07486}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="5">
+        <v>253</v>
+      </c>
+      <c r="J3" s="5">
+        <v>251</v>
+      </c>
+      <c r="L3" s="5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4">
+        <v>119</v>
+      </c>
+      <c r="J4">
+        <v>121</v>
+      </c>
+      <c r="L4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5">
+        <v>134</v>
+      </c>
+      <c r="J5">
+        <v>130</v>
+      </c>
+      <c r="L5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6">
+        <v>1771</v>
+      </c>
+      <c r="J6">
+        <v>1797</v>
+      </c>
+      <c r="L6">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7">
+        <v>3030</v>
+      </c>
+      <c r="J7">
+        <v>2972</v>
+      </c>
+      <c r="L7">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8">
+        <v>2935</v>
+      </c>
+      <c r="L8">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9">
+        <v>3024</v>
+      </c>
+      <c r="L9">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="5">
+        <f>SUM(H14:H16)</f>
+        <v>14321</v>
+      </c>
+      <c r="I13" s="5">
+        <f>SUM(I14:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <f>SUM(J14:J16)</f>
+        <v>14248</v>
+      </c>
+      <c r="K13" s="5">
+        <f>SUM(K14:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <f>SUM(L14:L16)</f>
+        <v>13849</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14">
+        <v>1868</v>
+      </c>
+      <c r="J14">
+        <v>1704</v>
+      </c>
+      <c r="L14">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15">
+        <v>12240</v>
+      </c>
+      <c r="J15">
+        <v>12316</v>
+      </c>
+      <c r="L15">
+        <v>12429</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16">
+        <v>213</v>
+      </c>
+      <c r="J16">
+        <v>228</v>
+      </c>
+      <c r="L16">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Shipping & Transportation/HLAG.xlsx
+++ b/Shipping & Transportation/HLAG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5435395-F0F2-4C06-9AF1-5D0BCCFDADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC421CEE-DE7E-439B-BA68-5DDCDEDB9A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,11 +925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57156153-6B21-4ABE-A4F3-DEC182919BBB}">
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46:XFD46"/>
+      <selection pane="bottomRight" activeCell="X71" sqref="X71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1085,9 @@
       <c r="T3" s="4">
         <v>4417.1000000000004</v>
       </c>
+      <c r="U3" s="4">
+        <v>4099.3</v>
+      </c>
       <c r="AB3" s="4">
         <v>12607.9</v>
       </c>
@@ -1160,6 +1163,9 @@
       <c r="T4" s="4">
         <v>2818.2</v>
       </c>
+      <c r="U4" s="4">
+        <v>3036.3</v>
+      </c>
       <c r="AB4" s="4">
         <v>9707</v>
       </c>
@@ -1235,6 +1241,9 @@
       <c r="T5" s="4">
         <v>234.3</v>
       </c>
+      <c r="U5" s="4">
+        <v>269.3</v>
+      </c>
       <c r="AB5" s="4">
         <v>682.5</v>
       </c>
@@ -1310,6 +1319,9 @@
       <c r="T6" s="4">
         <v>467.3</v>
       </c>
+      <c r="U6" s="4">
+        <v>474.4</v>
+      </c>
       <c r="AB6" s="4">
         <v>1174.4000000000001</v>
       </c>
@@ -1385,6 +1397,9 @@
       <c r="T7" s="4">
         <v>-96.5</v>
       </c>
+      <c r="U7" s="4">
+        <v>-113.6</v>
+      </c>
       <c r="AB7" s="4">
         <v>-268.8</v>
       </c>
@@ -1427,7 +1442,7 @@
         <v>345.19999999999982</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" ref="I8:T8" si="2">I3-I4-I5-I6+I7</f>
+        <f t="shared" ref="I8:U8" si="2">I3-I4-I5-I6+I7</f>
         <v>337.7999999999999</v>
       </c>
       <c r="J8" s="6">
@@ -1474,6 +1489,10 @@
         <f t="shared" si="2"/>
         <v>800.80000000000064</v>
       </c>
+      <c r="U8" s="6">
+        <f t="shared" si="2"/>
+        <v>205.70000000000007</v>
+      </c>
       <c r="AB8" s="6">
         <f>AB3-AB4-AB5-AB6+AB7</f>
         <v>775.19999999999959</v>
@@ -1561,6 +1580,10 @@
         <f>5.3+2.2</f>
         <v>7.5</v>
       </c>
+      <c r="U9">
+        <f>-1.2-0.1</f>
+        <v>-1.3</v>
+      </c>
       <c r="AB9" s="4">
         <f>35.5+0.7</f>
         <v>36.200000000000003</v>
@@ -1582,11 +1605,11 @@
         <v>39</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" ref="C10:T10" si="3">C8+C9+C6</f>
+        <f>C8+C9+C6</f>
         <v>489.20000000000005</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C10:U10" si="3">D8+D9+D6</f>
         <v>466.79999999999973</v>
       </c>
       <c r="E10" s="6">
@@ -1653,6 +1676,10 @@
         <f t="shared" si="3"/>
         <v>1275.6000000000006</v>
       </c>
+      <c r="U10" s="6">
+        <f t="shared" si="3"/>
+        <v>678.80000000000007</v>
+      </c>
       <c r="AB10" s="6">
         <f>AB8+AB9+AB6</f>
         <v>1985.7999999999997</v>
@@ -1675,11 +1702,11 @@
         <v>33</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" ref="C11:T11" si="4">C8+C9</f>
+        <f>C8+C9</f>
         <v>213.60000000000002</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C11:U11" si="4">D8+D9</f>
         <v>175.59999999999971</v>
       </c>
       <c r="E11" s="6">
@@ -1746,6 +1773,10 @@
         <f t="shared" si="4"/>
         <v>808.30000000000064</v>
       </c>
+      <c r="U11" s="6">
+        <f t="shared" si="4"/>
+        <v>204.40000000000006</v>
+      </c>
       <c r="AB11" s="6">
         <f>AB8+AB9</f>
         <v>811.39999999999964</v>
@@ -1836,6 +1867,9 @@
       <c r="T12">
         <v>101.1</v>
       </c>
+      <c r="U12">
+        <v>48.4</v>
+      </c>
       <c r="AB12" s="4">
         <v>-396.7</v>
       </c>
@@ -1912,6 +1946,9 @@
       <c r="T13" s="4">
         <v>94.1</v>
       </c>
+      <c r="U13" s="4">
+        <v>1.7</v>
+      </c>
       <c r="AB13" s="4">
         <v>1.6</v>
       </c>
@@ -1987,6 +2024,9 @@
       <c r="T14" s="4">
         <v>-1.8</v>
       </c>
+      <c r="U14" s="4">
+        <v>-9.3000000000000007</v>
+      </c>
       <c r="AB14" s="4">
         <v>42.9</v>
       </c>
@@ -2005,7 +2045,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ref="C15:T15" si="5">C11+C12+C13-C14</f>
+        <f t="shared" ref="C15:U15" si="5">C11+C12+C13-C14</f>
         <v>96.200000000000031</v>
       </c>
       <c r="D15" s="6">
@@ -2076,6 +2116,10 @@
         <f t="shared" si="5"/>
         <v>1005.3000000000006</v>
       </c>
+      <c r="U15" s="6">
+        <f t="shared" si="5"/>
+        <v>263.80000000000007</v>
+      </c>
       <c r="AB15" s="6">
         <f>AB11+AB12+AB13-AB14</f>
         <v>373.39999999999969</v>
@@ -2165,6 +2209,10 @@
         <f>T15/T17</f>
         <v>176.05954465849399</v>
       </c>
+      <c r="U16" s="4">
+        <f>U15/U17</f>
+        <v>179.45578231292521</v>
+      </c>
       <c r="AB16" s="4">
         <v>176</v>
       </c>
@@ -2240,6 +2288,9 @@
       </c>
       <c r="T17" s="3">
         <v>5.71</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1.47</v>
       </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3">
@@ -2263,7 +2314,7 @@
         <v>82</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" ref="K19:T19" si="6">1-K4/K3</f>
+        <f t="shared" ref="K19:U19" si="6">1-K4/K3</f>
         <v>0.44180557604366422</v>
       </c>
       <c r="L19" s="7">
@@ -2302,6 +2353,10 @@
         <f t="shared" si="6"/>
         <v>0.36197957936202496</v>
       </c>
+      <c r="U19" s="7">
+        <f t="shared" si="6"/>
+        <v>0.25931256555997362</v>
+      </c>
       <c r="AB19" s="7">
         <f>1-AB4/AB3</f>
         <v>0.23008589852394135</v>
@@ -2340,7 +2395,7 @@
         <v>0.15208906519930865</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:T20" si="8">G10/G3</f>
+        <f t="shared" ref="G20:U20" si="8">G10/G3</f>
         <v>0.1403702928244549</v>
       </c>
       <c r="H20" s="7">
@@ -2395,6 +2450,10 @@
         <f t="shared" si="8"/>
         <v>0.28878676054424862</v>
       </c>
+      <c r="U20" s="7">
+        <f t="shared" si="8"/>
+        <v>0.16558924694460031</v>
+      </c>
       <c r="AB20" s="7">
         <f>AB10/AB3</f>
         <v>0.15750442183075689</v>
@@ -2433,7 +2492,7 @@
         <v>5.3970183632989575E-2</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ref="G21:T21" si="10">G11/G3</f>
+        <f t="shared" ref="G21:U21" si="10">G11/G3</f>
         <v>4.7767176143331466E-2</v>
       </c>
       <c r="H21" s="7">
@@ -2488,6 +2547,10 @@
         <f t="shared" si="10"/>
         <v>0.18299336668855143</v>
       </c>
+      <c r="U21" s="7">
+        <f t="shared" si="10"/>
+        <v>4.9862171590271523E-2</v>
+      </c>
       <c r="AB21" s="7">
         <f>AB11/AB3</f>
         <v>6.4356474908589034E-2</v>
@@ -2542,7 +2605,7 @@
         <v>2.6170105686965362E-2</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ref="K22:T22" si="12">K14/K15</f>
+        <f t="shared" ref="K22:U22" si="12">K14/K15</f>
         <v>9.1384896568912511E-3</v>
       </c>
       <c r="L22" s="8">
@@ -2581,6 +2644,10 @@
         <f t="shared" si="12"/>
         <v>-1.7905102954341977E-3</v>
       </c>
+      <c r="U22" s="8">
+        <f t="shared" si="12"/>
+        <v>-3.5253980288097037E-2</v>
+      </c>
       <c r="AB22" s="8">
         <f>AB14/AB15</f>
         <v>0.11489019817889672</v>
@@ -2657,6 +2724,10 @@
       <c r="T23" s="7">
         <f>T3/P3-1</f>
         <v>-0.50885093513020652</v>
+      </c>
+      <c r="U23" s="7">
+        <f>U3/Q3-1</f>
+        <v>-0.57917915657208563</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7">
@@ -2731,6 +2802,10 @@
       <c r="T24" s="7">
         <f>T11/P11-1</f>
         <v>-0.83164625510289081</v>
+      </c>
+      <c r="U24" s="7">
+        <f>U11/Q11-1</f>
+        <v>-0.96034917555771093</v>
       </c>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7">
@@ -2776,6 +2851,10 @@
         <f>T30-T46-T42</f>
         <v>4200.0000000000009</v>
       </c>
+      <c r="U29" s="6">
+        <f>U30-U46-U42</f>
+        <v>3413.6</v>
+      </c>
       <c r="AA29" s="6">
         <f>AA30-AA46-AA42</f>
         <v>0</v>
@@ -2816,6 +2895,9 @@
       <c r="T30" s="4">
         <v>6791.6</v>
       </c>
+      <c r="U30" s="4">
+        <v>6357.9</v>
+      </c>
       <c r="AB30" s="4">
         <v>511.6</v>
       </c>
@@ -2848,6 +2930,9 @@
       <c r="T31" s="4">
         <v>1952.8</v>
       </c>
+      <c r="U31" s="4">
+        <v>1822.5</v>
+      </c>
       <c r="AB31" s="4">
         <v>1239.8</v>
       </c>
@@ -2880,6 +2965,9 @@
       <c r="T32" s="4">
         <v>399.5</v>
       </c>
+      <c r="U32" s="4">
+        <v>452.2</v>
+      </c>
       <c r="AB32" s="4">
         <v>248.5</v>
       </c>
@@ -2917,6 +3005,10 @@
         <f>2055.5+184.9+9.5+8.2+15.7</f>
         <v>2273.7999999999997</v>
       </c>
+      <c r="U33">
+        <f>2153.8+223.4+8.6+32.9+5.2</f>
+        <v>2423.9</v>
+      </c>
       <c r="AB33" s="4">
         <f>2388.6-AB30-AB31-AB32</f>
         <v>388.70000000000005</v>
@@ -2953,6 +3045,9 @@
       <c r="T34" s="4">
         <v>13077.9</v>
       </c>
+      <c r="U34" s="4">
+        <v>14041.9</v>
+      </c>
       <c r="AB34" s="4">
         <v>10064.9</v>
       </c>
@@ -2985,6 +3080,9 @@
       <c r="T35" s="4">
         <v>1212.3</v>
       </c>
+      <c r="U35" s="4">
+        <v>1404.9</v>
+      </c>
       <c r="AB35" s="4">
         <v>333.6</v>
       </c>
@@ -3017,6 +3115,9 @@
       <c r="T36" s="4">
         <v>1683.9</v>
       </c>
+      <c r="U36" s="4">
+        <v>2009.3</v>
+      </c>
       <c r="AB36" s="4">
         <v>1600.7</v>
       </c>
@@ -3054,6 +3155,10 @@
         <f>17566.2-T34-T35-T36</f>
         <v>1592.1000000000008</v>
       </c>
+      <c r="U37" s="4">
+        <f>19414.9-U36-U35-U34</f>
+        <v>1958.8000000000029</v>
+      </c>
       <c r="AB37" s="4">
         <f>13811.8-AB34-AB35-AB36</f>
         <v>1812.5999999999997</v>
@@ -3095,6 +3200,10 @@
         <f>SUM(T30:T37)</f>
         <v>28983.9</v>
       </c>
+      <c r="U38" s="6">
+        <f>SUM(U30:U37)</f>
+        <v>30471.400000000005</v>
+      </c>
       <c r="AB38" s="6">
         <f>SUM(AB30:AB37)</f>
         <v>16200.400000000001</v>
@@ -3131,6 +3240,9 @@
       <c r="T39" s="4">
         <v>2639.3</v>
       </c>
+      <c r="U39" s="4">
+        <v>2647.2</v>
+      </c>
       <c r="AB39" s="4">
         <v>1779.4</v>
       </c>
@@ -3163,6 +3275,9 @@
       <c r="T40" s="4">
         <v>922</v>
       </c>
+      <c r="U40" s="4">
+        <v>1061.5</v>
+      </c>
       <c r="AB40" s="4">
         <v>399.3</v>
       </c>
@@ -3195,6 +3310,9 @@
       <c r="T41" s="4">
         <v>143.4</v>
       </c>
+      <c r="U41" s="4">
+        <v>218.3</v>
+      </c>
       <c r="AB41" s="4">
         <v>50</v>
       </c>
@@ -3227,6 +3345,9 @@
       <c r="T42" s="4">
         <v>380.2</v>
       </c>
+      <c r="U42" s="4">
+        <v>451.2</v>
+      </c>
       <c r="AB42" s="4">
         <v>758.7</v>
       </c>
@@ -3259,6 +3380,9 @@
       <c r="T43" s="4">
         <v>906.4</v>
       </c>
+      <c r="U43" s="4">
+        <v>909.7</v>
+      </c>
       <c r="AB43" s="4">
         <v>482.4</v>
       </c>
@@ -3291,6 +3415,9 @@
       <c r="T44" s="4">
         <v>586.70000000000005</v>
       </c>
+      <c r="U44" s="4">
+        <v>503.1</v>
+      </c>
       <c r="AB44" s="4">
         <v>372.9</v>
       </c>
@@ -3328,6 +3455,10 @@
         <f>5819.2-T39-T40-T41-T42-T43-T44</f>
         <v>241.19999999999948</v>
       </c>
+      <c r="U45" s="4">
+        <f>6061.8-U44-U43-U42-U41-U40-U39</f>
+        <v>270.80000000000018</v>
+      </c>
       <c r="AB45" s="4">
         <f>3993.6-AB39-AB40-AB41-AB42-AB43-AB44</f>
         <v>150.89999999999986</v>
@@ -3364,6 +3495,9 @@
       <c r="T46" s="4">
         <v>2211.4</v>
       </c>
+      <c r="U46" s="4">
+        <v>2493.1</v>
+      </c>
       <c r="AB46" s="4">
         <v>4445.1000000000004</v>
       </c>
@@ -3396,6 +3530,9 @@
       <c r="T47" s="4">
         <v>1562.4</v>
       </c>
+      <c r="U47" s="4">
+        <v>1608.5</v>
+      </c>
       <c r="AB47" s="4">
         <v>710.9</v>
       </c>
@@ -3433,6 +3570,10 @@
         <f>4118.7-T47-T46</f>
         <v>344.89999999999964</v>
       </c>
+      <c r="U48" s="4">
+        <f>4599.5-U47-U46</f>
+        <v>497.90000000000009</v>
+      </c>
       <c r="AB48" s="4">
         <f>5586.2-AB47-AB46</f>
         <v>430.19999999999982</v>
@@ -3474,6 +3615,10 @@
         <f>SUM(T39:T48)</f>
         <v>9937.9</v>
       </c>
+      <c r="U49" s="5">
+        <f>SUM(U39:U48)</f>
+        <v>10661.3</v>
+      </c>
       <c r="AB49" s="5">
         <f>SUM(AB39:AB48)</f>
         <v>9579.7999999999993</v>
@@ -3510,6 +3655,9 @@
       <c r="T50">
         <v>19046</v>
       </c>
+      <c r="U50">
+        <v>19810.099999999999</v>
+      </c>
       <c r="AB50">
         <v>6620.6</v>
       </c>
@@ -3534,6 +3682,10 @@
         <f>O77</f>
         <v>11637.3</v>
       </c>
+      <c r="Q53" s="6">
+        <f>P77</f>
+        <v>10000.299999999997</v>
+      </c>
       <c r="S53" s="6">
         <v>15236.1</v>
       </c>
@@ -3541,6 +3693,10 @@
         <f>S77</f>
         <v>17688.900000000001</v>
       </c>
+      <c r="U53" s="6">
+        <f>T77</f>
+        <v>6790.9999999999991</v>
+      </c>
       <c r="AB53" s="6">
         <v>657.1</v>
       </c>
@@ -3567,6 +3723,9 @@
       <c r="P54">
         <v>4482.8999999999996</v>
       </c>
+      <c r="Q54">
+        <v>5119.6000000000004</v>
+      </c>
       <c r="S54" s="4">
         <v>1893.2</v>
       </c>
@@ -3596,6 +3755,9 @@
       <c r="P55">
         <v>20.8</v>
       </c>
+      <c r="Q55">
+        <v>39.6</v>
+      </c>
       <c r="S55" s="4">
         <v>63.6</v>
       </c>
@@ -3625,6 +3787,9 @@
       <c r="P56">
         <v>260.60000000000002</v>
       </c>
+      <c r="Q56">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="S56" s="4">
         <v>-58.3</v>
       </c>
@@ -3654,6 +3819,9 @@
       <c r="P57">
         <v>37</v>
       </c>
+      <c r="Q57">
+        <v>-8.4</v>
+      </c>
       <c r="S57" s="4">
         <v>-151.69999999999999</v>
       </c>
@@ -3683,6 +3851,9 @@
       <c r="P58">
         <v>475.8</v>
       </c>
+      <c r="Q58">
+        <v>479.3</v>
+      </c>
       <c r="S58" s="4">
         <v>470.5</v>
       </c>
@@ -3714,6 +3885,10 @@
         <f>-18.1-57.8-36.7</f>
         <v>-112.60000000000001</v>
       </c>
+      <c r="Q59">
+        <f>-19.4-12-18.3</f>
+        <v>-49.7</v>
+      </c>
       <c r="S59" s="4">
         <f>-11-15.5-4</f>
         <v>-30.5</v>
@@ -3749,6 +3924,9 @@
       <c r="P60">
         <v>-118</v>
       </c>
+      <c r="Q60">
+        <v>37.299999999999997</v>
+      </c>
       <c r="S60" s="4">
         <v>44.8</v>
       </c>
@@ -3778,6 +3956,9 @@
       <c r="P61">
         <v>-318.3</v>
       </c>
+      <c r="Q61">
+        <v>100.9</v>
+      </c>
       <c r="S61" s="4">
         <v>560.70000000000005</v>
       </c>
@@ -3807,6 +3988,9 @@
       <c r="P62">
         <v>-99.2</v>
       </c>
+      <c r="Q62">
+        <v>79.7</v>
+      </c>
       <c r="S62" s="4">
         <v>49.1</v>
       </c>
@@ -3836,6 +4020,9 @@
       <c r="P63">
         <v>184.9</v>
       </c>
+      <c r="Q63">
+        <v>-191.3</v>
+      </c>
       <c r="S63" s="4">
         <v>-248.1</v>
       </c>
@@ -3865,6 +4052,9 @@
       <c r="P64">
         <v>-8.3000000000000007</v>
       </c>
+      <c r="Q64">
+        <v>-1.6</v>
+      </c>
       <c r="S64" s="4">
         <v>-26</v>
       </c>
@@ -4216,6 +4406,10 @@
         <f>SUM(P54:P74)</f>
         <v>-2369.4000000000005</v>
       </c>
+      <c r="Q75" s="6">
+        <f>SUM(Q54:Q74)</f>
+        <v>5609.5000000000009</v>
+      </c>
       <c r="S75" s="6">
         <f>SUM(S54:S74)</f>
         <v>2766.3999999999996</v>
@@ -4224,6 +4418,10 @@
         <f>SUM(T54:T74)</f>
         <v>-10754.100000000002</v>
       </c>
+      <c r="U75" s="6">
+        <f>SUM(U54:U74)</f>
+        <v>0</v>
+      </c>
       <c r="V75" s="5" t="s">
         <v>60</v>
       </c>
@@ -4285,12 +4483,20 @@
         <f>P53+SUM(P54:P74)+P76</f>
         <v>10000.299999999997</v>
       </c>
+      <c r="Q77" s="6">
+        <f>Q53+SUM(Q54:Q74)+Q76</f>
+        <v>15609.8</v>
+      </c>
       <c r="S77" s="6">
         <f>S53+SUM(S54:S74)+S76</f>
         <v>17688.900000000001</v>
       </c>
       <c r="T77" s="6">
         <f>T53+SUM(T54:T74)+T76</f>
+        <v>6790.9999999999991</v>
+      </c>
+      <c r="U77" s="6">
+        <f>U53+SUM(U54:U74)+U76</f>
         <v>6790.9999999999991</v>
       </c>
       <c r="AB77" s="6">

--- a/Shipping & Transportation/HLAG.xlsx
+++ b/Shipping & Transportation/HLAG.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC421CEE-DE7E-439B-BA68-5DDCDEDB9A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB17E0-E7B5-45EF-B63B-210B4F1B6FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="KPIs" sheetId="4" r:id="rId3"/>
+    <sheet name="Key Figures" sheetId="4" r:id="rId3"/>
     <sheet name="Shanghai Container Index" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
   <si>
     <t>Price</t>
   </si>
@@ -371,13 +371,55 @@
     <t>Employees</t>
   </si>
   <si>
-    <t>Marine</t>
-  </si>
-  <si>
-    <t>Shore-based</t>
-  </si>
-  <si>
-    <t>Apprentices</t>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Group Profit</t>
+  </si>
+  <si>
+    <t>Liner Shipment Segment</t>
+  </si>
+  <si>
+    <t>Terminal &amp; Infrastructure Segments</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>Shipment Dominance EBIT</t>
+  </si>
+  <si>
+    <t>Terminal Revenue Grwoth</t>
+  </si>
+  <si>
+    <t>Freightrate y/y</t>
+  </si>
+  <si>
+    <t>Linear Shipping</t>
+  </si>
+  <si>
+    <t>therof Marine</t>
+  </si>
+  <si>
+    <t>Terminal &amp; Infrastructure</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -387,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +453,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -426,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -434,12 +506,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -452,10 +534,33 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>185.8</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -757,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -766,7 +871,7 @@
       </c>
       <c r="L5" s="4">
         <f>L3*L4</f>
-        <v>32700.800000000003</v>
+        <v>21983.4</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -774,8 +879,8 @@
         <v>3</v>
       </c>
       <c r="L6" s="4">
-        <f>Model!T30</f>
-        <v>6791.6</v>
+        <f>Model!V30</f>
+        <v>5809.8</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -783,8 +888,8 @@
         <v>4</v>
       </c>
       <c r="L7" s="4">
-        <f>-Model!T46-Model!T42</f>
-        <v>-2591.6</v>
+        <f>-Model!V46-Model!V42</f>
+        <v>-2770.1</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -793,7 +898,7 @@
       </c>
       <c r="L8" s="4">
         <f>L6+L7</f>
-        <v>4200</v>
+        <v>3039.7000000000003</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -801,8 +906,8 @@
         <v>6</v>
       </c>
       <c r="L9" s="4">
-        <f>L5+L6+L7</f>
-        <v>36900.800000000003</v>
+        <f>L5-L7-L6</f>
+        <v>18943.7</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -923,27 +1028,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57156153-6B21-4ABE-A4F3-DEC182919BBB}">
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X71" sqref="X71"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="13"/>
+    <col min="32" max="32" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1001,8 +1108,14 @@
       <c r="U2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="14" t="s">
         <v>28</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AA2">
         <v>2018</v>
@@ -1019,11 +1132,17 @@
       <c r="AE2">
         <v>2022</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="13">
         <v>2023</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2">
+        <v>2024</v>
+      </c>
+      <c r="AH2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -1088,6 +1207,16 @@
       <c r="U3" s="4">
         <v>4099.3</v>
       </c>
+      <c r="V3" s="15">
+        <f>AF3-U3-T3-S3</f>
+        <v>3794.1000000000004</v>
+      </c>
+      <c r="W3" s="21">
+        <v>4120</v>
+      </c>
+      <c r="X3" s="21">
+        <v>4100</v>
+      </c>
       <c r="AB3" s="4">
         <v>12607.9</v>
       </c>
@@ -1100,8 +1229,17 @@
       <c r="AE3" s="4">
         <v>34542.699999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF3" s="15">
+        <v>17929.5</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>15630</v>
+      </c>
+      <c r="AH3" s="24">
+        <v>15690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -1166,6 +1304,10 @@
       <c r="U4" s="4">
         <v>3036.3</v>
       </c>
+      <c r="V4" s="15">
+        <f t="shared" ref="V4:V9" si="0">AF4-U4-T4-S4</f>
+        <v>3036.1999999999989</v>
+      </c>
       <c r="AB4" s="4">
         <v>9707</v>
       </c>
@@ -1178,8 +1320,13 @@
       <c r="AE4" s="4">
         <v>13730.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF4" s="15">
+        <v>11928.9</v>
+      </c>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -1244,6 +1391,10 @@
       <c r="U5" s="4">
         <v>269.3</v>
       </c>
+      <c r="V5" s="15">
+        <f t="shared" si="0"/>
+        <v>284.70000000000016</v>
+      </c>
       <c r="AB5" s="4">
         <v>682.5</v>
       </c>
@@ -1256,8 +1407,13 @@
       <c r="AE5" s="4">
         <v>982</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF5" s="15">
+        <v>1029.7</v>
+      </c>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -1322,6 +1478,10 @@
       <c r="U6" s="4">
         <v>474.4</v>
       </c>
+      <c r="V6" s="15">
+        <f t="shared" si="0"/>
+        <v>517.10000000000014</v>
+      </c>
       <c r="AB6" s="4">
         <v>1174.4000000000001</v>
       </c>
@@ -1334,8 +1494,13 @@
       <c r="AE6" s="4">
         <v>1904.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF6" s="15">
+        <v>1929.3</v>
+      </c>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -1400,6 +1565,10 @@
       <c r="U7" s="4">
         <v>-113.6</v>
       </c>
+      <c r="V7" s="15">
+        <f t="shared" si="0"/>
+        <v>-178.50000000000003</v>
+      </c>
       <c r="AB7" s="4">
         <v>-268.8</v>
       </c>
@@ -1412,86 +1581,95 @@
       <c r="AE7" s="4">
         <v>-491.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF7" s="15">
+        <v>-526.20000000000005</v>
+      </c>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+    </row>
+    <row r="8" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" ref="C8:E8" si="0">C3-C4-C5-C6+C7</f>
+        <f t="shared" ref="C8:E8" si="1">C3-C4-C5-C6+C7</f>
         <v>205.00000000000003</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>166.49999999999972</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>242.19999999999993</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:H8" si="1">F3-F4-F5-F6+F7</f>
+        <f t="shared" ref="F8:H8" si="2">F3-F4-F5-F6+F7</f>
         <v>161.49999999999878</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150.7000000000001</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345.19999999999982</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" ref="I8:U8" si="2">I3-I4-I5-I6+I7</f>
+        <f t="shared" ref="I8:V8" si="3">I3-I4-I5-I6+I7</f>
         <v>337.7999999999999</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450.59999999999866</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1275.9000000000001</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1605.5</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2899.2</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3581.7000000000016</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4255.5000000000009</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4739.7</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5146.7000000000007</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3292.5999999999949</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1731.3000000000002</v>
       </c>
       <c r="T8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800.80000000000064</v>
       </c>
       <c r="U8" s="6">
-        <f t="shared" si="2"/>
+        <f>U3-U4-U5-U6+U7</f>
         <v>205.70000000000007</v>
+      </c>
+      <c r="V8" s="16">
+        <f>V3-V4-V5-V6+V7</f>
+        <v>-222.39999999999887</v>
       </c>
       <c r="AB8" s="6">
         <f>AB3-AB4-AB5-AB6+AB7</f>
@@ -1509,8 +1687,14 @@
         <f>AE3-AE4-AE5-AE6+AE7</f>
         <v>17434.499999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF8" s="16">
+        <f>AF3-AF4-AF5-AF6+AF7</f>
+        <v>2515.4000000000005</v>
+      </c>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1584,6 +1768,10 @@
         <f>-1.2-0.1</f>
         <v>-1.3</v>
       </c>
+      <c r="V9" s="15">
+        <f t="shared" si="0"/>
+        <v>-5.5999999999999979</v>
+      </c>
       <c r="AB9" s="4">
         <f>35.5+0.7</f>
         <v>36.200000000000003</v>
@@ -1599,8 +1787,14 @@
       <c r="AE9" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF9" s="13">
+        <f>13.9+2.2</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+    </row>
+    <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1609,76 +1803,80 @@
         <v>489.20000000000005</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" ref="C10:U10" si="3">D8+D9+D6</f>
+        <f t="shared" ref="D10:V10" si="4">D8+D9+D6</f>
         <v>466.79999999999973</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>554.39999999999986</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>475.39999999999895</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>469.30000000000013</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>699.39999999999986</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>649.09999999999991</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>882.59999999999854</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1584.1</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1933.4</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3304.7999999999997</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4030.4000000000015</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4726.5000000000009</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5277</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5634.3000000000011</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3790.8999999999951</v>
       </c>
       <c r="S10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2217.3000000000002</v>
       </c>
       <c r="T10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1275.6000000000006</v>
       </c>
       <c r="U10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.80000000000007</v>
+      </c>
+      <c r="V10" s="16">
+        <f t="shared" si="4"/>
+        <v>289.10000000000127</v>
       </c>
       <c r="AB10" s="6">
         <f>AB8+AB9+AB6</f>
@@ -1696,8 +1894,14 @@
         <f>AE8+AE9+AE6</f>
         <v>19428.699999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF10" s="16">
+        <f>AF8+AF9+AF6</f>
+        <v>4460.8</v>
+      </c>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+    </row>
+    <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1706,76 +1910,80 @@
         <v>213.60000000000002</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" ref="C11:U11" si="4">D8+D9</f>
+        <f t="shared" ref="D11:V11" si="5">D8+D9</f>
         <v>175.59999999999971</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>253.49999999999994</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>168.69999999999879</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>159.7000000000001</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>351.5999999999998</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>346.99999999999989</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>456.89999999999867</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1277.2</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1616.2</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2905.2999999999997</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3591.2000000000016</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4267.0000000000009</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4801.2</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5155.0000000000009</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3301.2999999999947</v>
       </c>
       <c r="S11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1746.8000000000002</v>
       </c>
       <c r="T11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>808.30000000000064</v>
       </c>
       <c r="U11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>204.40000000000006</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="5"/>
+        <v>-227.99999999999886</v>
       </c>
       <c r="AB11" s="6">
         <f>AB8+AB9</f>
@@ -1793,8 +2001,18 @@
         <f>AE8+AE9</f>
         <v>17524.499999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF11" s="16">
+        <f>AF8+AF9</f>
+        <v>2531.5000000000005</v>
+      </c>
+      <c r="AG11" s="26">
+        <v>695.61</v>
+      </c>
+      <c r="AH11" s="26">
+        <v>546.92999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -1870,6 +2088,10 @@
       <c r="U12">
         <v>48.4</v>
       </c>
+      <c r="V12" s="15">
+        <f t="shared" ref="V12:V14" si="6">AF12-U12-T12-S12</f>
+        <v>50.30000000000004</v>
+      </c>
       <c r="AB12" s="4">
         <v>-396.7</v>
       </c>
@@ -1883,8 +2105,13 @@
       <c r="AE12" s="4">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF12" s="15">
+        <v>351.5</v>
+      </c>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1949,6 +2176,10 @@
       <c r="U13" s="4">
         <v>1.7</v>
       </c>
+      <c r="V13" s="15">
+        <f t="shared" si="6"/>
+        <v>-2.4999999999999858</v>
+      </c>
       <c r="AB13" s="4">
         <v>1.6</v>
       </c>
@@ -1961,8 +2192,13 @@
       <c r="AE13" s="4">
         <v>-303.89999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF13" s="15">
+        <v>151.6</v>
+      </c>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -2027,6 +2263,10 @@
       <c r="U14" s="4">
         <v>-9.3000000000000007</v>
       </c>
+      <c r="V14" s="15">
+        <f t="shared" si="6"/>
+        <v>31.699999999999996</v>
+      </c>
       <c r="AB14" s="4">
         <v>42.9</v>
       </c>
@@ -2039,86 +2279,95 @@
       <c r="AE14" s="4">
         <v>200.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF14" s="15">
+        <v>84.2</v>
+      </c>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+    </row>
+    <row r="15" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ref="C15:U15" si="5">C11+C12+C13-C14</f>
+        <f t="shared" ref="C15:V15" si="7">C11+C12+C13-C14</f>
         <v>96.200000000000031</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>49.899999999999707</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150.49999999999994</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>76.799999999998789</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24.700000000000109</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>260.79999999999984</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>252.49999999999986</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>397.39999999999867</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1203.7</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1521.1000000000001</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2837.4</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3522.9000000000015</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4171.4000000000005</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4482.7999999999993</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5119.3000000000011</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3269.0999999999949</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1893.2000000000003</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1005.3000000000006</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>263.80000000000007</v>
+      </c>
+      <c r="V15" s="16">
+        <f t="shared" si="7"/>
+        <v>-211.89999999999878</v>
       </c>
       <c r="AB15" s="6">
         <f>AB11+AB12+AB13-AB14</f>
@@ -2136,8 +2385,20 @@
         <f>AE11+AE12+AE13-AE14</f>
         <v>17042.599999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF15" s="16">
+        <f>AF11+AF12+AF13-AF14</f>
+        <v>2950.4000000000005</v>
+      </c>
+      <c r="AG15" s="26">
+        <f>AG16*AG17</f>
+        <v>695.61</v>
+      </c>
+      <c r="AH15" s="26">
+        <f>AH16*AH17</f>
+        <v>546.92999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -2213,6 +2474,9 @@
         <f>U15/U17</f>
         <v>179.45578231292521</v>
       </c>
+      <c r="V16" s="15">
+        <v>179</v>
+      </c>
       <c r="AB16" s="4">
         <v>176</v>
       </c>
@@ -2226,8 +2490,18 @@
       <c r="AE16" s="4">
         <v>176</v>
       </c>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF16" s="22">
+        <f>AF15/AF17</f>
+        <v>176.67065868263478</v>
+      </c>
+      <c r="AG16" s="27">
+        <v>177</v>
+      </c>
+      <c r="AH16" s="27">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -2291,6 +2565,16 @@
       </c>
       <c r="U17" s="3">
         <v>1.47</v>
+      </c>
+      <c r="V17" s="17">
+        <f t="shared" ref="V16:V17" si="8">AF17-U17-T17-S17</f>
+        <v>-1.2400000000000002</v>
+      </c>
+      <c r="W17">
+        <v>2.41</v>
+      </c>
+      <c r="X17">
+        <v>1.51</v>
       </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3">
@@ -2308,54 +2592,71 @@
         <f>AE15/AE16</f>
         <v>96.832954545454513</v>
       </c>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF17" s="17">
+        <v>16.7</v>
+      </c>
+      <c r="AG17" s="25">
+        <v>3.93</v>
+      </c>
+      <c r="AH17" s="25">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>82</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" ref="K19:U19" si="6">1-K4/K3</f>
+        <f t="shared" ref="K19:V19" si="9">1-K4/K3</f>
         <v>0.44180557604366422</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.46895006402048656</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.57158870722372568</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.60289468620282061</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.63008048541985318</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.61889830320012451</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.61298402660863138</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.54253974334418653</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.45929880761701369</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.36197957936202496</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.25931256555997362</v>
+      </c>
+      <c r="V19" s="18">
+        <f t="shared" si="9"/>
+        <v>0.19975751825202326</v>
       </c>
       <c r="AB19" s="7">
         <f>1-AB4/AB3</f>
@@ -2373,86 +2674,96 @@
         <f>1-AE4/AE3</f>
         <v>0.60250067307998501</v>
       </c>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF19" s="18">
+        <f>1-AF4/AF3</f>
+        <v>0.3346774868233916</v>
+      </c>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" ref="C20:F20" si="7">C10/C3</f>
+        <f t="shared" ref="C20:F20" si="10">C10/C3</f>
         <v>0.15971791439485455</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.1470143613000755</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.17090012330456222</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.15208906519930865</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:U20" si="8">G10/G3</f>
+        <f t="shared" ref="G20:V20" si="11">G10/G3</f>
         <v>0.1403702928244549</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.2318196884322174</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.21625133262260127</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.25878903386600172</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.3894625559325367</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.41259069568928725</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.52921677582590032</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.55397641366797723</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.59254569616127184</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.5867636266595504</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.57839896521989087</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.48405797101449233</v>
       </c>
       <c r="S20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.39460758142018154</v>
       </c>
       <c r="T20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.28878676054424862</v>
       </c>
       <c r="U20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.16558924694460031</v>
+      </c>
+      <c r="V20" s="18">
+        <f t="shared" si="11"/>
+        <v>7.6197253630637368E-2</v>
       </c>
       <c r="AB20" s="7">
         <f>AB10/AB3</f>
@@ -2470,86 +2781,96 @@
         <f>AE10/AE3</f>
         <v>0.56245458519455627</v>
       </c>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF20" s="18">
+        <f>AF10/AF3</f>
+        <v>0.24879667586937729</v>
+      </c>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" ref="C21:F21" si="9">C11/C3</f>
+        <f t="shared" ref="C21:F21" si="12">C11/C3</f>
         <v>6.973783016095858E-2</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.5303602922650456E-2</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.8144266337854484E-2</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.3970183632989575E-2</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ref="G21:U21" si="10">G11/G3</f>
+        <f t="shared" ref="G21:V21" si="13">G11/G3</f>
         <v>4.7767176143331466E-2</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.11653960888299629</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.11560501066098078</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.13396862630112852</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.31400894920588091</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.34489970123772939</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.46524252566176116</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.49360859883992658</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.53493969861845914</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.53385816265261188</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52919558165318448</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.42154121177296766</v>
       </c>
       <c r="S21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.31087382096458449</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.18299336668855143</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.9862171590271523E-2</v>
+      </c>
+      <c r="V21" s="18">
+        <f t="shared" si="13"/>
+        <v>-6.0093302759547412E-2</v>
       </c>
       <c r="AB21" s="7">
         <f>AB11/AB3</f>
@@ -2567,25 +2888,38 @@
         <f>AE11/AE3</f>
         <v>0.50732861067606172</v>
       </c>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF21" s="18">
+        <f>AF11/AF3</f>
+        <v>0.14119189045985669</v>
+      </c>
+      <c r="AG21" s="29">
+        <f>AG11/AG3</f>
+        <v>4.450479846449136E-2</v>
+      </c>
+      <c r="AH21" s="29">
+        <f>AH11/AH3</f>
+        <v>3.4858508604206501E-2</v>
+      </c>
+      <c r="AI21" s="23"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>81</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:J22" si="11">C14/C15</f>
+        <f t="shared" ref="C22:J22" si="14">C14/C15</f>
         <v>0.11850311850311847</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.11823647294589248</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.6378737541528278E-2</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.16406250000000258</v>
       </c>
       <c r="G22" s="8">
@@ -2593,60 +2927,64 @@
         <v>0.6113360323886613</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.6042944785276095E-2</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.3168316831683193E-2</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.6170105686965362E-2</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ref="K22:U22" si="12">K14/K15</f>
+        <f t="shared" ref="K22:V22" si="15">K14/K15</f>
         <v>9.1384896568912511E-3</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.3492209585168623E-3</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.4627475858180022E-3</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.2732407959351626E-3</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.9794793115021333E-3</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.6399571696261275E-3</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.7940343406325066E-3</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.7716802789758704E-2</v>
       </c>
       <c r="S22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.3593915064441156E-2</v>
       </c>
       <c r="T22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.7905102954341977E-3</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-3.5253980288097037E-2</v>
+      </c>
+      <c r="V22" s="19">
+        <f t="shared" si="15"/>
+        <v>-0.14959886739027928</v>
       </c>
       <c r="AB22" s="8">
         <f>AB14/AB15</f>
@@ -2664,57 +3002,64 @@
         <f>AE14/AE15</f>
         <v>1.1770504500487017E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF22" s="19">
+        <f>AF14/AF15</f>
+        <v>2.8538503253796092E-2</v>
+      </c>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AL22" s="23"/>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ref="G23:R23" si="13">G3/C3-1</f>
+        <f t="shared" ref="G23:R23" si="16">G3/C3-1</f>
         <v>9.1547226484704147E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-4.9823633156966474E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-7.4722564734895247E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.1080683345063473E-2</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.21658241856848015</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.5531985415976135</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.080457089552239</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1332355959536731</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.96110537444067479</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.91920614596670935</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.55991480775697799</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7.6435659894988239E-2</v>
       </c>
       <c r="S23" s="7">
@@ -2728,6 +3073,10 @@
       <c r="U23" s="7">
         <f>U3/Q3-1</f>
         <v>-0.57917915657208563</v>
+      </c>
+      <c r="V23" s="18">
+        <f>V3/R3-1</f>
+        <v>-0.51553342271595448</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7">
@@ -2742,13 +3091,25 @@
         <f>AE3/AD3-1</f>
         <v>0.55084292993916528</v>
       </c>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF23" s="18">
+        <f>AF3/AE3-1</f>
+        <v>-0.48094677022931032</v>
+      </c>
+      <c r="AG23" s="28">
+        <f>AG3/AF3-1</f>
+        <v>-0.12825232159290556</v>
+      </c>
+      <c r="AH23" s="28">
+        <f>AH3/AG3-1</f>
+        <v>3.8387715930903177E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" ref="G24:R24" si="14">G11/C11-1</f>
+        <f t="shared" ref="G24:R24" si="17">G11/C11-1</f>
         <v>-0.2523408239700371</v>
       </c>
       <c r="H24" s="7">
@@ -2756,43 +3117,43 @@
         <v>1.0022779043280203</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.36883629191321488</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7083580320094955</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6.9974953036944223</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.5967007963595021</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7.3726224783861696</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6.8599255854673062</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.3409019730660825</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.9706719465412696</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.77434344129694055</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-8.0725105814214437E-2</v>
       </c>
       <c r="S24" s="7">
@@ -2806,6 +3167,10 @@
       <c r="U24" s="7">
         <f>U11/Q11-1</f>
         <v>-0.96034917555771093</v>
+      </c>
+      <c r="V24" s="18">
+        <f>V11/R11-1</f>
+        <v>-1.0690637021779297</v>
       </c>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7">
@@ -2820,14 +3185,27 @@
         <f>AE11/AD11-1</f>
         <v>0.86631380525884127</v>
       </c>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF24" s="18">
+        <f>AF11/AE11-1</f>
+        <v>-0.85554509401124135</v>
+      </c>
+      <c r="AG24" s="29">
+        <f>AG11/AF11-1</f>
+        <v>-0.7252182500493779</v>
+      </c>
+      <c r="AH24" s="29">
+        <f>AH11/AG11-1</f>
+        <v>-0.21374045801526731</v>
+      </c>
+      <c r="AI24" s="23"/>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
     </row>
-    <row r="29" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2855,6 +3233,10 @@
         <f>U30-U46-U42</f>
         <v>3413.6</v>
       </c>
+      <c r="V29" s="16">
+        <f>V30-V46-V42</f>
+        <v>3039.7000000000003</v>
+      </c>
       <c r="AA29" s="6">
         <f>AA30-AA46-AA42</f>
         <v>0</v>
@@ -2875,8 +3257,12 @@
         <f>AE30-AE46-AE42</f>
         <v>12459.400000000001</v>
       </c>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF29" s="16">
+        <f>AF30-AF46-AF42</f>
+        <v>3039.7000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2898,6 +3284,10 @@
       <c r="U30" s="4">
         <v>6357.9</v>
       </c>
+      <c r="V30" s="15">
+        <f>AF30</f>
+        <v>5809.8</v>
+      </c>
       <c r="AB30" s="4">
         <v>511.6</v>
       </c>
@@ -2910,8 +3300,11 @@
       <c r="AE30" s="4">
         <v>15236.1</v>
       </c>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF30" s="15">
+        <v>5809.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -2933,6 +3326,10 @@
       <c r="U31" s="4">
         <v>1822.5</v>
       </c>
+      <c r="V31" s="15">
+        <f t="shared" ref="V31:V50" si="18">AF31</f>
+        <v>1657</v>
+      </c>
       <c r="AB31" s="4">
         <v>1239.8</v>
       </c>
@@ -2945,8 +3342,11 @@
       <c r="AE31" s="4">
         <v>2895</v>
       </c>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF31" s="15">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>48</v>
       </c>
@@ -2968,6 +3368,10 @@
       <c r="U32" s="4">
         <v>452.2</v>
       </c>
+      <c r="V32" s="15">
+        <f t="shared" si="18"/>
+        <v>454.3</v>
+      </c>
       <c r="AB32" s="4">
         <v>248.5</v>
       </c>
@@ -2980,8 +3384,11 @@
       <c r="AE32" s="4">
         <v>440</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF32" s="15">
+        <v>454.3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>52</v>
       </c>
@@ -3009,6 +3416,10 @@
         <f>2153.8+223.4+8.6+32.9+5.2</f>
         <v>2423.9</v>
       </c>
+      <c r="V33" s="15">
+        <f t="shared" si="18"/>
+        <v>2311.4000000000005</v>
+      </c>
       <c r="AB33" s="4">
         <f>2388.6-AB30-AB31-AB32</f>
         <v>388.70000000000005</v>
@@ -3025,8 +3436,12 @@
         <f>3067.1+132.5+5.5+16.4</f>
         <v>3221.5</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF33" s="15">
+        <f>10232.5-AF32-AF31-AF30</f>
+        <v>2311.4000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -3048,6 +3463,10 @@
       <c r="U34" s="4">
         <v>14041.9</v>
       </c>
+      <c r="V34" s="15">
+        <f t="shared" si="18"/>
+        <v>13547.5</v>
+      </c>
       <c r="AB34" s="4">
         <v>10064.9</v>
       </c>
@@ -3060,8 +3479,11 @@
       <c r="AE34" s="4">
         <v>13140.2</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF34" s="15">
+        <v>13547.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -3083,6 +3505,10 @@
       <c r="U35" s="4">
         <v>1404.9</v>
       </c>
+      <c r="V35" s="15">
+        <f t="shared" si="18"/>
+        <v>1281.7</v>
+      </c>
       <c r="AB35" s="4">
         <v>333.6</v>
       </c>
@@ -3095,8 +3521,11 @@
       <c r="AE35" s="4">
         <v>353.4</v>
       </c>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF35" s="15">
+        <v>1281.7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -3118,6 +3547,10 @@
       <c r="U36" s="4">
         <v>2009.3</v>
       </c>
+      <c r="V36" s="15">
+        <f t="shared" si="18"/>
+        <v>1841.1</v>
+      </c>
       <c r="AB36" s="4">
         <v>1600.7</v>
       </c>
@@ -3130,8 +3563,11 @@
       <c r="AE36" s="4">
         <v>1712.1</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF36" s="15">
+        <v>1841.1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>53</v>
       </c>
@@ -3159,6 +3595,10 @@
         <f>19414.9-U36-U35-U34</f>
         <v>1958.8000000000029</v>
       </c>
+      <c r="V37" s="15">
+        <f t="shared" si="18"/>
+        <v>2109.6000000000022</v>
+      </c>
       <c r="AB37" s="4">
         <f>13811.8-AB34-AB35-AB36</f>
         <v>1812.5999999999997</v>
@@ -3175,8 +3615,12 @@
         <f>16894.7-AE34-AE35-AE36</f>
         <v>1689</v>
       </c>
-    </row>
-    <row r="38" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF37" s="15">
+        <f>18779.9-AF36-AF35-AF34</f>
+        <v>2109.6000000000022</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
@@ -3204,6 +3648,10 @@
         <f>SUM(U30:U37)</f>
         <v>30471.400000000005</v>
       </c>
+      <c r="V38" s="16">
+        <f>SUM(V30:V37)</f>
+        <v>29012.400000000001</v>
+      </c>
       <c r="AB38" s="6">
         <f>SUM(AB30:AB37)</f>
         <v>16200.400000000001</v>
@@ -3220,8 +3668,12 @@
         <f>SUM(AE30:AE37)</f>
         <v>38687.300000000003</v>
       </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF38" s="16">
+        <f>SUM(AF30:AF37)</f>
+        <v>29012.400000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>58</v>
       </c>
@@ -3243,6 +3695,10 @@
       <c r="U39" s="4">
         <v>2647.2</v>
       </c>
+      <c r="V39" s="15">
+        <f t="shared" si="18"/>
+        <v>2487.4</v>
+      </c>
       <c r="AB39" s="4">
         <v>1779.4</v>
       </c>
@@ -3255,8 +3711,11 @@
       <c r="AE39" s="4">
         <v>2615.6999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF39" s="15">
+        <v>2487.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>55</v>
       </c>
@@ -3278,6 +3737,10 @@
       <c r="U40" s="4">
         <v>1061.5</v>
       </c>
+      <c r="V40" s="15">
+        <f t="shared" si="18"/>
+        <v>1101.2</v>
+      </c>
       <c r="AB40" s="4">
         <v>399.3</v>
       </c>
@@ -3290,8 +3753,11 @@
       <c r="AE40" s="4">
         <v>964.6</v>
       </c>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF40" s="15">
+        <v>1101.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>36</v>
       </c>
@@ -3313,6 +3779,10 @@
       <c r="U41" s="4">
         <v>218.3</v>
       </c>
+      <c r="V41" s="15">
+        <f t="shared" si="18"/>
+        <v>239.3</v>
+      </c>
       <c r="AB41" s="4">
         <v>50</v>
       </c>
@@ -3325,8 +3795,11 @@
       <c r="AE41" s="4">
         <v>165.9</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF41" s="15">
+        <v>239.3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>56</v>
       </c>
@@ -3348,6 +3821,10 @@
       <c r="U42" s="4">
         <v>451.2</v>
       </c>
+      <c r="V42" s="15">
+        <f t="shared" si="18"/>
+        <v>451.2</v>
+      </c>
       <c r="AB42" s="4">
         <v>758.7</v>
       </c>
@@ -3360,8 +3837,11 @@
       <c r="AE42" s="4">
         <v>457.3</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF42" s="15">
+        <v>451.2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>57</v>
       </c>
@@ -3383,6 +3863,10 @@
       <c r="U43" s="4">
         <v>909.7</v>
       </c>
+      <c r="V43" s="15">
+        <f t="shared" si="18"/>
+        <v>806.5</v>
+      </c>
       <c r="AB43" s="4">
         <v>482.4</v>
       </c>
@@ -3395,8 +3879,11 @@
       <c r="AE43" s="4">
         <v>934.7</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF43" s="15">
+        <v>806.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>59</v>
       </c>
@@ -3418,6 +3905,10 @@
       <c r="U44" s="4">
         <v>503.1</v>
       </c>
+      <c r="V44" s="15">
+        <f t="shared" si="18"/>
+        <v>566.5</v>
+      </c>
       <c r="AB44" s="4">
         <v>372.9</v>
       </c>
@@ -3430,8 +3921,11 @@
       <c r="AE44" s="4">
         <v>952.9</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF44" s="15">
+        <v>566.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>62</v>
       </c>
@@ -3459,6 +3953,10 @@
         <f>6061.8-U44-U43-U42-U41-U40-U39</f>
         <v>270.80000000000018</v>
       </c>
+      <c r="V45" s="15">
+        <f t="shared" si="18"/>
+        <v>250.50000000000045</v>
+      </c>
       <c r="AB45" s="4">
         <f>3993.6-AB39-AB40-AB41-AB42-AB43-AB44</f>
         <v>150.89999999999986</v>
@@ -3475,8 +3973,12 @@
         <f>6397-AE39-AE40-AE41-AE42-AE43-AE44</f>
         <v>305.89999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF45" s="15">
+        <f>5902.6-AF44-AF43-AF42-AF41-AF40-AF39</f>
+        <v>250.50000000000045</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>4</v>
       </c>
@@ -3498,6 +4000,10 @@
       <c r="U46" s="4">
         <v>2493.1</v>
       </c>
+      <c r="V46" s="15">
+        <f t="shared" si="18"/>
+        <v>2318.9</v>
+      </c>
       <c r="AB46" s="4">
         <v>4445.1000000000004</v>
       </c>
@@ -3510,8 +4016,11 @@
       <c r="AE46" s="4">
         <v>2319.4</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF46" s="15">
+        <v>2318.9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>54</v>
       </c>
@@ -3533,6 +4042,10 @@
       <c r="U47" s="4">
         <v>1608.5</v>
       </c>
+      <c r="V47" s="15">
+        <f t="shared" si="18"/>
+        <v>1454</v>
+      </c>
       <c r="AB47" s="4">
         <v>710.9</v>
       </c>
@@ -3545,8 +4058,11 @@
       <c r="AE47" s="4">
         <v>1725.4</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF47" s="15">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>61</v>
       </c>
@@ -3574,6 +4090,10 @@
         <f>4599.5-U47-U46</f>
         <v>497.90000000000009</v>
       </c>
+      <c r="V48" s="15">
+        <f t="shared" si="18"/>
+        <v>569.99999999999955</v>
+      </c>
       <c r="AB48" s="4">
         <f>5586.2-AB47-AB46</f>
         <v>430.19999999999982</v>
@@ -3590,6 +4110,10 @@
         <f>4379.3-AE47-AE46</f>
         <v>334.5</v>
       </c>
+      <c r="AF48" s="15">
+        <f>4342.9-AF47-AF46</f>
+        <v>569.99999999999955</v>
+      </c>
     </row>
     <row r="49" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
@@ -3619,6 +4143,10 @@
         <f>SUM(U39:U48)</f>
         <v>10661.3</v>
       </c>
+      <c r="V49" s="20">
+        <f>SUM(V39:V48)</f>
+        <v>10245.5</v>
+      </c>
       <c r="AB49" s="5">
         <f>SUM(AB39:AB48)</f>
         <v>9579.7999999999993</v>
@@ -3635,6 +4163,10 @@
         <f>SUM(AE39:AE48)</f>
         <v>10776.3</v>
       </c>
+      <c r="AF49" s="20">
+        <f>SUM(AF39:AF48)</f>
+        <v>10245.5</v>
+      </c>
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -3658,6 +4190,10 @@
       <c r="U50">
         <v>19810.099999999999</v>
       </c>
+      <c r="V50" s="15">
+        <f t="shared" si="18"/>
+        <v>18766.900000000001</v>
+      </c>
       <c r="AB50">
         <v>6620.6</v>
       </c>
@@ -3669,6 +4205,10 @@
       </c>
       <c r="AE50">
         <v>27911.1</v>
+      </c>
+      <c r="AF50" s="15">
+        <f>AF38-AF49</f>
+        <v>18766.900000000001</v>
       </c>
     </row>
     <row r="53" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3697,6 +4237,7 @@
         <f>T77</f>
         <v>6790.9999999999991</v>
       </c>
+      <c r="V53" s="20"/>
       <c r="AB53" s="6">
         <v>657.1</v>
       </c>
@@ -3712,6 +4253,7 @@
         <f>AD77</f>
         <v>7723.1999999999962</v>
       </c>
+      <c r="AF53" s="20"/>
     </row>
     <row r="54" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -4074,9 +4616,9 @@
       <c r="AE64" s="4">
         <v>-60.9</v>
       </c>
-      <c r="AF64" s="4"/>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF64" s="15"/>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>49</v>
       </c>
@@ -4113,7 +4655,7 @@
         <v>-1328</v>
       </c>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>72</v>
       </c>
@@ -4142,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>73</v>
       </c>
@@ -4172,7 +4714,7 @@
         <v>-169.8</v>
       </c>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>32</v>
       </c>
@@ -4204,7 +4746,7 @@
         <v>-2762.2999999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>34</v>
       </c>
@@ -4233,7 +4775,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>74</v>
       </c>
@@ -4265,7 +4807,7 @@
         <v>-6165</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -4301,7 +4843,7 @@
         <v>-483.59999999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>75</v>
       </c>
@@ -4332,7 +4874,7 @@
         <v>-1055.3</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>76</v>
       </c>
@@ -4362,7 +4904,7 @@
         <v>-209.3</v>
       </c>
     </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -4394,7 +4936,7 @@
         <v>-316.5</v>
       </c>
     </row>
-    <row r="75" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>79</v>
       </c>
@@ -4422,7 +4964,7 @@
         <f>SUM(U54:U74)</f>
         <v>0</v>
       </c>
-      <c r="V75" s="5" t="s">
+      <c r="V75" s="20" t="s">
         <v>60</v>
       </c>
       <c r="AB75" s="6">
@@ -4441,8 +4983,9 @@
         <f>SUM(AE54:AE74)</f>
         <v>7208.1</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF75" s="20"/>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>80</v>
       </c>
@@ -4471,7 +5014,7 @@
         <v>304.5</v>
       </c>
     </row>
-    <row r="77" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>78</v>
       </c>
@@ -4499,6 +5042,7 @@
         <f>U53+SUM(U54:U74)+U76</f>
         <v>6790.9999999999991</v>
       </c>
+      <c r="V77" s="20"/>
       <c r="AB77" s="6">
         <f>AB53+SUM(AB54:AB74)+AB76</f>
         <v>511.5</v>
@@ -4515,218 +5059,580 @@
         <f>AE53+SUM(AE54:AE74)+AE76</f>
         <v>15235.799999999996</v>
       </c>
+      <c r="AF77" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AEF814D1-AB10-4C85-9A8C-29CADC5E6517}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="R8" formula="1"/>
+    <ignoredError sqref="R8 V8" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84A155F-28DD-4056-ABE3-FB6172E07486}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
+        <v>36401</v>
+      </c>
+      <c r="G3" s="11">
+        <v>19391</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>20474</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4825</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>18467</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2738</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12">
+        <f>F4/F3</f>
+        <v>0.56245707535507261</v>
+      </c>
+      <c r="G6" s="12">
+        <f>G4/G3</f>
+        <v>0.24882677530813263</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12">
+        <f>F5/F3</f>
+        <v>0.50732122743880659</v>
+      </c>
+      <c r="G7" s="12">
+        <f>G5/G3</f>
+        <v>0.14119952555309165</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <v>17959</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3191</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <v>11843</v>
+      </c>
+      <c r="G10" s="11">
+        <v>11907</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>2863</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <v>36380</v>
+      </c>
+      <c r="G12" s="11">
+        <v>19210</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>20371</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4775</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <v>18365</v>
+      </c>
+      <c r="G14" s="11">
+        <v>2717</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
+        <v>24</v>
+      </c>
+      <c r="G16" s="11">
+        <v>202</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>103</v>
+      </c>
+      <c r="G17" s="11">
+        <v>50</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11">
+        <v>102</v>
+      </c>
+      <c r="G18" s="11">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12">
+        <f>F14/F5</f>
+        <v>0.99447663399577624</v>
+      </c>
+      <c r="G20" s="12">
+        <f>G14/G5</f>
+        <v>0.99233016800584373</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12">
+        <f>G16/F16-1</f>
+        <v>7.4166666666666661</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12">
+        <f>G11/F11-1</f>
+        <v>-0.47607404820118759</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="5">
+      <c r="C24" s="5"/>
+      <c r="D24" s="11">
+        <f>SUM(D25:D26)</f>
+        <v>237</v>
+      </c>
+      <c r="E24" s="11">
+        <f>SUM(E25:E26)</f>
         <v>253</v>
       </c>
-      <c r="J3" s="5">
+      <c r="F24" s="11">
+        <f>SUM(F25:F26)</f>
         <v>251</v>
       </c>
-      <c r="L3" s="5">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="G24" s="11">
+        <f>SUM(G25:G26)</f>
+        <v>266</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>107</v>
       </c>
-      <c r="H4">
-        <v>119</v>
-      </c>
-      <c r="J4">
+      <c r="D25" s="11">
+        <v>112</v>
+      </c>
+      <c r="E25" s="11">
+        <v>113</v>
+      </c>
+      <c r="F25" s="11">
         <v>121</v>
       </c>
-      <c r="L4">
+      <c r="G25" s="11">
+        <v>123</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="11">
+        <v>125</v>
+      </c>
+      <c r="E26" s="11">
+        <v>140</v>
+      </c>
+      <c r="F26" s="11">
+        <v>130</v>
+      </c>
+      <c r="G26" s="11">
+        <v>143</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1719</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1769</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1797</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1972</v>
+      </c>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" s="11">
+        <v>2704</v>
+      </c>
+      <c r="E28" s="11">
+        <v>3058</v>
+      </c>
+      <c r="F28" s="11">
+        <v>2972</v>
+      </c>
+      <c r="G28" s="11">
+        <v>2975</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11">
+        <f>D33+D35</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <f>SUM(E33:E35)</f>
+        <v>16070</v>
+      </c>
+      <c r="F32" s="11">
+        <f>SUM(F33:F35)</f>
+        <v>16050</v>
+      </c>
+      <c r="G32" s="11">
+        <f>SUM(G33:G35)</f>
+        <v>17700</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11">
+        <v>14106</v>
+      </c>
+      <c r="F33" s="11">
+        <v>13982</v>
+      </c>
+      <c r="G33" s="11">
+        <v>13526</v>
+      </c>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5">
-        <v>134</v>
-      </c>
-      <c r="J5">
-        <v>130</v>
-      </c>
-      <c r="L5">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6">
-        <v>1771</v>
-      </c>
-      <c r="J6">
-        <v>1797</v>
-      </c>
-      <c r="L6">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7">
-        <v>3030</v>
-      </c>
-      <c r="J7">
-        <v>2972</v>
-      </c>
-      <c r="L7">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8">
-        <v>2935</v>
-      </c>
-      <c r="L8">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9">
-        <v>3024</v>
-      </c>
-      <c r="L9">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="5">
-        <f>SUM(H14:H16)</f>
-        <v>14321</v>
-      </c>
-      <c r="I13" s="5">
-        <f>SUM(I14:I16)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <f>SUM(J14:J16)</f>
-        <v>14248</v>
-      </c>
-      <c r="K13" s="5">
-        <f>SUM(K14:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <f>SUM(L14:L16)</f>
-        <v>13849</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14">
-        <v>1868</v>
-      </c>
-      <c r="J14">
-        <v>1704</v>
-      </c>
-      <c r="L14">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15">
-        <v>12240</v>
-      </c>
-      <c r="J15">
-        <v>12316</v>
-      </c>
-      <c r="L15">
-        <v>12429</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16">
-        <v>213</v>
-      </c>
-      <c r="J16">
-        <v>228</v>
-      </c>
-      <c r="L16">
-        <v>198</v>
-      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11">
+        <v>1964</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1802</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1305</v>
+      </c>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11">
+        <v>266</v>
+      </c>
+      <c r="G35" s="11">
+        <v>2869</v>
+      </c>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Shipping & Transportation/HLAG.xlsx
+++ b/Shipping & Transportation/HLAG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB17E0-E7B5-45EF-B63B-210B4F1B6FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD9692-688E-4AAF-B8EA-88B0C07F78AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>Price</t>
   </si>
@@ -420,6 +420,21 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>EG1</t>
+  </si>
+  <si>
+    <t>EG2</t>
   </si>
 </sst>
 </file>
@@ -521,7 +536,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -534,8 +549,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -547,15 +560,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -838,15 +849,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:L29"/>
+  <dimension ref="B3:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -856,16 +867,37 @@
       <c r="L3">
         <v>124.2</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>1</v>
       </c>
       <c r="L4">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>2</v>
       </c>
@@ -873,8 +905,20 @@
         <f>L3*L4</f>
         <v>21983.4</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>3</v>
       </c>
@@ -882,8 +926,20 @@
         <f>Model!V30</f>
         <v>5809.8</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="U6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>4</v>
       </c>
@@ -891,8 +947,14 @@
         <f>-Model!V46-Model!V42</f>
         <v>-2770.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="T7" s="9">
+        <v>0.123</v>
+      </c>
+      <c r="U7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
         <v>5</v>
       </c>
@@ -900,8 +962,14 @@
         <f>L6+L7</f>
         <v>3039.7000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="T8" s="9">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="U8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>6</v>
       </c>
@@ -909,40 +977,59 @@
         <f>L5-L7-L6</f>
         <v>18943.7</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K17" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K18" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="T9" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="25">
+        <f>$L$3/Model!AF17</f>
+        <v>7.4371257485029947</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="25">
+        <f>$L$3/Model!AG17</f>
+        <v>31.603053435114504</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="25">
+        <f>$L$3/Model!AH17</f>
+        <v>40.194174757281559</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="10">
+        <f>Model!AG17/Model!AF17-1</f>
+        <v>-0.76467065868263473</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="10">
+        <f>Model!AH17/Model!AG17-1</f>
+        <v>-0.2137404580152672</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2021</v>
       </c>
@@ -950,12 +1037,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2022</v>
       </c>
@@ -963,62 +1050,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K24" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="L24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K25" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="L25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K26" s="9">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="L26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K27" s="9">
-        <v>0.123</v>
-      </c>
-      <c r="L27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K28" s="9">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="L28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K29" s="9">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1028,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57156153-6B21-4ABE-A4F3-DEC182919BBB}">
-  <dimension ref="A1:AL77"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
@@ -1041,8 +1075,8 @@
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="13"/>
-    <col min="32" max="32" width="9.140625" style="13"/>
+    <col min="22" max="22" width="9.140625" style="11"/>
+    <col min="32" max="32" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -1108,7 +1142,7 @@
       <c r="U2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="2" t="s">
@@ -1132,7 +1166,7 @@
       <c r="AE2">
         <v>2022</v>
       </c>
-      <c r="AF2" s="13">
+      <c r="AF2" s="11">
         <v>2023</v>
       </c>
       <c r="AG2">
@@ -1207,14 +1241,14 @@
       <c r="U3" s="4">
         <v>4099.3</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="13">
         <f>AF3-U3-T3-S3</f>
         <v>3794.1000000000004</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="4">
         <v>4120</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="4">
         <v>4100</v>
       </c>
       <c r="AB3" s="4">
@@ -1229,13 +1263,13 @@
       <c r="AE3" s="4">
         <v>34542.699999999997</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="13">
         <v>17929.5</v>
       </c>
-      <c r="AG3" s="24">
+      <c r="AG3" s="20">
         <v>15630</v>
       </c>
-      <c r="AH3" s="24">
+      <c r="AH3" s="20">
         <v>15690</v>
       </c>
     </row>
@@ -1304,7 +1338,7 @@
       <c r="U4" s="4">
         <v>3036.3</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="13">
         <f t="shared" ref="V4:V9" si="0">AF4-U4-T4-S4</f>
         <v>3036.1999999999989</v>
       </c>
@@ -1320,11 +1354,11 @@
       <c r="AE4" s="4">
         <v>13730.7</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF4" s="13">
         <v>11928.9</v>
       </c>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1391,7 +1425,7 @@
       <c r="U5" s="4">
         <v>269.3</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="13">
         <f t="shared" si="0"/>
         <v>284.70000000000016</v>
       </c>
@@ -1407,11 +1441,11 @@
       <c r="AE5" s="4">
         <v>982</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AF5" s="13">
         <v>1029.7</v>
       </c>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1478,7 +1512,7 @@
       <c r="U6" s="4">
         <v>474.4</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="13">
         <f t="shared" si="0"/>
         <v>517.10000000000014</v>
       </c>
@@ -1494,11 +1528,11 @@
       <c r="AE6" s="4">
         <v>1904.2</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF6" s="13">
         <v>1929.3</v>
       </c>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1565,7 +1599,7 @@
       <c r="U7" s="4">
         <v>-113.6</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="13">
         <f t="shared" si="0"/>
         <v>-178.50000000000003</v>
       </c>
@@ -1581,11 +1615,11 @@
       <c r="AE7" s="4">
         <v>-491.3</v>
       </c>
-      <c r="AF7" s="15">
+      <c r="AF7" s="13">
         <v>-526.20000000000005</v>
       </c>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
     </row>
     <row r="8" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -1616,7 +1650,7 @@
         <v>345.19999999999982</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" ref="I8:V8" si="3">I3-I4-I5-I6+I7</f>
+        <f t="shared" ref="I8:T8" si="3">I3-I4-I5-I6+I7</f>
         <v>337.7999999999999</v>
       </c>
       <c r="J8" s="6">
@@ -1667,7 +1701,7 @@
         <f>U3-U4-U5-U6+U7</f>
         <v>205.70000000000007</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="14">
         <f>V3-V4-V5-V6+V7</f>
         <v>-222.39999999999887</v>
       </c>
@@ -1687,12 +1721,12 @@
         <f>AE3-AE4-AE5-AE6+AE7</f>
         <v>17434.499999999996</v>
       </c>
-      <c r="AF8" s="16">
+      <c r="AF8" s="14">
         <f>AF3-AF4-AF5-AF6+AF7</f>
         <v>2515.4000000000005</v>
       </c>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1768,7 +1802,7 @@
         <f>-1.2-0.1</f>
         <v>-1.3</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="13">
         <f t="shared" si="0"/>
         <v>-5.5999999999999979</v>
       </c>
@@ -1787,12 +1821,12 @@
       <c r="AE9" s="4">
         <v>90</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AF9" s="11">
         <f>13.9+2.2</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
     </row>
     <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -1874,7 +1908,7 @@
         <f t="shared" si="4"/>
         <v>678.80000000000007</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="14">
         <f t="shared" si="4"/>
         <v>289.10000000000127</v>
       </c>
@@ -1894,12 +1928,12 @@
         <f>AE8+AE9+AE6</f>
         <v>19428.699999999997</v>
       </c>
-      <c r="AF10" s="16">
+      <c r="AF10" s="14">
         <f>AF8+AF9+AF6</f>
         <v>4460.8</v>
       </c>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
     </row>
     <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1981,7 +2015,7 @@
         <f t="shared" si="5"/>
         <v>204.40000000000006</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="14">
         <f t="shared" si="5"/>
         <v>-227.99999999999886</v>
       </c>
@@ -2001,14 +2035,14 @@
         <f>AE8+AE9</f>
         <v>17524.499999999996</v>
       </c>
-      <c r="AF11" s="16">
+      <c r="AF11" s="14">
         <f>AF8+AF9</f>
         <v>2531.5000000000005</v>
       </c>
-      <c r="AG11" s="26">
+      <c r="AG11" s="22">
         <v>695.61</v>
       </c>
-      <c r="AH11" s="26">
+      <c r="AH11" s="22">
         <v>546.92999999999995</v>
       </c>
     </row>
@@ -2088,7 +2122,7 @@
       <c r="U12">
         <v>48.4</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="13">
         <f t="shared" ref="V12:V14" si="6">AF12-U12-T12-S12</f>
         <v>50.30000000000004</v>
       </c>
@@ -2105,11 +2139,11 @@
       <c r="AE12" s="4">
         <v>22.6</v>
       </c>
-      <c r="AF12" s="15">
+      <c r="AF12" s="13">
         <v>351.5</v>
       </c>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -2176,7 +2210,7 @@
       <c r="U13" s="4">
         <v>1.7</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="13">
         <f t="shared" si="6"/>
         <v>-2.4999999999999858</v>
       </c>
@@ -2192,11 +2226,11 @@
       <c r="AE13" s="4">
         <v>-303.89999999999998</v>
       </c>
-      <c r="AF13" s="15">
+      <c r="AF13" s="13">
         <v>151.6</v>
       </c>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2263,7 +2297,7 @@
       <c r="U14" s="4">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="13">
         <f t="shared" si="6"/>
         <v>31.699999999999996</v>
       </c>
@@ -2279,11 +2313,11 @@
       <c r="AE14" s="4">
         <v>200.6</v>
       </c>
-      <c r="AF14" s="15">
+      <c r="AF14" s="13">
         <v>84.2</v>
       </c>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
     </row>
     <row r="15" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
@@ -2365,7 +2399,7 @@
         <f t="shared" si="7"/>
         <v>263.80000000000007</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="14">
         <f t="shared" si="7"/>
         <v>-211.89999999999878</v>
       </c>
@@ -2385,15 +2419,15 @@
         <f>AE11+AE12+AE13-AE14</f>
         <v>17042.599999999995</v>
       </c>
-      <c r="AF15" s="16">
+      <c r="AF15" s="14">
         <f>AF11+AF12+AF13-AF14</f>
         <v>2950.4000000000005</v>
       </c>
-      <c r="AG15" s="26">
+      <c r="AG15" s="22">
         <f>AG16*AG17</f>
         <v>695.61</v>
       </c>
-      <c r="AH15" s="26">
+      <c r="AH15" s="22">
         <f>AH16*AH17</f>
         <v>546.92999999999995</v>
       </c>
@@ -2474,7 +2508,7 @@
         <f>U15/U17</f>
         <v>179.45578231292521</v>
       </c>
-      <c r="V16" s="15">
+      <c r="V16" s="13">
         <v>179</v>
       </c>
       <c r="AB16" s="4">
@@ -2490,18 +2524,18 @@
       <c r="AE16" s="4">
         <v>176</v>
       </c>
-      <c r="AF16" s="22">
+      <c r="AF16" s="19">
         <f>AF15/AF17</f>
         <v>176.67065868263478</v>
       </c>
-      <c r="AG16" s="27">
+      <c r="AG16" s="23">
         <v>177</v>
       </c>
-      <c r="AH16" s="27">
+      <c r="AH16" s="23">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -2566,8 +2600,8 @@
       <c r="U17" s="3">
         <v>1.47</v>
       </c>
-      <c r="V17" s="17">
-        <f t="shared" ref="V16:V17" si="8">AF17-U17-T17-S17</f>
+      <c r="V17" s="15">
+        <f t="shared" ref="V17" si="8">AF17-U17-T17-S17</f>
         <v>-1.2400000000000002</v>
       </c>
       <c r="W17">
@@ -2592,21 +2626,21 @@
         <f>AE15/AE16</f>
         <v>96.832954545454513</v>
       </c>
-      <c r="AF17" s="17">
+      <c r="AF17" s="15">
         <v>16.7</v>
       </c>
-      <c r="AG17" s="25">
+      <c r="AG17" s="21">
         <v>3.93</v>
       </c>
-      <c r="AH17" s="25">
+      <c r="AH17" s="21">
         <v>3.09</v>
       </c>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-    </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>82</v>
       </c>
@@ -2654,7 +2688,7 @@
         <f t="shared" si="9"/>
         <v>0.25931256555997362</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="16">
         <f t="shared" si="9"/>
         <v>0.19975751825202326</v>
       </c>
@@ -2674,14 +2708,14 @@
         <f>1-AE4/AE3</f>
         <v>0.60250067307998501</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AF19" s="16">
         <f>1-AF4/AF3</f>
         <v>0.3346774868233916</v>
       </c>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-    </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -2761,7 +2795,7 @@
         <f t="shared" si="11"/>
         <v>0.16558924694460031</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="16">
         <f t="shared" si="11"/>
         <v>7.6197253630637368E-2</v>
       </c>
@@ -2781,14 +2815,14 @@
         <f>AE10/AE3</f>
         <v>0.56245458519455627</v>
       </c>
-      <c r="AF20" s="18">
+      <c r="AF20" s="16">
         <f>AF10/AF3</f>
         <v>0.24879667586937729</v>
       </c>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -2868,58 +2902,57 @@
         <f t="shared" si="13"/>
         <v>4.9862171590271523E-2</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="16">
         <f t="shared" si="13"/>
         <v>-6.0093302759547412E-2</v>
       </c>
       <c r="AB21" s="7">
-        <f>AB11/AB3</f>
+        <f t="shared" ref="AB21:AH21" si="14">AB11/AB3</f>
         <v>6.4356474908589034E-2</v>
       </c>
       <c r="AC21" s="7">
-        <f>AC11/AC3</f>
+        <f t="shared" si="14"/>
         <v>0.10297203344712028</v>
       </c>
       <c r="AD21" s="7">
-        <f>AD11/AD3</f>
+        <f t="shared" si="14"/>
         <v>0.42157272094641624</v>
       </c>
       <c r="AE21" s="7">
-        <f>AE11/AE3</f>
+        <f t="shared" si="14"/>
         <v>0.50732861067606172</v>
       </c>
-      <c r="AF21" s="18">
-        <f>AF11/AF3</f>
+      <c r="AF21" s="16">
+        <f t="shared" si="14"/>
         <v>0.14119189045985669</v>
       </c>
-      <c r="AG21" s="29">
-        <f>AG11/AG3</f>
+      <c r="AG21" s="24">
+        <f t="shared" si="14"/>
         <v>4.450479846449136E-2</v>
       </c>
-      <c r="AH21" s="29">
-        <f>AH11/AH3</f>
+      <c r="AH21" s="24">
+        <f t="shared" si="14"/>
         <v>3.4858508604206501E-2</v>
       </c>
-      <c r="AI21" s="23"/>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>81</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:J22" si="14">C14/C15</f>
+        <f t="shared" ref="C22:J22" si="15">C14/C15</f>
         <v>0.11850311850311847</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.11823647294589248</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.6378737541528278E-2</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.16406250000000258</v>
       </c>
       <c r="G22" s="8">
@@ -2927,63 +2960,63 @@
         <v>0.6113360323886613</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.6042944785276095E-2</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.3168316831683193E-2</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.6170105686965362E-2</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ref="K22:V22" si="15">K14/K15</f>
+        <f t="shared" ref="K22:V22" si="16">K14/K15</f>
         <v>9.1384896568912511E-3</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.3492209585168623E-3</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.4627475858180022E-3</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.2732407959351626E-3</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.9794793115021333E-3</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.6399571696261275E-3</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.7940343406325066E-3</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.7716802789758704E-2</v>
       </c>
       <c r="S22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.3593915064441156E-2</v>
       </c>
       <c r="T22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.7905102954341977E-3</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.5253980288097037E-2</v>
       </c>
-      <c r="V22" s="19">
-        <f t="shared" si="15"/>
+      <c r="V22" s="17">
+        <f t="shared" si="16"/>
         <v>-0.14959886739027928</v>
       </c>
       <c r="AB22" s="8">
@@ -3002,64 +3035,63 @@
         <f>AE14/AE15</f>
         <v>1.1770504500487017E-2</v>
       </c>
-      <c r="AF22" s="19">
+      <c r="AF22" s="17">
         <f>AF14/AF15</f>
         <v>2.8538503253796092E-2</v>
       </c>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AL22" s="23"/>
-    </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ref="G23:R23" si="16">G3/C3-1</f>
+        <f t="shared" ref="G23:R23" si="17">G3/C3-1</f>
         <v>9.1547226484704147E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-4.9823633156966474E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-7.4722564734895247E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.1080683345063473E-2</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.21658241856848015</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.5531985415976135</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.080457089552239</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1332355959536731</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.96110537444067479</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.91920614596670935</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.55991480775697799</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.6435659894988239E-2</v>
       </c>
       <c r="S23" s="7">
@@ -3074,42 +3106,42 @@
         <f>U3/Q3-1</f>
         <v>-0.57917915657208563</v>
       </c>
-      <c r="V23" s="18">
+      <c r="V23" s="16">
         <f>V3/R3-1</f>
         <v>-0.51553342271595448</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7">
-        <f>AC3/AB3-1</f>
+        <f t="shared" ref="AC23:AH23" si="18">AC3/AB3-1</f>
         <v>1.3047375058495181E-2</v>
       </c>
       <c r="AD23" s="7">
-        <f>AD3/AC3-1</f>
+        <f t="shared" si="18"/>
         <v>0.74387742319376149</v>
       </c>
       <c r="AE23" s="7">
-        <f>AE3/AD3-1</f>
+        <f t="shared" si="18"/>
         <v>0.55084292993916528</v>
       </c>
-      <c r="AF23" s="18">
-        <f>AF3/AE3-1</f>
+      <c r="AF23" s="16">
+        <f t="shared" si="18"/>
         <v>-0.48094677022931032</v>
       </c>
-      <c r="AG23" s="28">
-        <f>AG3/AF3-1</f>
+      <c r="AG23" s="24">
+        <f t="shared" si="18"/>
         <v>-0.12825232159290556</v>
       </c>
-      <c r="AH23" s="28">
-        <f>AH3/AG3-1</f>
+      <c r="AH23" s="24">
+        <f t="shared" si="18"/>
         <v>3.8387715930903177E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" ref="G24:R24" si="17">G11/C11-1</f>
+        <f t="shared" ref="G24:R24" si="19">G11/C11-1</f>
         <v>-0.2523408239700371</v>
       </c>
       <c r="H24" s="7">
@@ -3117,43 +3149,43 @@
         <v>1.0022779043280203</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.36883629191321488</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7083580320094955</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.9974953036944223</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.5967007963595021</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.3726224783861696</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.8599255854673062</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.3409019730660825</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9706719465412696</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.77434344129694055</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-8.0725105814214437E-2</v>
       </c>
       <c r="S24" s="7">
@@ -3168,44 +3200,43 @@
         <f>U11/Q11-1</f>
         <v>-0.96034917555771093</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="16">
         <f>V11/R11-1</f>
         <v>-1.0690637021779297</v>
       </c>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7">
-        <f>AC11/AB11-1</f>
+        <f t="shared" ref="AC24:AH24" si="20">AC11/AB11-1</f>
         <v>0.62090214444170511</v>
       </c>
       <c r="AD24" s="7">
-        <f>AD11/AC11-1</f>
+        <f t="shared" si="20"/>
         <v>6.1395225060827325</v>
       </c>
       <c r="AE24" s="7">
-        <f>AE11/AD11-1</f>
+        <f t="shared" si="20"/>
         <v>0.86631380525884127</v>
       </c>
-      <c r="AF24" s="18">
-        <f>AF11/AE11-1</f>
+      <c r="AF24" s="16">
+        <f t="shared" si="20"/>
         <v>-0.85554509401124135</v>
       </c>
-      <c r="AG24" s="29">
-        <f>AG11/AF11-1</f>
+      <c r="AG24" s="24">
+        <f t="shared" si="20"/>
         <v>-0.7252182500493779</v>
       </c>
-      <c r="AH24" s="29">
-        <f>AH11/AG11-1</f>
+      <c r="AH24" s="24">
+        <f t="shared" si="20"/>
         <v>-0.21374045801526731</v>
       </c>
-      <c r="AI24" s="23"/>
-    </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
     </row>
-    <row r="29" spans="2:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
@@ -3214,55 +3245,55 @@
         <v>4649.2999999999993</v>
       </c>
       <c r="Q29" s="6">
-        <f>Q30-Q46-Q42</f>
+        <f t="shared" ref="Q29:V29" si="21">Q30-Q46-Q42</f>
         <v>11988.300000000001</v>
       </c>
       <c r="R29" s="6">
-        <f>R30-R46-R42</f>
+        <f t="shared" si="21"/>
         <v>12459.400000000001</v>
       </c>
       <c r="S29" s="6">
-        <f>S30-S46-S42</f>
+        <f t="shared" si="21"/>
         <v>15070.6</v>
       </c>
       <c r="T29" s="6">
-        <f>T30-T46-T42</f>
+        <f t="shared" si="21"/>
         <v>4200.0000000000009</v>
       </c>
       <c r="U29" s="6">
-        <f>U30-U46-U42</f>
+        <f t="shared" si="21"/>
         <v>3413.6</v>
       </c>
-      <c r="V29" s="16">
-        <f>V30-V46-V42</f>
+      <c r="V29" s="14">
+        <f t="shared" si="21"/>
         <v>3039.7000000000003</v>
       </c>
       <c r="AA29" s="6">
-        <f>AA30-AA46-AA42</f>
+        <f t="shared" ref="AA29:AF29" si="22">AA30-AA46-AA42</f>
         <v>0</v>
       </c>
       <c r="AB29" s="6">
-        <f>AB30-AB46-AB42</f>
+        <f t="shared" si="22"/>
         <v>-4692.2000000000007</v>
       </c>
       <c r="AC29" s="6">
-        <f>AC30-AC46-AC42</f>
+        <f t="shared" si="22"/>
         <v>-3054.5000000000005</v>
       </c>
       <c r="AD29" s="6">
-        <f>AD30-AD46-AD42</f>
+        <f t="shared" si="22"/>
         <v>4649.2999999999993</v>
       </c>
       <c r="AE29" s="6">
-        <f>AE30-AE46-AE42</f>
+        <f t="shared" si="22"/>
         <v>12459.400000000001</v>
       </c>
-      <c r="AF29" s="16">
-        <f>AF30-AF46-AF42</f>
+      <c r="AF29" s="14">
+        <f t="shared" si="22"/>
         <v>3039.7000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -3284,7 +3315,7 @@
       <c r="U30" s="4">
         <v>6357.9</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="13">
         <f>AF30</f>
         <v>5809.8</v>
       </c>
@@ -3300,11 +3331,11 @@
       <c r="AE30" s="4">
         <v>15236.1</v>
       </c>
-      <c r="AF30" s="15">
+      <c r="AF30" s="13">
         <v>5809.8</v>
       </c>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -3326,8 +3357,8 @@
       <c r="U31" s="4">
         <v>1822.5</v>
       </c>
-      <c r="V31" s="15">
-        <f t="shared" ref="V31:V50" si="18">AF31</f>
+      <c r="V31" s="13">
+        <f t="shared" ref="V31:V50" si="23">AF31</f>
         <v>1657</v>
       </c>
       <c r="AB31" s="4">
@@ -3342,11 +3373,11 @@
       <c r="AE31" s="4">
         <v>2895</v>
       </c>
-      <c r="AF31" s="15">
+      <c r="AF31" s="13">
         <v>1657</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>48</v>
       </c>
@@ -3368,8 +3399,8 @@
       <c r="U32" s="4">
         <v>452.2</v>
       </c>
-      <c r="V32" s="15">
-        <f t="shared" si="18"/>
+      <c r="V32" s="13">
+        <f t="shared" si="23"/>
         <v>454.3</v>
       </c>
       <c r="AB32" s="4">
@@ -3384,7 +3415,7 @@
       <c r="AE32" s="4">
         <v>440</v>
       </c>
-      <c r="AF32" s="15">
+      <c r="AF32" s="13">
         <v>454.3</v>
       </c>
     </row>
@@ -3416,8 +3447,8 @@
         <f>2153.8+223.4+8.6+32.9+5.2</f>
         <v>2423.9</v>
       </c>
-      <c r="V33" s="15">
-        <f t="shared" si="18"/>
+      <c r="V33" s="13">
+        <f t="shared" si="23"/>
         <v>2311.4000000000005</v>
       </c>
       <c r="AB33" s="4">
@@ -3436,7 +3467,7 @@
         <f>3067.1+132.5+5.5+16.4</f>
         <v>3221.5</v>
       </c>
-      <c r="AF33" s="15">
+      <c r="AF33" s="13">
         <f>10232.5-AF32-AF31-AF30</f>
         <v>2311.4000000000005</v>
       </c>
@@ -3463,8 +3494,8 @@
       <c r="U34" s="4">
         <v>14041.9</v>
       </c>
-      <c r="V34" s="15">
-        <f t="shared" si="18"/>
+      <c r="V34" s="13">
+        <f t="shared" si="23"/>
         <v>13547.5</v>
       </c>
       <c r="AB34" s="4">
@@ -3479,7 +3510,7 @@
       <c r="AE34" s="4">
         <v>13140.2</v>
       </c>
-      <c r="AF34" s="15">
+      <c r="AF34" s="13">
         <v>13547.5</v>
       </c>
     </row>
@@ -3505,8 +3536,8 @@
       <c r="U35" s="4">
         <v>1404.9</v>
       </c>
-      <c r="V35" s="15">
-        <f t="shared" si="18"/>
+      <c r="V35" s="13">
+        <f t="shared" si="23"/>
         <v>1281.7</v>
       </c>
       <c r="AB35" s="4">
@@ -3521,7 +3552,7 @@
       <c r="AE35" s="4">
         <v>353.4</v>
       </c>
-      <c r="AF35" s="15">
+      <c r="AF35" s="13">
         <v>1281.7</v>
       </c>
     </row>
@@ -3547,8 +3578,8 @@
       <c r="U36" s="4">
         <v>2009.3</v>
       </c>
-      <c r="V36" s="15">
-        <f t="shared" si="18"/>
+      <c r="V36" s="13">
+        <f t="shared" si="23"/>
         <v>1841.1</v>
       </c>
       <c r="AB36" s="4">
@@ -3563,7 +3594,7 @@
       <c r="AE36" s="4">
         <v>1712.1</v>
       </c>
-      <c r="AF36" s="15">
+      <c r="AF36" s="13">
         <v>1841.1</v>
       </c>
     </row>
@@ -3595,8 +3626,8 @@
         <f>19414.9-U36-U35-U34</f>
         <v>1958.8000000000029</v>
       </c>
-      <c r="V37" s="15">
-        <f t="shared" si="18"/>
+      <c r="V37" s="13">
+        <f t="shared" si="23"/>
         <v>2109.6000000000022</v>
       </c>
       <c r="AB37" s="4">
@@ -3615,7 +3646,7 @@
         <f>16894.7-AE34-AE35-AE36</f>
         <v>1689</v>
       </c>
-      <c r="AF37" s="15">
+      <c r="AF37" s="13">
         <f>18779.9-AF36-AF35-AF34</f>
         <v>2109.6000000000022</v>
       </c>
@@ -3629,27 +3660,27 @@
         <v>26714.500000000004</v>
       </c>
       <c r="Q38" s="6">
-        <f>SUM(Q30:Q37)</f>
+        <f t="shared" ref="Q38:V38" si="24">SUM(Q30:Q37)</f>
         <v>39286.5</v>
       </c>
       <c r="R38" s="6">
-        <f>SUM(R30:R37)</f>
+        <f t="shared" si="24"/>
         <v>38687.300000000003</v>
       </c>
       <c r="S38" s="6">
-        <f>SUM(S30:S37)</f>
+        <f t="shared" si="24"/>
         <v>39541.099999999991</v>
       </c>
       <c r="T38" s="6">
-        <f>SUM(T30:T37)</f>
+        <f t="shared" si="24"/>
         <v>28983.9</v>
       </c>
       <c r="U38" s="6">
-        <f>SUM(U30:U37)</f>
+        <f t="shared" si="24"/>
         <v>30471.400000000005</v>
       </c>
-      <c r="V38" s="16">
-        <f>SUM(V30:V37)</f>
+      <c r="V38" s="14">
+        <f t="shared" si="24"/>
         <v>29012.400000000001</v>
       </c>
       <c r="AB38" s="6">
@@ -3668,7 +3699,7 @@
         <f>SUM(AE30:AE37)</f>
         <v>38687.300000000003</v>
       </c>
-      <c r="AF38" s="16">
+      <c r="AF38" s="14">
         <f>SUM(AF30:AF37)</f>
         <v>29012.400000000001</v>
       </c>
@@ -3695,8 +3726,8 @@
       <c r="U39" s="4">
         <v>2647.2</v>
       </c>
-      <c r="V39" s="15">
-        <f t="shared" si="18"/>
+      <c r="V39" s="13">
+        <f t="shared" si="23"/>
         <v>2487.4</v>
       </c>
       <c r="AB39" s="4">
@@ -3711,7 +3742,7 @@
       <c r="AE39" s="4">
         <v>2615.6999999999998</v>
       </c>
-      <c r="AF39" s="15">
+      <c r="AF39" s="13">
         <v>2487.4</v>
       </c>
     </row>
@@ -3737,8 +3768,8 @@
       <c r="U40" s="4">
         <v>1061.5</v>
       </c>
-      <c r="V40" s="15">
-        <f t="shared" si="18"/>
+      <c r="V40" s="13">
+        <f t="shared" si="23"/>
         <v>1101.2</v>
       </c>
       <c r="AB40" s="4">
@@ -3753,7 +3784,7 @@
       <c r="AE40" s="4">
         <v>964.6</v>
       </c>
-      <c r="AF40" s="15">
+      <c r="AF40" s="13">
         <v>1101.2</v>
       </c>
     </row>
@@ -3779,8 +3810,8 @@
       <c r="U41" s="4">
         <v>218.3</v>
       </c>
-      <c r="V41" s="15">
-        <f t="shared" si="18"/>
+      <c r="V41" s="13">
+        <f t="shared" si="23"/>
         <v>239.3</v>
       </c>
       <c r="AB41" s="4">
@@ -3795,7 +3826,7 @@
       <c r="AE41" s="4">
         <v>165.9</v>
       </c>
-      <c r="AF41" s="15">
+      <c r="AF41" s="13">
         <v>239.3</v>
       </c>
     </row>
@@ -3821,8 +3852,8 @@
       <c r="U42" s="4">
         <v>451.2</v>
       </c>
-      <c r="V42" s="15">
-        <f t="shared" si="18"/>
+      <c r="V42" s="13">
+        <f t="shared" si="23"/>
         <v>451.2</v>
       </c>
       <c r="AB42" s="4">
@@ -3837,7 +3868,7 @@
       <c r="AE42" s="4">
         <v>457.3</v>
       </c>
-      <c r="AF42" s="15">
+      <c r="AF42" s="13">
         <v>451.2</v>
       </c>
     </row>
@@ -3863,8 +3894,8 @@
       <c r="U43" s="4">
         <v>909.7</v>
       </c>
-      <c r="V43" s="15">
-        <f t="shared" si="18"/>
+      <c r="V43" s="13">
+        <f t="shared" si="23"/>
         <v>806.5</v>
       </c>
       <c r="AB43" s="4">
@@ -3879,7 +3910,7 @@
       <c r="AE43" s="4">
         <v>934.7</v>
       </c>
-      <c r="AF43" s="15">
+      <c r="AF43" s="13">
         <v>806.5</v>
       </c>
     </row>
@@ -3905,8 +3936,8 @@
       <c r="U44" s="4">
         <v>503.1</v>
       </c>
-      <c r="V44" s="15">
-        <f t="shared" si="18"/>
+      <c r="V44" s="13">
+        <f t="shared" si="23"/>
         <v>566.5</v>
       </c>
       <c r="AB44" s="4">
@@ -3921,7 +3952,7 @@
       <c r="AE44" s="4">
         <v>952.9</v>
       </c>
-      <c r="AF44" s="15">
+      <c r="AF44" s="13">
         <v>566.5</v>
       </c>
     </row>
@@ -3953,8 +3984,8 @@
         <f>6061.8-U44-U43-U42-U41-U40-U39</f>
         <v>270.80000000000018</v>
       </c>
-      <c r="V45" s="15">
-        <f t="shared" si="18"/>
+      <c r="V45" s="13">
+        <f t="shared" si="23"/>
         <v>250.50000000000045</v>
       </c>
       <c r="AB45" s="4">
@@ -3973,7 +4004,7 @@
         <f>6397-AE39-AE40-AE41-AE42-AE43-AE44</f>
         <v>305.89999999999998</v>
       </c>
-      <c r="AF45" s="15">
+      <c r="AF45" s="13">
         <f>5902.6-AF44-AF43-AF42-AF41-AF40-AF39</f>
         <v>250.50000000000045</v>
       </c>
@@ -4000,8 +4031,8 @@
       <c r="U46" s="4">
         <v>2493.1</v>
       </c>
-      <c r="V46" s="15">
-        <f t="shared" si="18"/>
+      <c r="V46" s="13">
+        <f t="shared" si="23"/>
         <v>2318.9</v>
       </c>
       <c r="AB46" s="4">
@@ -4016,7 +4047,7 @@
       <c r="AE46" s="4">
         <v>2319.4</v>
       </c>
-      <c r="AF46" s="15">
+      <c r="AF46" s="13">
         <v>2318.9</v>
       </c>
     </row>
@@ -4042,8 +4073,8 @@
       <c r="U47" s="4">
         <v>1608.5</v>
       </c>
-      <c r="V47" s="15">
-        <f t="shared" si="18"/>
+      <c r="V47" s="13">
+        <f t="shared" si="23"/>
         <v>1454</v>
       </c>
       <c r="AB47" s="4">
@@ -4058,7 +4089,7 @@
       <c r="AE47" s="4">
         <v>1725.4</v>
       </c>
-      <c r="AF47" s="15">
+      <c r="AF47" s="13">
         <v>1454</v>
       </c>
     </row>
@@ -4090,8 +4121,8 @@
         <f>4599.5-U47-U46</f>
         <v>497.90000000000009</v>
       </c>
-      <c r="V48" s="15">
-        <f t="shared" si="18"/>
+      <c r="V48" s="13">
+        <f t="shared" si="23"/>
         <v>569.99999999999955</v>
       </c>
       <c r="AB48" s="4">
@@ -4110,7 +4141,7 @@
         <f>4379.3-AE47-AE46</f>
         <v>334.5</v>
       </c>
-      <c r="AF48" s="15">
+      <c r="AF48" s="13">
         <f>4342.9-AF47-AF46</f>
         <v>569.99999999999955</v>
       </c>
@@ -4124,27 +4155,27 @@
         <v>10552.5</v>
       </c>
       <c r="Q49" s="5">
-        <f>SUM(Q39:Q48)</f>
+        <f t="shared" ref="Q49:V49" si="25">SUM(Q39:Q48)</f>
         <v>12048.1</v>
       </c>
       <c r="R49" s="5">
-        <f>SUM(R39:R48)</f>
+        <f t="shared" si="25"/>
         <v>10776.3</v>
       </c>
       <c r="S49" s="5">
-        <f>SUM(S39:S48)</f>
+        <f t="shared" si="25"/>
         <v>10271.299999999999</v>
       </c>
       <c r="T49" s="5">
-        <f>SUM(T39:T48)</f>
+        <f t="shared" si="25"/>
         <v>9937.9</v>
       </c>
       <c r="U49" s="5">
-        <f>SUM(U39:U48)</f>
+        <f t="shared" si="25"/>
         <v>10661.3</v>
       </c>
-      <c r="V49" s="20">
-        <f>SUM(V39:V48)</f>
+      <c r="V49" s="18">
+        <f t="shared" si="25"/>
         <v>10245.5</v>
       </c>
       <c r="AB49" s="5">
@@ -4163,7 +4194,7 @@
         <f>SUM(AE39:AE48)</f>
         <v>10776.3</v>
       </c>
-      <c r="AF49" s="20">
+      <c r="AF49" s="18">
         <f>SUM(AF39:AF48)</f>
         <v>10245.5</v>
       </c>
@@ -4190,8 +4221,8 @@
       <c r="U50">
         <v>19810.099999999999</v>
       </c>
-      <c r="V50" s="15">
-        <f t="shared" si="18"/>
+      <c r="V50" s="13">
+        <f t="shared" si="23"/>
         <v>18766.900000000001</v>
       </c>
       <c r="AB50">
@@ -4206,7 +4237,7 @@
       <c r="AE50">
         <v>27911.1</v>
       </c>
-      <c r="AF50" s="15">
+      <c r="AF50" s="13">
         <f>AF38-AF49</f>
         <v>18766.900000000001</v>
       </c>
@@ -4237,7 +4268,7 @@
         <f>T77</f>
         <v>6790.9999999999991</v>
       </c>
-      <c r="V53" s="20"/>
+      <c r="V53" s="18"/>
       <c r="AB53" s="6">
         <v>657.1</v>
       </c>
@@ -4253,7 +4284,7 @@
         <f>AD77</f>
         <v>7723.1999999999962</v>
       </c>
-      <c r="AF53" s="20"/>
+      <c r="AF53" s="18"/>
     </row>
     <row r="54" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -4616,7 +4647,7 @@
       <c r="AE64" s="4">
         <v>-60.9</v>
       </c>
-      <c r="AF64" s="15"/>
+      <c r="AF64" s="13"/>
     </row>
     <row r="65" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -4964,7 +4995,7 @@
         <f>SUM(U54:U74)</f>
         <v>0</v>
       </c>
-      <c r="V75" s="20" t="s">
+      <c r="V75" s="18" t="s">
         <v>60</v>
       </c>
       <c r="AB75" s="6">
@@ -4983,7 +5014,7 @@
         <f>SUM(AE54:AE74)</f>
         <v>7208.1</v>
       </c>
-      <c r="AF75" s="20"/>
+      <c r="AF75" s="18"/>
     </row>
     <row r="76" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
@@ -5042,7 +5073,7 @@
         <f>U53+SUM(U54:U74)+U76</f>
         <v>6790.9999999999991</v>
       </c>
-      <c r="V77" s="20"/>
+      <c r="V77" s="18"/>
       <c r="AB77" s="6">
         <f>AB53+SUM(AB54:AB74)+AB76</f>
         <v>511.5</v>
@@ -5059,7 +5090,7 @@
         <f>AE53+SUM(AE54:AE74)+AE76</f>
         <v>15235.799999999996</v>
       </c>
-      <c r="AF77" s="20"/>
+      <c r="AF77" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5116,304 +5147,303 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>36401</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="4">
         <v>19391</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>20474</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="4">
         <v>4825</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>18467</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="4">
         <v>2738</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
         <f>F4/F3</f>
         <v>0.56245707535507261</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f>G4/G3</f>
         <v>0.24882677530813263</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
         <f>F5/F3</f>
         <v>0.50732122743880659</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <f>G5/G3</f>
         <v>0.14119952555309165</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>17959</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="4">
         <v>3191</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>11843</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="4">
         <v>11907</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>2863</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="4">
         <v>1500</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <v>36380</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="4">
         <v>19210</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
         <v>20371</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="4">
         <v>4775</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <v>18365</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="4">
         <v>2717</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
         <v>24</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="4">
         <v>202</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
         <v>103</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="4">
         <v>50</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
         <v>102</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="4">
         <v>21</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B20" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="10">
         <f>F14/F5</f>
         <v>0.99447663399577624</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <f>G14/G5</f>
         <v>0.99233016800584373</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="B21" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="10">
         <f>G16/F16-1</f>
         <v>7.4166666666666661</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="B22" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="10">
         <f>G11/F11-1</f>
         <v>-0.47607404820118759</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="11">
+      <c r="D24" s="4">
         <f>SUM(D25:D26)</f>
         <v>237</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="4">
         <f>SUM(E25:E26)</f>
         <v>253</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="4">
         <f>SUM(F25:F26)</f>
         <v>251</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="4">
         <f>SUM(G25:G26)</f>
         <v>266</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -5423,74 +5453,74 @@
       <c r="B25" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="4">
         <v>112</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="4">
         <v>113</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="4">
         <v>121</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="4">
         <v>123</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="4">
         <v>125</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="4">
         <v>140</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="4">
         <v>130</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="4">
         <v>143</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="4">
         <v>1719</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="4">
         <v>1769</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="4">
         <v>1797</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="4">
         <v>1972</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>104</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="11">
+      <c r="D28" s="4">
         <v>2704</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="4">
         <v>3058</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="4">
         <v>2972</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="4">
         <v>2975</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="4"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -5500,51 +5530,51 @@
       <c r="B29" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="11">
+      <c r="D32" s="4">
         <f>D33+D35</f>
         <v>0</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="4">
         <f>SUM(E33:E35)</f>
         <v>16070</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="4">
         <f>SUM(F33:F35)</f>
         <v>16050</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="4">
         <f>SUM(G33:G35)</f>
         <v>17700</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -5554,61 +5584,61 @@
       <c r="B33" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
         <v>14106</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="4">
         <v>13982</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="4">
         <v>13526</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4">
         <v>1964</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="4">
         <v>1802</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="4">
         <v>1305</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4">
         <v>266</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="4">
         <v>2869</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
